--- a/Scripts/countries.xlsx
+++ b/Scripts/countries.xlsx
@@ -36,9 +36,6 @@
     <t>https://en.wikipedia.org/wiki/Afghanistan</t>
   </si>
   <si>
-    <t>Afghanistan (/æfˈɡænɪstæn/ ( listen); Pashto/Dari: افغانستان‎, Pashto: Afġānistān [avɣɒnisˈtɒn, abɣɒnisˈtɒn],[10] Dari: Afġānestān [avɣɒnesˈtɒn]), officially the Islamic Republic of Afghanistan, is a landlocked country located within South Asia and Central Asia.[11][12] The country has a population of 35 million, making it the 42nd most populous country in the world. Afghanistan is bordered by Pakistan in the south and east; Iran in the west; Turkmenistan, Uzbekistan, and Tajikistan in the north; and China in the far northeast - it also borders Gilgit-Baltistan in this region which is claimed by India. Its territory covers 652,000 square kilometers (252,000 sq mi), making it the 41st largest country in the world.</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -1888,6 +1885,9 @@
   </si>
   <si>
     <t>Transnistria (Romanian: [transˈnistria]), officially the Pridnestrovian Moldavian Republic (PMR; Russian: Приднестровская Молдавская Республика, ПМР; Romanian: Republica Moldovenească Nistreană, RMN; Република Молдовеняскэ Нистрянэ; Ukrainian: Придністровська Молдавська Республіка), and also called Transdniester, Trans-Dniestr, Transdniestria, or Pridnestrovie, is a landlocked self-proclaimed state situated in geographical region Transnistria between Ukraine and the River Dniester, recognised only by three other non-United Nations (UN) states: Abkhazia, Republic of Artsakh and South Ossetia.[6] The region is considered by the UN to be part of Moldova. The PMR controls a narrow strip of territory to the east of the River Dniester, and also the city of Bender and its surrounding localities on the west bank, in the historical region of Bessarabia.</t>
+  </si>
+  <si>
+    <t>Afghanistan, officially the Islamic Republic of Afghanistan, is a landlocked country located within South Asia and Central Asia. The country has a population of 35 million, making it the 42nd most populous country in the world. Afghanistan is bordered by Pakistan in the south and east; Iran in the west; Turkmenistan, Uzbekistan, and Tajikistan in the north; and China in the far northeast - it also borders Gilgit-Baltistan in this region which is claimed by India. Its territory covers 652,000 square kilometers, making it the 41st largest country in the world.</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2721,2273 +2721,2273 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>115</v>
-      </c>
-      <c r="C39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>154</v>
-      </c>
-      <c r="C52" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>157</v>
-      </c>
-      <c r="C53" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>160</v>
-      </c>
-      <c r="C54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>169</v>
-      </c>
-      <c r="C57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>178</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>187</v>
-      </c>
-      <c r="C63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>199</v>
-      </c>
-      <c r="C67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>205</v>
-      </c>
-      <c r="C69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>208</v>
-      </c>
-      <c r="C70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>214</v>
-      </c>
-      <c r="C72" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>217</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>226</v>
-      </c>
-      <c r="C76" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>232</v>
-      </c>
-      <c r="C78" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="s">
         <v>234</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>235</v>
-      </c>
-      <c r="C79" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
         <v>237</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>238</v>
-      </c>
-      <c r="C80" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
         <v>240</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>241</v>
-      </c>
-      <c r="C81" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>244</v>
-      </c>
-      <c r="C82" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>247</v>
-      </c>
-      <c r="C83" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="s">
         <v>249</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>250</v>
-      </c>
-      <c r="C84" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>253</v>
-      </c>
-      <c r="C85" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
         <v>255</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>256</v>
-      </c>
-      <c r="C86" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>259</v>
-      </c>
-      <c r="C87" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>262</v>
-      </c>
-      <c r="C88" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" t="s">
         <v>264</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>265</v>
-      </c>
-      <c r="C89" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>268</v>
-      </c>
-      <c r="C90" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>271</v>
-      </c>
-      <c r="C91" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>274</v>
-      </c>
-      <c r="C92" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>277</v>
-      </c>
-      <c r="C93" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>280</v>
-      </c>
-      <c r="C94" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>283</v>
-      </c>
-      <c r="C95" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>286</v>
-      </c>
-      <c r="C96" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>289</v>
-      </c>
-      <c r="C97" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>292</v>
-      </c>
-      <c r="C98" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
+        <v>293</v>
+      </c>
+      <c r="B99" t="s">
         <v>294</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>295</v>
-      </c>
-      <c r="C99" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
         <v>297</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>298</v>
-      </c>
-      <c r="C100" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>301</v>
-      </c>
-      <c r="C101" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
         <v>303</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>304</v>
-      </c>
-      <c r="C102" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" t="s">
         <v>306</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>307</v>
-      </c>
-      <c r="C103" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
         <v>309</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>310</v>
-      </c>
-      <c r="C104" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" t="s">
         <v>312</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>313</v>
-      </c>
-      <c r="C105" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" t="s">
         <v>315</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>316</v>
-      </c>
-      <c r="C106" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" t="s">
         <v>318</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>319</v>
-      </c>
-      <c r="C107" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
         <v>321</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>322</v>
-      </c>
-      <c r="C108" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
         <v>324</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>325</v>
-      </c>
-      <c r="C109" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" t="s">
         <v>327</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>328</v>
-      </c>
-      <c r="C110" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
         <v>330</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>331</v>
-      </c>
-      <c r="C111" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
         <v>333</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>334</v>
-      </c>
-      <c r="C112" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
         <v>336</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>337</v>
-      </c>
-      <c r="C113" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
         <v>339</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>340</v>
-      </c>
-      <c r="C114" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
         <v>342</v>
       </c>
-      <c r="B115" t="s">
-        <v>343</v>
-      </c>
       <c r="C115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" t="s">
         <v>344</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>345</v>
-      </c>
-      <c r="C116" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" t="s">
         <v>347</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>348</v>
-      </c>
-      <c r="C117" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" t="s">
         <v>350</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>351</v>
-      </c>
-      <c r="C118" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" t="s">
         <v>353</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>354</v>
-      </c>
-      <c r="C119" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" t="s">
         <v>356</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>357</v>
-      </c>
-      <c r="C120" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" t="s">
         <v>359</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>360</v>
-      </c>
-      <c r="C121" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" t="s">
         <v>362</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>363</v>
-      </c>
-      <c r="C122" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" t="s">
         <v>365</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>366</v>
-      </c>
-      <c r="C123" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" t="s">
         <v>368</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>369</v>
-      </c>
-      <c r="C124" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" t="s">
         <v>371</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>372</v>
-      </c>
-      <c r="C125" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" t="s">
         <v>374</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>375</v>
-      </c>
-      <c r="C126" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
         <v>377</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>378</v>
-      </c>
-      <c r="C127" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" t="s">
         <v>380</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>381</v>
-      </c>
-      <c r="C128" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" t="s">
         <v>383</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>384</v>
-      </c>
-      <c r="C129" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" t="s">
         <v>386</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>387</v>
-      </c>
-      <c r="C130" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" t="s">
         <v>389</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>390</v>
-      </c>
-      <c r="C131" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" t="s">
         <v>392</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>393</v>
-      </c>
-      <c r="C132" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" t="s">
         <v>395</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>396</v>
-      </c>
-      <c r="C133" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" t="s">
         <v>398</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>399</v>
-      </c>
-      <c r="C134" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" t="s">
         <v>401</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>402</v>
-      </c>
-      <c r="C135" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" t="s">
         <v>404</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>405</v>
-      </c>
-      <c r="C136" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" t="s">
         <v>407</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>408</v>
-      </c>
-      <c r="C137" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
+        <v>409</v>
+      </c>
+      <c r="B138" t="s">
         <v>410</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>411</v>
-      </c>
-      <c r="C138" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
+        <v>412</v>
+      </c>
+      <c r="B139" t="s">
         <v>413</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>414</v>
-      </c>
-      <c r="C139" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
+        <v>415</v>
+      </c>
+      <c r="B140" t="s">
         <v>416</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>417</v>
-      </c>
-      <c r="C140" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
+        <v>418</v>
+      </c>
+      <c r="B141" t="s">
         <v>419</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>420</v>
-      </c>
-      <c r="C141" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
+        <v>421</v>
+      </c>
+      <c r="B142" t="s">
         <v>422</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>423</v>
-      </c>
-      <c r="C142" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
+        <v>424</v>
+      </c>
+      <c r="B143" t="s">
         <v>425</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>426</v>
-      </c>
-      <c r="C143" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
+        <v>427</v>
+      </c>
+      <c r="B144" t="s">
         <v>428</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>429</v>
-      </c>
-      <c r="C144" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" t="s">
         <v>431</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>432</v>
-      </c>
-      <c r="C145" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
+        <v>433</v>
+      </c>
+      <c r="B146" t="s">
         <v>434</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>435</v>
-      </c>
-      <c r="C146" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" t="s">
         <v>437</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>438</v>
-      </c>
-      <c r="C147" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" t="s">
         <v>440</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>441</v>
-      </c>
-      <c r="C148" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
+        <v>442</v>
+      </c>
+      <c r="B149" t="s">
         <v>443</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>444</v>
-      </c>
-      <c r="C149" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" t="s">
         <v>446</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>447</v>
-      </c>
-      <c r="C150" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" t="s">
         <v>449</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>450</v>
-      </c>
-      <c r="C151" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" t="s">
         <v>452</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>453</v>
-      </c>
-      <c r="C152" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
+        <v>454</v>
+      </c>
+      <c r="B153" t="s">
         <v>455</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>456</v>
-      </c>
-      <c r="C153" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" t="s">
         <v>458</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>459</v>
-      </c>
-      <c r="C154" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
+        <v>460</v>
+      </c>
+      <c r="B155" t="s">
         <v>461</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>462</v>
-      </c>
-      <c r="C155" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" t="s">
         <v>464</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>465</v>
-      </c>
-      <c r="C156" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
+        <v>466</v>
+      </c>
+      <c r="B157" t="s">
         <v>467</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>468</v>
-      </c>
-      <c r="C157" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
+        <v>469</v>
+      </c>
+      <c r="B158" t="s">
         <v>470</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>471</v>
-      </c>
-      <c r="C158" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
+        <v>472</v>
+      </c>
+      <c r="B159" t="s">
         <v>473</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>474</v>
-      </c>
-      <c r="C159" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
+        <v>475</v>
+      </c>
+      <c r="B160" t="s">
         <v>476</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>477</v>
-      </c>
-      <c r="C160" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
+        <v>478</v>
+      </c>
+      <c r="B161" t="s">
         <v>479</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>480</v>
-      </c>
-      <c r="C161" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
+        <v>481</v>
+      </c>
+      <c r="B162" t="s">
         <v>482</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>483</v>
-      </c>
-      <c r="C162" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
+        <v>484</v>
+      </c>
+      <c r="B163" t="s">
         <v>485</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>486</v>
-      </c>
-      <c r="C163" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
+        <v>487</v>
+      </c>
+      <c r="B164" t="s">
         <v>488</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>489</v>
-      </c>
-      <c r="C164" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
+        <v>490</v>
+      </c>
+      <c r="B165" t="s">
         <v>491</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>492</v>
-      </c>
-      <c r="C165" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
+        <v>493</v>
+      </c>
+      <c r="B166" t="s">
         <v>494</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>495</v>
-      </c>
-      <c r="C166" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
+        <v>496</v>
+      </c>
+      <c r="B167" t="s">
         <v>497</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>498</v>
-      </c>
-      <c r="C167" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
+        <v>499</v>
+      </c>
+      <c r="B168" t="s">
         <v>500</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>501</v>
-      </c>
-      <c r="C168" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
+        <v>502</v>
+      </c>
+      <c r="B169" t="s">
         <v>503</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>504</v>
-      </c>
-      <c r="C169" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
+        <v>505</v>
+      </c>
+      <c r="B170" t="s">
         <v>506</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>507</v>
-      </c>
-      <c r="C170" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
+        <v>508</v>
+      </c>
+      <c r="B171" t="s">
         <v>509</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>510</v>
-      </c>
-      <c r="C171" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
+        <v>511</v>
+      </c>
+      <c r="B172" t="s">
         <v>512</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>513</v>
-      </c>
-      <c r="C172" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
+        <v>514</v>
+      </c>
+      <c r="B173" t="s">
         <v>515</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>516</v>
-      </c>
-      <c r="C173" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
+        <v>517</v>
+      </c>
+      <c r="B174" t="s">
         <v>518</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>519</v>
-      </c>
-      <c r="C174" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
+        <v>520</v>
+      </c>
+      <c r="B175" t="s">
         <v>521</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>522</v>
-      </c>
-      <c r="C175" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
+        <v>523</v>
+      </c>
+      <c r="B176" t="s">
         <v>524</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>525</v>
-      </c>
-      <c r="C176" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
+        <v>526</v>
+      </c>
+      <c r="B177" t="s">
         <v>527</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>528</v>
-      </c>
-      <c r="C177" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
+        <v>529</v>
+      </c>
+      <c r="B178" t="s">
         <v>530</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>531</v>
-      </c>
-      <c r="C178" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
+        <v>532</v>
+      </c>
+      <c r="B179" t="s">
         <v>533</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>534</v>
-      </c>
-      <c r="C179" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
+        <v>535</v>
+      </c>
+      <c r="B180" t="s">
         <v>536</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>537</v>
-      </c>
-      <c r="C180" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
+        <v>538</v>
+      </c>
+      <c r="B181" t="s">
         <v>539</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>540</v>
-      </c>
-      <c r="C181" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
+        <v>541</v>
+      </c>
+      <c r="B182" t="s">
         <v>542</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>543</v>
-      </c>
-      <c r="C182" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
+        <v>544</v>
+      </c>
+      <c r="B183" t="s">
         <v>545</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>546</v>
-      </c>
-      <c r="C183" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
+        <v>547</v>
+      </c>
+      <c r="B184" t="s">
         <v>548</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>549</v>
-      </c>
-      <c r="C184" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
+        <v>550</v>
+      </c>
+      <c r="B185" t="s">
         <v>551</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>552</v>
-      </c>
-      <c r="C185" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
+        <v>553</v>
+      </c>
+      <c r="B186" t="s">
         <v>554</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>555</v>
-      </c>
-      <c r="C186" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
+        <v>556</v>
+      </c>
+      <c r="B187" t="s">
         <v>557</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>558</v>
-      </c>
-      <c r="C187" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
+        <v>559</v>
+      </c>
+      <c r="B188" t="s">
         <v>560</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>561</v>
-      </c>
-      <c r="C188" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
+        <v>562</v>
+      </c>
+      <c r="B189" t="s">
         <v>563</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>564</v>
-      </c>
-      <c r="C189" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" t="s">
         <v>566</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>567</v>
-      </c>
-      <c r="C190" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
+        <v>568</v>
+      </c>
+      <c r="B191" t="s">
         <v>569</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>570</v>
-      </c>
-      <c r="C191" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
+        <v>571</v>
+      </c>
+      <c r="B192" t="s">
         <v>572</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>573</v>
-      </c>
-      <c r="C192" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
+        <v>574</v>
+      </c>
+      <c r="B193" t="s">
         <v>575</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>576</v>
-      </c>
-      <c r="C193" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
+        <v>577</v>
+      </c>
+      <c r="B194" t="s">
         <v>578</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>579</v>
-      </c>
-      <c r="C194" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
+        <v>580</v>
+      </c>
+      <c r="B195" t="s">
         <v>581</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>582</v>
-      </c>
-      <c r="C195" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
+        <v>583</v>
+      </c>
+      <c r="B196" t="s">
         <v>584</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>585</v>
-      </c>
-      <c r="C196" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
+        <v>586</v>
+      </c>
+      <c r="B197" t="s">
         <v>587</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>588</v>
-      </c>
-      <c r="C197" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
+        <v>589</v>
+      </c>
+      <c r="B198" t="s">
         <v>590</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>591</v>
-      </c>
-      <c r="C198" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
+        <v>592</v>
+      </c>
+      <c r="B199" t="s">
         <v>593</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>594</v>
-      </c>
-      <c r="C199" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
+        <v>595</v>
+      </c>
+      <c r="B200" t="s">
         <v>596</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>597</v>
-      </c>
-      <c r="C200" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
+        <v>598</v>
+      </c>
+      <c r="B201" t="s">
         <v>599</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>600</v>
-      </c>
-      <c r="C201" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
+        <v>601</v>
+      </c>
+      <c r="B202" t="s">
         <v>602</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>603</v>
-      </c>
-      <c r="C202" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
+        <v>604</v>
+      </c>
+      <c r="B203" t="s">
         <v>605</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>606</v>
-      </c>
-      <c r="C203" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
+        <v>607</v>
+      </c>
+      <c r="B204" t="s">
         <v>608</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>609</v>
-      </c>
-      <c r="C204" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
+        <v>610</v>
+      </c>
+      <c r="B205" t="s">
         <v>611</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>612</v>
-      </c>
-      <c r="C205" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
+        <v>613</v>
+      </c>
+      <c r="B206" t="s">
         <v>614</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>615</v>
-      </c>
-      <c r="C206" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
+        <v>616</v>
+      </c>
+      <c r="B207" t="s">
         <v>617</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>618</v>
-      </c>
-      <c r="C207" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
+        <v>619</v>
+      </c>
+      <c r="B208" t="s">
         <v>620</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>621</v>
-      </c>
-      <c r="C208" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/countries.xlsx
+++ b/Scripts/countries.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
   <si>
     <t>name</t>
   </si>
@@ -42,306 +43,204 @@
     <t>https://en.wikipedia.org/wiki/Albania</t>
   </si>
   <si>
-    <t>Albania (/ælˈbeɪniə, ɔːl-/ ( listen) a(w)l-BAY-nee-ə; Albanian: Shqipëri/Shqipëria; Gheg Albanian: Shqipni/Shqipnia or Shqypni/Shqypnia),[6] officially the Republic of Albania (Albanian: Republika e Shqipërisë, pronounced [ɾɛpuˈblika ɛ ʃcipəˈɾiːsə]), is a country in Southern and Southeastern Europe. It spans 28,748 square kilometres (11,100 square miles) and had a total population of 3 million people as of 2016[update]. Albania is a unitary parliamentary constitutional republic with the capital in Tirana, the country's most populous city and main economic and commercial centre, followed by Durrës. The country's other major cities include Vlorë, Sarandë, Shkodër, Berat, Korçë, Gjirokastër and Fier.</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Algeria</t>
   </si>
   <si>
-    <t>Algeria (Arabic: الجزائر‎ al-Jazā'ir; Berber: ⴷⵣⴰⵢⴻⵔ, Dzayer; French: Algérie), officially the People's Democratic Republic of Algeria, is a sovereign state in North Africa on the Mediterranean coast. Its capital and most populous city is Algiers, located in the country's far north. With an area of 2,381,741 square kilometres (919,595 sq mi), Algeria is the tenth-largest country in the world, and the largest in Africa.[11] Algeria is bordered to the northeast by Tunisia, to the east by Libya, to the west by Morocco, to the southwest by the Western Saharan territory, Mauritania, and Mali, to the southeast by Niger, and to the north by the Mediterranean Sea. The country is a semi-presidential republic consisting of 48 provinces and 1,541 communes (counties). Abdelaziz Bouteflika has been President since 1999.</t>
-  </si>
-  <si>
     <t>Andorra</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Andorra</t>
   </si>
   <si>
-    <t>Andorra (/ænˈdɔːrə/ ( listen); Catalan: [ənˈdorə], locally [anˈdɔra]), officially the Principality of Andorra (Catalan: Principat d'Andorra), also called the Principality of the Valleys of Andorra[6] (Catalan: Principat de les Valls d'Andorra), is a sovereign landlocked microstate in Southwestern Europe, located in the eastern Pyrenees mountains and bordered by France in the north, and Spain in the south. Created under a charter in 988, the present principality was formed in 1278. It is known as a principality as it is a diarchy headed by two Co-Princes – the Catholic Bishop of Urgell in Spain and the President of France.</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Angola</t>
   </si>
   <si>
-    <t>Angola (/æŋˈɡoʊlə/), officially the Republic of Angola (Portuguese: República de Angola pronounced [ɐ̃ˈɡɔlɐ]; Kikongo, Kimbundu and Umbundu: Repubilika ya Ngola), is a country in Southern Africa. It is the seventh-largest country in Africa, bordered by Namibia to the south, the Democratic Republic of the Congo to the north, Zambia to the east, and the Atlantic Ocean to the west. The exclave province of Cabinda borders the Republic of the Congo and the Democratic Republic of the Congo. The capital and largest city of Angola is Luanda.</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antigua_and_Barbuda</t>
   </si>
   <si>
-    <t>Antigua and Barbuda (/ænˈtiːɡə ənd bɑːrˈbjuːdə/ ( listen); an-TEE-gǝ ǝnd bar-BEW-dǝ) is a sovereign state in the Americas, lying between the Caribbean Sea and the Atlantic Ocean. It consists of two major islands, Antigua and Barbuda, and a number of smaller islands (including Great Bird, Green, Guiana, Long, Maiden and York Islands and further south, the island of Redonda). The permanent population numbers about 81,800 (at the 2011 Census) and the capital and largest port and city is St. John's, on Antigua.</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentina</t>
   </si>
   <si>
-    <t>Argentina (/ˌɑːrdʒənˈtiːnə/ ( listen); Spanish: [aɾxenˈtina]), officially the Argentine Republic[A] (Spanish: República Argentina), is a federal republic in the southern portion of South America. Sharing the bulk of the Southern Cone with its neighbor Chile to the west, the country is also bordered by Bolivia and Paraguay to the north, Brazil to the northeast, Uruguay and the South Atlantic Ocean to the east, and the Drake Passage to the south. With a mainland area of 2,780,400 km2 (1,073,500 sq mi),[B] Argentina is the eighth-largest country in the world, the second largest in Latin America, and the largest Spanish-speaking nation. It is subdivided into twenty-three provinces (Spanish: provincias, singular provincia) and one autonomous city (ciudad autónoma), Buenos Aires, which is the federal capital of the nation (Spanish: Capital Federal) as decided by Congress.[12] The provinces and the capital have their own constitutions, but exist under a federal system. Argentina claims sovereignty over part of Antarctica, the Falkland Islands (Spanish: Islas Malvinas), and South Georgia and the South Sandwich Islands.</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Armenia</t>
   </si>
   <si>
-    <t>Armenia (/ɑːrˈmiːniə/ ( listen), /-ˈmiːnjə/;[23] Armenian: Հայաստան, translit. Hayastan, IPA: [hɑjɑsˈtɑn]), officially the Republic of Armenia (Armenian: Հայաստանի Հանրապետություն, translit. Hayastani Hanrapetut'yun, IPA: [hɑjɑstɑˈni hɑnɾɑpɛtutʰˈjun]), is a country in the South Caucasus region of Eurasia. Located in West Asia[24][25] on the Armenian Highlands, it is bordered by Turkey to the west, Georgia to the north, the de facto independent Republic of Artsakh and Azerbaijan to the east, and Iran and Azerbaijan's exclave of Nakhchivan to the south.[26]</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Australia</t>
   </si>
   <si>
-    <t>Australia (/əˈstreɪliə/ ( listen), /ɒ-/, /-ljə/),[10][11] officially the Commonwealth of Australia,[12] is a sovereign country comprising the mainland of the Australian continent, the island of Tasmania and numerous smaller islands. It is the largest country in Oceania and the world's sixth-largest country by total area. The neighbouring countries are Papua New Guinea, Indonesia and East Timor to the north; the Solomon Islands and Vanuatu to the north-east; and New Zealand to the south-east. Australia's capital is Canberra, and its largest urban area is Sydney.</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Austria</t>
   </si>
   <si>
-    <t>Austria (/ˈɒstriə, ˈɔː-/ ( listen);[7][8] German: Österreich [ˈøːstɐˌʁaɪç] ( listen)), officially the Republic of Austria (German: Republik Österreich,  listen (help·info)), is a federal republic and a landlocked country of over 8.7 million people[2] in Central Europe. It is bordered by the Czech Republic and Germany to the north, Hungary and Slovakia to the east, Slovenia and Italy to the south, and Switzerland and Liechtenstein to the west. The territory of Austria covers 83,879 km2 (32,386 sq mi). The terrain is highly mountainous, lying within the Alps; only 32% of the country is below 500 m (1,640 ft), and its highest point is 3,798 m (12,461 ft).[9] The majority of the population speaks local Bavarian dialects of German as their native language,[10] and German in its standard form is the country's official language.[11] Other local official languages are Hungarian, Burgenland Croatian, and Slovene.[9]</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Azerbaijan</t>
   </si>
   <si>
-    <t>Azerbaijan (/ˌæzərbaɪˈdʒɑːn/ AZ-ər-by-JAHN; Azerbaijani: Azərbaycan [ɑzæɾbɑjˈd͡ʒɑn]), officially the Republic of Azerbaijan (Azerbaijani: Azərbaycan Respublikası [ɑzæɾbɑjˈd͡ʒɑn ɾespublikɑˈsɯ]), is a country in the South Caucasus region, situated at the crossroads of Southwest Asia and Southeastern Europe.[6] It is bound by the Caspian Sea to the east, Russia to the north, Georgia to the northwest, Armenia to the west and Iran to the south. The exclave of Nakhchivan is bound by Armenia to the north and east, Iran to the south and west, and has an 11 km long border with Turkey in the north west.</t>
-  </si>
-  <si>
     <t>The Bahamas</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Bahamas</t>
   </si>
   <si>
-    <t>The Bahamas (/bəˈhɑːməz/ ( listen)), known officially as the Commonwealth of The Bahamas,[11] is an archipelagic state within the Lucayan Archipelago. It consists of more than 700 islands, cays, and islets in the Atlantic Ocean, and is located north of Cuba and Hispaniola (Haiti and the Dominican Republic), northwest of the Turks and Caicos Islands, southeast of the US state of Florida, and east of the Florida Keys. The capital is Nassau on the island of New Providence. The designation of "the Bahamas" can refer either to the country or to the larger island chain that it shares with the Turks and Caicos Islands. As stated in the mandate/manifesto of the Royal Bahamas Defence Force, the Bahamas territory encompasses 470,000 km2 (180,000 sq mi) of ocean space.</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bahrain</t>
   </si>
   <si>
-    <t>Bahrain (/bɑːˈreɪn/ ( listen); Arabic: البحرين‎ al-Baḥrayn IPA: [aɫ baħrajn] ( listen)), officially the Kingdom of Bahrain (Arabic: مملكة البحرين‎  Mamlakat al-Baḥrayn), is an Arab constitutional monarchy in the Persian Gulf. It is an island country consisting of a small archipelago centered around Bahrain Island, situated between the Qatar peninsula and the north eastern coast of Saudi Arabia, to which it is connected by the 25 km (16 mi) King Fahd Causeway. Bahrain's population is 1,234,571 (c. 2010), including 666,172 non-nationals.[8] It is 780 km2 in size, making it the third smallest nation in Asia after the Maldives and Singapore.[9]</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bangladesh</t>
   </si>
   <si>
-    <t>Bangladesh (/ˌbæŋɡləˈdɛʃ/ ( listen) or /ˌbɑːŋ-/; Bengali: বাংলাদেশ Bāṃlādēśa, pronounced [ˈbaŋlad̪eʃ] ( listen), lit. "The country of Bengal"), officially the People's Republic of Bangladesh (গণপ্রজাতন্ত্রী বাংলাদেশ Gaṇaprajātantrī Bāṃlādēśa), is a country in South Asia. It shares land borders with India and Myanmar (Burma). Nepal, Bhutan and China are located near Bangladesh but do not share a border with it. The country's maritime territory in the Bay of Bengal is roughly equal to the size of its land area.[12] Bangladesh is the world's eighth most populous country. Dhaka is its capital and largest city, followed by Chittagong, which has the country's largest port.</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Barbados</t>
   </si>
   <si>
-    <t>Barbados (/bɑːrˈbeɪdɒs/ ( listen) or /bɑːrˈbeɪdoʊs/) is an island country in the Lesser Antilles, in the Caribbean region of North America. It is 34 kilometres (21 miles) in length and up to 23 km (14 mi) in width, covering an area of 432 km2 (167 sq mi). It is situated in the western area of the North Atlantic and 100 km (62 mi) east of the Windward Islands and the Caribbean Sea;[6] therein, it is about 168 km (104 mi) east of the islands of Saint Vincent and the Grenadines and 400 km (250 mi) north-east of Trinidad and Tobago. Barbados is outside the principal Atlantic hurricane belt. Its capital and largest city is Bridgetown.</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Belarus</t>
   </si>
   <si>
-    <t>Belarus (/bɛləˈruːs/ ( listen) be-lə-ROOS; Belarusian: Беларусь, translit. Biełaruś; IPA: [bʲɛlaˈrusʲ]; Russian: Беларусь, IPA: [bʲɪlɐˈrusʲ]), officially the Republic of Belarus (Belarusian: Рэспубліка Беларусь; Russian: Республика Беларусь), formerly known by its Russian name Byelorussia or Belorussia (Russian: Белоруссия), is a landlocked country in Eastern Europe[7] bordered by Russia to the northeast, Ukraine to the south, Poland to the west, and Lithuania and Latvia to the northwest. Its capital and most populous city is Minsk. Over 40% of its 207,600 square kilometres (80,200 sq mi) is forested. Its major economic sectors are service industries and manufacturing.[8] Until the 20th century, different states at various times controlled the lands of modern-day Belarus, including the Principality of Polotsk (11th to 14th centuries), the Grand Duchy of Lithuania, the Polish–Lithuanian Commonwealth, and the Russian Empire.</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Belgium</t>
   </si>
   <si>
-    <t>Belgium (/ˈbɛldʒəm/ ( listen)),[A] officially the Kingdom of Belgium, is a sovereign state in Western Europe bordered by France, the Netherlands, Germany, Luxembourg, and the North Sea. It is a small, densely populated country which covers an area of 30,528 square kilometres (11,787 sq mi) and has a population of about 11 million people. Straddling the cultural boundary between Germanic and Latin Europe, Belgium is home to two main linguistic groups: the Dutch-speaking, mostly Flemish community, which constitutes about 59 percent of the population, and the French-speaking, mostly Walloon population, which comprises about 40 percent of all Belgians. Additionally, there is a small ~1 percent group of German speakers who live in the East Cantons.</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Belize</t>
   </si>
   <si>
-    <t>Belize (/bəˈliːz/ ( listen)), formerly British Honduras, is an independent country on the eastern coast of Central America. Belize is bordered on the north by Mexico, on the south and west by Guatemala, and on the east by the Caribbean Sea. Its mainland is about 290 km (180 mi) long and 110 km (68 mi) wide.</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Benin</t>
   </si>
   <si>
-    <t>Benin (US: /bɪˈniːn, -ˈnɪn/ bǝ-NEEN or -NIN; UK: /bɛˈniːn/ beh-NEEN; French: Bénin pronounced [benɛ̃]), officially the Republic of Benin (French: République du Bénin) and formerly Dahomey, is a country in West Africa. It is bordered by Togo to the west, Nigeria to the east, and Burkina Faso and Niger to the north. The majority of its population lives on the small southern coastline of the Bight of Benin, part of the Gulf of Guinea in the northernmost tropical portion of the Atlantic Ocean.[7] The capital of Benin is Porto-Novo, but the seat of government is in Cotonou, the country's largest city and economic capital. Benin covers an area of 114,763 square kilometers[1] and its population in 2016 was estimated to be approximately 10.87 million[2]. Benin is a tropical nation, highly dependent on agriculture, with substantial employment and income arising from subsistence farming.[8]</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bhutan</t>
   </si>
   <si>
-    <t>Bhutan (/buːˈtɑːn/; འབྲུག་ཡུལ་ Druk Yul), officially the Kingdom of Bhutan (འབྲུག་རྒྱལ་ཁབ་ Druk Gyal Khap),[10] is a landlocked country in South Asia. Located in the Eastern Himalayas, it is bordered by Tibet Autonomous Region of China in the north, India in the south, the Sikkim state of India and the Chumbi Valley of Tibet in the west, and Arunachal Pradesh state of India in the east and Assam in the south. Bhutan is geopolitically in South Asia and is the region's second least populous nation after the Maldives. Thimphu is its capital and largest city, while Phuntsholing is its financial center.</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bolivia</t>
   </si>
   <si>
-    <t>Bolivia (/bəˈlɪviə/ ( listen); Spanish: [boˈliβja]; Guarani: Mborivia [ᵐboˈɾiʋja]; Quechua: Buliwya [bʊlɪwja]; Aymara: Wuliwya [wʊlɪwja]), officially known as the Plurinational State of Bolivia (Spanish: Estado Plurinacional de Bolivia),[8][9] is located in western-central South America. It is bordered to the north and east by Brazil, to the southeast by Paraguay, to the south by Argentina, to the southwest by Chile, and to the northwest by Peru. It has no ocean access. One-third of the country is the Andean mountain range.</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina (/ˈbɒzniə ən ˌhɛərtsəɡoʊˈviːnə, -ˌhɜːrt-, -ɡə-/ ( listen) or /ˌhɜːrtsəˈɡɒvɪnə/;[10][11] abbreviated B&amp;H; Bosnian and Serbian: Bosna i Hercegovina (BiH) / Боснa и Херцеговина (БиХ), Croatian: Bosna i Hercegovina (BiH) pronounced [bôsna i xěrt͡seɡoʋina]), sometimes called Bosnia-Herzegovina, and often known informally as Bosnia, is a country in Southeastern Europe located on the Balkan Peninsula. Sarajevo is the capital and largest city. Bordered by Croatia to the north, and west; Serbia to the east; Montenegro to the southeast; and the Adriatic Sea to the south, with a coastline about 20 kilometres (12 miles) long surrounding the town of Neum. In the central and eastern interior of the country the geography is mountainous, in the northwest it is moderately hilly, and the northeast is predominantly flatland. The inland is a geographically larger region and has a moderate continental climate, with hot summers and cold and snowy winters. The southern tip of the country has a Mediterranean climate and plain topography.</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Botswana</t>
   </si>
   <si>
-    <t>Botswana (/bɒtˈswɑːnə/), officially the Republic of Botswana (Tswana: Lefatshe la Botswana), is a landlocked country located in Southern Africa. The citizens refer to themselves as Batswana (singular: Motswana).[6][not in citation given] Formerly the British protectorate of Bechuanaland, Botswana adopted its new name after becoming independent within the Commonwealth on 30 September 1966.[7] Since then, it has maintained a strong tradition of stable representative democracy, with a consistent record of uninterrupted democratic elections and the best perceived corruption ranking in Africa for the last four years.[8]</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brazil</t>
   </si>
   <si>
-    <t>Brazil (/brəˈzɪl/ ( listen); Portuguese: Brasil [bɾaˈziw][11]), officially the Federative Republic of Brazil (Portuguese: República Federativa do Brasil,  listen (help·info)[12]), is the largest country in both South America and Latin America. At 8.5 million square kilometers (3.2 million square miles)[13] and with over 208 million people, Brazil is the world's fifth-largest country by area and the sixth-most populous. The capital is Brasília, and the largest city by population is São Paulo. It is the largest country to have Portuguese as an official language and the only one in the Americas.[14][15] Bounded by the Atlantic Ocean on the east, Brazil has a coastline of 7,491 kilometers (4,655 mi).[16] It borders all other South American countries except Ecuador and Chile and covers 47.3% of the continent's land area.[17] Its Amazon River basin includes a vast tropical forest, home to diverse wildlife, a variety of ecological systems, and extensive natural resources spanning numerous protected habitats.[16] This unique environmental heritage makes Brazil one of 17 megadiverse countries, and is the subject of significant global interest and debate regarding deforestation and environmental protection.</t>
-  </si>
-  <si>
     <t>Brunei</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brunei</t>
   </si>
   <si>
-    <t>Brunei (/bruːˈnaɪ/ ( listen), broo-NYE), officially the Nation of Brunei, the Abode of Peace[10] (Malay: Negara Brunei Darussalam, Jawi: نڬارا بروني دارالسلام‎), is a sovereign state located on the north coast of the island of Borneo in Southeast Asia. Apart from its coastline with the South China Sea, the country is completely surrounded by the Malaysian state of Sarawak. It is separated into two parts by the Sarawak district of Limbang. Brunei is the only sovereign state completely on the island of Borneo; the remainder of the island's territory is divided between the nations of Malaysia and Indonesia. Brunei's population was 423,196 in 2016.[11]</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bulgaria</t>
   </si>
   <si>
-    <t>Bulgaria (/bʌlˈɡɛəriə, bʊl-/ ( listen); Bulgarian: България, tr. Bǎlgariya), officially the Republic of Bulgaria (Bulgarian: Република България, tr. Republika Bǎlgariya, pronounced [rɛˈpublikɐ bɐɫˈɡarijɐ]), is a country in southeastern Europe. It is bordered by Romania to the north, Serbia and Macedonia to the west, Greece and Turkey to the south, and the Black Sea to the east. With a territory of 110,994 square kilometres (42,855 sq mi), Bulgaria is Europe's 16th-largest country.</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Burkina_Faso</t>
   </si>
   <si>
-    <t>Burkina Faso (UK: /bɜːrˈkiːnə ˌfæsoʊ/ bər-KEE-nə FA-soh; US: /bərˈkiːnə ˌfɑːsoʊ/ ( listen) bər-KEE-nə FAH-soh;[7] French: [buʁkina faso]) is a landlocked country in West Africa. It covers an area of around 274,200 square kilometres (105,900 sq mi) and is surrounded by six countries: Mali to the north; Niger to the east; Benin to the southeast; Togo and Ghana to the south; and Ivory Coast to the southwest. Its capital is Ouagadougou. In 2014 its population was estimated at just over 17.3 million.[2] Burkina Faso is a francophone country, with French as an official language of government and business. Formerly called the Republic of Upper Volta (1958-1984), the country was renamed "Burkina Faso" on 4 August 1984 by then-President Thomas Sankara. The citizens of Burkina Faso are known as Burkinabé (/bərˈkiːnəbeɪ/ bər-KEE-nə-bay).</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Burundi</t>
   </si>
   <si>
-    <t>Burundi (/bəˈrʊndi/ or /bəˈrʌndi/), officially the Republic of Burundi (Kirundi: Republika y'Uburundi,[8] [buˈɾundi]; French: République du Burundi, [buʁundi] or [byʁyndi]), is a landlocked country in the African Great Lakes region of East Africa, bordered by Rwanda to the north, Tanzania to the east and south, and the Democratic Republic of the Congo to the west. It is also considered part of Central Africa. Burundi's capital is Bujumbura. The southwestern border is adjacent to Lake Tanganyika.</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cambodia</t>
   </si>
   <si>
-    <t>Cambodia (/kæmˈboʊdiə/ ( listen);[7] Khmer: កម្ពុជា, or Kampuchea IPA: [kɑmpuˈciə]), officially known as the Kingdom of Cambodia (Khmer: ព្រះរាជាណាចក្រកម្ពុជា, Preăh Réachéanachâk Kâmpŭchéa, IPA: [ˈprĕəh riəciənaːˈcɑk kɑmpuˈciə]), is a country located in the southern portion of the Indochina Peninsula in Southeast Asia. It is 181,035 square kilometres (69,898 square miles) in area, bordered by Thailand to the northwest, Laos to the northeast, Vietnam to the east, and the Gulf of Thailand to the southwest.</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cameroon</t>
   </si>
   <si>
-    <t>Cameroon (/ˌkæməˈruːn/; French: Cameroun), officially the Republic of Cameroon (French: République du Cameroun), is a country in Central Africa. It is bordered by Nigeria to the west; Chad to the northeast; the Central African Republic to the east; and Equatorial Guinea, Gabon and the Republic of the Congo to the south. Cameroon's coastline lies on the Bight of Biafra, part of the Gulf of Guinea and the Atlantic Ocean.</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Canada</t>
   </si>
   <si>
-    <t>Canada (/ˈkænədə/ ( listen); French: [kanadɑ]) is a country in the northern part of North America. Its ten provinces and three territories extend from the Atlantic to the Pacific and northward into the Arctic Ocean, covering 9.98 million square kilometres (3.85 million square miles), making it the world's second-largest country by total area and the fourth-largest country by land area. Canada's southern border with the United States is the world's longest bi-national land border. The majority of the country has a cold or severely cold winter climate, but southerly areas are warm in summer. Canada is sparsely populated, the majority of its land territory being dominated by forest and tundra and the Rocky Mountains. It is highly urbanized with 82 per cent of the 35.15 million people concentrated in large and medium-sized cities, many near the southern border. Its capital is Ottawa, and its five largest metropolitan areas are Toronto, Montreal, Vancouver, Calgary and Ottawa.</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cape_Verde</t>
   </si>
   <si>
-    <t>Cape Verde (/ˌkeɪp ˈvɜːrd/) or Cabo Verde (/ˌkɑːboʊ ˈvɜːrdeɪ/, /ˌkæb-/) (Portuguese: Cabo Verde, pronounced [ˈkaβu ˈveɾðɨ]), officially the Republic of Cabo Verde,[9] is an island country spanning an archipelago of 10 volcanic islands in the central Atlantic Ocean. Located 570 kilometres (350 mi) west of the Cape Verde Peninsula in West Africa, the islands cover a combined area of slightly over 4,000 square kilometres (1,500 sq mi).</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_African_Republic</t>
   </si>
   <si>
-    <t>The Central African Republic (CAR; Sango: Ködörösêse tî Bêafrîka; French: République centrafricaine  pronounced [ʁepyblik sɑ̃tʁafʁikɛn], or Centrafrique [sɑ̃tʁafʁik]) is a landlocked country in Central Africa. It is bordered by Chad to the north, Sudan to the northeast, South Sudan to the east, the Democratic Republic of the Congo to the south, the Republic of the Congo to the southwest and Cameroon to the west. The CAR covers a land area of about 620,000 square kilometres (240,000 sq mi) and had an estimated population of around 4.6 million as of 2016[update].</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chad</t>
   </si>
   <si>
-    <t>Chad (/tʃæd/ ( listen); Arabic: تشاد‎ Tshād; French: Tchad pronounced [tʃa(d)]), officially the Republic of Chad (Arabic: جمهورية تشاد‎ Jumhūrīyat Tshād; French: République du Tchad lit. "Republic of the Chad"), is a sovereign state in Central Africa. It is bordered by Libya to the north, Sudan to the east, the Central African Republic to the south, Cameroon and Nigeria to the southwest and Niger to the west. It is the fifth largest country in Africa in terms of area.</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chile</t>
   </si>
   <si>
-    <t>Chile (/ˈtʃɪli/;[8] Spanish: [ˈtʃile]), officially the Republic of Chile (Spanish:  República de Chile (help·info)), is a South American country occupying a long, narrow strip of land between the Andes to the east and the Pacific Ocean to the west. It borders Peru to the north, Bolivia to the northeast, Argentina to the east, and the Drake Passage in the far south. Chilean territory includes the Pacific islands of Juan Fernández, Salas y Gómez, Desventuradas, and Easter Island in Oceania. Chile also claims about 1,250,000 square kilometres (480,000 sq mi) of Antarctica, although all claims are suspended under the Antarctic Treaty.</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -357,504 +256,336 @@
     <t>https://en.wikipedia.org/wiki/Colombia</t>
   </si>
   <si>
-    <t>Colombia (/kəˈlʌmbiə/ kə-LUM-biə or /kəˈlɒmbiə/ kə-LOM-biə; Spanish: [ko̞ˈlõ̞mbjä] ( listen)), officially the Republic of Colombia (Spanish:  República de Colombia (help·info)),[Note 1] is a sovereign state largely situated in the northwest of South America, with territories in Central America. Colombia shares a border to the northwest with Panama, to the east with Venezuela and Brazil and to the south with Ecuador and Peru.[11] It shares its maritime limits with Costa Rica, Nicaragua, Honduras, Jamaica, Haiti and the Dominican Republic.[12] It is a unitary, constitutional republic comprising thirty-two departments. The territory of what is now Colombia was originally inhabited by indigenous peoples, including the Muisca, Quimbaya and the Tairona.</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comoros</t>
   </si>
   <si>
-    <t>The Comoros (/ˈkɒməroʊz/ ( listen); Arabic: جزر القمر‎, Juzur al-Qumur / Qamar), officially the Union of the Comoros (Comorian: Udzima wa Komori, French: Union des Comores, Arabic: الاتحاد القمري‎ al-Ittiḥād al-Qumurī / Qamarī), is a sovereign archipelago island nation in the Indian Ocean located at the northern end of the Mozambique Channel off the eastern coast of Africa between northeastern Mozambique and northwestern Madagascar. Other countries near the Comoros are Tanzania to the northwest and the Seychelles to the northeast. Its capital is Moroni, on Grande Comore. The Union of the Comoros has three official languages – Comorian, Arabic and French. The religion of the majority of the population is Islam.</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Democratic_Republic_of_the_Congo</t>
   </si>
   <si>
-    <t>The Democratic Republic of the Congo (/ˈkɒŋɡoʊ/; French pronunciation: ​[kɔ̃ɡo]; French: République démocratique du Congo), also known as Zaire, DR Congo, East Congo, DRC, DROC, Congo-Kinshasa or simply the Congo,[6][7] is a country located in Central Africa. The DRC borders the Central African Republic and South Sudan to the north; Uganda, Rwanda, Burundi and Tanzania to the east; Zambia to the south; Angola to the southwest; and the Republic of the Congo and the Atlantic Ocean to the west.</t>
-  </si>
-  <si>
     <t>Republic of the Congo</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Republic_of_the_Congo</t>
   </si>
   <si>
-    <t>The Republic of the Congo (French: République du Congo), also known as Congo-Brazzaville, West Congo, the Congo Republic[5] or simply Congo, is a country in Central Africa. It is bordered by five countries: Gabon and the Atlantic Ocean to the west; Cameroon to the northwest; the Central African Republic to the northeast; the Democratic Republic of the Congo to the east and south; and the Angolan exclave of Cabinda to the southwest.</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Costa_Rica</t>
   </si>
   <si>
-    <t>Costa Rica (/ˌkɒstə ˈriːkə/ ( listen); Spanish: [ˈkosta ˈrika]; "Rich Coast"), officially the Republic of Costa Rica (Spanish: República de Costa Rica), is a country in Central America, bordered by Nicaragua to the north, Panama to the southeast, the Pacific Ocean to the west, the Caribbean Sea to the east, and Ecuador to the south of Cocos Island. It has a population of around 4.9 million,[3] in a land area of 51,060 square kilometers (19,714 square miles); over 300,000 live in the capital and largest city, San José[7] with a population of an estimated 333,980 in 2015.[7]</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Croatia</t>
   </si>
   <si>
-    <t>Croatia (/kroʊˈeɪʃə/ ( listen) kroh-AY-shə; Croatian: Hrvatska [xř̩ʋaːtskaː]), officially the Republic of Croatia (Croatian: Republika Hrvatska,  listen (help·info)), is a country situated at the crossroads of Central and Southeast Europe, on the Adriatic Sea. Its capital city is Zagreb, which forms one of the country's primary subdivisions, along with its twenty counties. Croatia has a total area of 56,594 square kilometres (21,851 square miles) and a population of 4.28 million, most of whom are Roman Catholics.</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cuba</t>
   </si>
   <si>
-    <t>Cuba (Spanish pronunciation: [ˈkuβa]), officially the Republic of Cuba (Spanish:  República de Cuba (help·info)), is a country comprising the island of Cuba as well as Isla de la Juventud and several minor archipelagos. Cuba is located in the northern Caribbean where the Caribbean Sea, the Gulf of Mexico, and the Atlantic Ocean meet. It is south of both the U.S. state of Florida and the Bahamas, west of Haiti, and north of Jamaica. Havana is the largest city and capital; other major cities include Santiago de Cuba and Camagüey. Cuba is the largest island in the Caribbean, with an area of 109,884 square kilometres (42,426 sq mi), and the second-most populous after Hispaniola, with over 11 million inhabitants.[12]</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cyprus</t>
   </si>
   <si>
-    <t>Cyprus was placed under British administration based on the Cyprus Convention in 1878 and was formally annexed by Britain in 1914. While Turkish Cypriots made up 18% of the population, the partition of Cyprus and creation of a Turkish state in the north became a policy of Turkish Cypriot leaders and Turkey in the 1950s. Turkish leaders for a period advocated the annexation of Cyprus to Turkey as Cyprus was considered an "extension of Anatolia" by them; while, since the 19th century,[11][12] the majority Greek Cypriot population and its Orthodox church had been pursuing union with Greece, which became a Greek national policy in the 1950s.[13] Following nationalist violence in the 1950s, Cyprus was granted independence in 1960.[14] In 1963, the 11-year intercommunal violence between Greek Cypriots and Turkish Cypriots started, which displaced more than 25,000 Turkish Cypriots[15][16] and brought the end of Turkish Cypriot representation in the republic. On 15 July 1974, a coup d'état was staged by Greek Cypriot nationalists[17][18] and elements of the Greek military junta[19] in an attempt at enosis, the incorporation of Cyprus into Greece. This action precipitated the Turkish invasion of Cyprus on 20 July,[20] which led to the capture of the present-day territory of Northern Cyprus in the following month, after a ceasefire collapsed, and the displacement of over 150,000 Greek Cypriots[21][22] and 50,000 Turkish Cypriots.[23] A separate Turkish Cypriot state in the north was established by unilateral declaration in 1983; the move was widely condemned by the international community, with Turkey alone recognizing the new state. These events and the resulting political situation are matters of a continuing dispute.</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Czech_Republic</t>
   </si>
   <si>
-    <t>The Czech Republic (/ˈtʃɛk rɪˈpʌblɪk/ ( listen)[10] Czech: Česká republika, Czech pronunciation: [ˈtʃɛskaː ˈrɛpuˌblɪka] ( listen)),[11] also known as Czechia[12] (/ˈtʃɛkiə/ ( listen); Czech: Česko, pronounced [ˈtʃɛsko] ( listen)), is a landlocked nation state in Central Europe bordered by Germany to the west, Austria to the south, Slovakia to the east and Poland to the northeast.[13] The Czech Republic covers an area of 78,866 square kilometres (30,450 sq mi) with a mostly temperate continental climate and oceanic climate. It is a unitary parliamentary republic, has 10.6 million inhabitants and the capital and largest city is Prague, with over 1.2 million residents. The Czech Republic includes the historical territories of Bohemia,[14] Moravia, and Czech Silesia.</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Denmark</t>
   </si>
   <si>
-    <t>Denmark (/ˈdɛnmɑːrk/ ( listen); Danish: Danmark, pronounced [ˈdanmɑɡ] ( listen)), officially the Kingdom of Denmark,[N 10] is a Nordic country and a sovereign state. The southernmost of the Scandinavian nations, it is south-west of Sweden and south of Norway,[N 11] and bordered to the south by Germany. The Kingdom of Denmark also comprises two autonomous constituent countries in the North Atlantic Ocean: the Faroe Islands and Greenland. Denmark proper consists of a peninsula, Jutland, and an archipelago of 443 named islands,[N 2][10] with the largest being Zealand, Funen and the North Jutlandic Island. The islands are characterised by flat, arable land and sandy coasts, low elevation and a temperate climate. Denmark has an area of 42,924 km2 (16,573 sq mi),[3] total area including Greenland and the Faroe Islands is 2,210,579 km2 (853,509 sq mi), and a population of 5.75 million (as of 2017[update]).[4]</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Djibouti</t>
   </si>
   <si>
-    <t>Djibouti (/dʒɪˈbuːti/ ji-BOO-tee; Arabic: جيبوتي‎ Jībūtī, French: Djibouti, Somali: Jabuuti, Afar: Gabuuti), officially the Republic of Djibouti, is a country located in the Horn of Africa. It is bordered by Eritrea in the north, Ethiopia in the west and south, and Somalia in the southeast. The remainder of the border is formed by the Red Sea and the Gulf of Aden at the east. Djibouti occupies a total area of just 23,200 km2 (8,958 sq mi).[1]</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dominica</t>
   </si>
   <si>
-    <t>Dominica (/dəˈmɪˌnɪkə/ or /ˌdɒmɪˈniːkə/; French: Dominique; Island Carib: Wai‘tu kubuli), officially the Commonwealth of Dominica, is a sovereign island country.[8] The capital, Roseau, is located on the leeward side of the island. It is part of the Windward Islands in the Lesser Antilles archipelago in the Caribbean Sea. The island lies south-southeast of Guadeloupe and northwest of Martinique. Its area is 750 km2 (290 sq mi), and the highest point is Morne Diablotins, at 1,447 m (4,747 ft) in elevation. The population was 71,293 at the 2011 census.[5]</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dominican_Republic</t>
   </si>
   <si>
-    <t>The Dominican Republic (Spanish: República Dominicana [reˈpuβliˌka ðoˌminiˈkana]) is a country located in the island of Hispaniola, in the Greater Antilles archipelago of the Caribbean region. It occupies the eastern five-eighths of the island, which it shares with the nation of Haiti,[10][11] making Hispaniola one of two Caribbean islands, along with Saint Martin, that are shared by two countries. The Dominican Republic is the second-largest Caribbean nation by area (after Cuba) at 48,445 square kilometers (18,705 sq mi), and third by population with approximately 10 million people, of which approximately three million live in the metropolitan area of Santo Domingo, the capital city.[12][13]</t>
-  </si>
-  <si>
     <t>East Timor</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/East_Timor</t>
   </si>
   <si>
-    <t>East Timor (/ˌiːst ˈtiːmɔːr/ ( listen)) or Timor-Leste (/tiˈmɔːr ˈlɛʃteɪ/; Tetum: Timór Lorosa'e), officially the Democratic Republic of Timor-Leste[9] (Portuguese: República Democrática de Timor-Leste,[10] Tetum: Repúblika Demokrátika Timór-Leste),[11] is a sovereign state in Maritime Southeast Asia.[12] It comprises the eastern half of the island of Timor, the nearby islands of Atauro and Jaco, and Oecusse, an exclave on the northwestern side of the island surrounded by Indonesian West Timor. Australia is the country's southern neighbor, separated by the Timor Sea. The country's size is about 15,410 km2 (5,400 sq mi).[13]</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecuador</t>
   </si>
   <si>
-    <t>Ecuador (/ˈɛkwədɔːr/ ( listen) EK-wə-dor, Spanish: [ekwaˈðor]) (Quechua: Ikwadur), officially the Republic of Ecuador (Spanish: República del Ecuador, which literally translates as "Republic of the Equator"; Quechua: Ikwadur Ripuwlika), is a representative democratic republic in northwestern South America, bordered by Colombia on the north, Peru on the east and south, and the Pacific Ocean to the west. Ecuador also includes the Galápagos Islands in the Pacific, about 1,000 kilometres (620 mi) west of the mainland. The capital city is Quito, while the largest city is Guayaquil.</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Egypt</t>
   </si>
   <si>
-    <t>Egypt (/ˈiːdʒɪpt/ ( listen) EE-jipt; Arabic: مِصر‎ Miṣr, Egyptian Arabic: مَصر‎ Maṣr, Coptic: Ⲭⲏⲙⲓ Kimi), officially the Arab Republic of Egypt, is a transcontinental country spanning the northeast corner of Africa and southwest corner of Asia by a land bridge formed by the Sinai Peninsula. Egypt is a Mediterranean country bordered by the Gaza Strip and Israel to the northeast, the Gulf of Aqaba to the east, the Red Sea to the east and south, Sudan to the south, and Libya to the west. Across the Gulf of Aqaba lies Jordan, and across from the Sinai Peninsula lies Saudi Arabia, although Jordan and Saudi Arabia do not share a land border with Egypt.</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/El_Salvador</t>
   </si>
   <si>
-    <t>El Salvador (/ɛl ˈsælvədɔːr/ ( listen); Spanish: [el salβaˈðor]), officially the Republic of El Salvador (Spanish: República de El Salvador, literally "Republic of The Savior"), is the smallest and the most densely populated country in Central America. El Salvador's capital and largest city is San Salvador. As of 2016[update], the country had a population of approximately 6.34 million,[3] consisting largely of Mestizos of European and Indigenous American descent.</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Equatorial_Guinea</t>
   </si>
   <si>
-    <t>Equatorial Guinea (Spanish: Guinea Ecuatorial,[a] French: Guinée équatoriale, Portuguese: Guiné Equatorial), officially the Republic of Equatorial Guinea (Spanish: República de Guinea Ecuatorial, French: République de Guinée équatoriale, Portuguese: República da Guiné Equatorial),[b] is a country located in Central Africa, with an area of 28,000 square kilometres (11,000 sq mi). Formerly the colony of Spanish Guinea, its post-independence name evokes its location near both the Equator and the Gulf of Guinea. Equatorial Guinea is the only sovereign African state in which Spanish is an official language. As of 2015[update], the country had an estimated population of 1,222,245.[12]</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eritrea</t>
   </si>
   <si>
-    <t>Eritrea (/ˌɛrɪˈtreɪ.ə/ or /ˌɛrɪˈtriːə/;[9] Tigrinya: ኤርትራ,  listen (help·info)), officially the State of Eritrea,[10] is a country in the Horn of Africa, with its capital at Asmara. It is bordered by Sudan in the west, Ethiopia in the south, and Djibouti in the southeast. The northeastern and eastern parts of Eritrea have an extensive coastline along the Red Sea. The nation has a total area of approximately 117,600 km2 (45,406 sq mi), and includes the Dahlak Archipelago and several of the Hanish Islands. Its toponym Eritrea is based on the Greek name for the Red Sea (Ἐρυθρὰ Θάλασσα Erythra Thalassa), which was first adopted for Italian Eritrea in 1890.</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Estonia</t>
   </si>
   <si>
-    <t>Estonia (/ɛˈstoʊniə/ ( listen);[11][12] Estonian: Eesti [ˈeːsti]), officially the Republic of Estonia (Estonian: Eesti Vabariik), is a country in the Baltic region of Northern Europe.[13] It is bordered to the north by the Gulf of Finland, to the west by the Baltic Sea, to the south by Latvia (343 km), and to the east by Lake Peipus and Russia (338.6 km).[14] Across the Baltic Sea lies Sweden in the west and Finland in the north. The territory of Estonia consists of a mainland and 2,222 islands in the Baltic Sea,[15] covering 45,339 km2 (17,505 sq mi) of land and water, and is influenced by a humid continental climate. Ethnic Estonians are a Finnic people, sharing close cultural ties with their northern neighbour, Finland, and the official language, Estonian, is a Finno-Ugric language closely related to Finnish and the Sami languages, and distantly to Hungarian.</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ethiopia</t>
   </si>
   <si>
-    <t>Ethiopia (/ˌiːθiˈoʊpiə/; Amharic: ኢትዮጵያ, ʾĪtyōṗṗyā,  listen (help·info)), officially the Federal Democratic Republic of Ethiopia (የኢትዮጵያ ፌዴራላዊ ዲሞክራሲያዊ ሪፐብሊክ, yeʾĪtiyoṗṗya Fēdēralawī Dēmokirasīyawī Rīpebilīk  listen (help·info)), is a country located in the Horn of Africa. It shares borders with Eritrea to the north and northeast, Djibouti and Somalia to the east, Sudan and South Sudan to the west, and Kenya to the south. With over 102 million inhabitants,[3] Ethiopia is the most populous landlocked country in the world and the second-most populous nation on the African continent. It occupies a total area of 1,100,000 square kilometres (420,000 sq mi), and its capital and largest city is Addis Ababa.[8]</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fiji</t>
   </si>
   <si>
-    <t>Fiji (/ˈfiːdʒiː/ ( listen) FEE-jee; Fijian: Viti [ˈβitʃi]; Fiji Hindi: फ़िजी), officially the Republic of Fiji[11] (Fijian: Matanitu Tugalala o Viti;[12] Fiji Hindi: फ़िजी गणराज्य),[13] is an island country in Melanesia in the South Pacific Ocean about 1,100 nautical miles (2,000 km; 1,300 mi) northeast of New Zealand's North Island. Its closest neighbours are Vanuatu to the west, New Caledonia to the southwest, New Zealand's Kermadec Islands to the southeast, Tonga to the east, the Samoas and France's Wallis and Futuna to the northeast, and Tuvalu to the north.</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Finland</t>
   </si>
   <si>
-    <t>Finland (/ˈfɪnlənd/ ( listen); Finnish: Suomi [suo̯mi] ( listen); Swedish: Finland [ˈfɪnland]), officially the Republic of Finland (Finnish: Suomen tasavalta, Swedish: Republiken Finland),[7] is a sovereign state in Northern Europe. The country has land borders with Sweden to the northwest, Norway to the north, and Russia to the east. Estonia is south of the country across the Gulf of Finland. Finland is a Nordic country situated in the geographical region of Fennoscandia, which also includes Scandinavia. Finland's population is 5.5 million (2016), and the majority of the population is concentrated in the southern region.[8] 88.7% of the population is Finnish and speaks Finnish, a Uralic language unrelated to the Scandinavian languages; the second major group is the Finland-Swedes (5.3%). Finland is the eighth largest country in Europe and the most sparsely populated country in the European Union. It is a parliamentary republic with a central government based in the capital city of Helsinki, local governments in 311 municipalities,[9] and one autonomous region, the Åland Islands. Over 1.4 million people live in the Greater Helsinki metropolitan area, which produces one third of the country's GDP.</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/France</t>
   </si>
   <si>
-    <t>France (French IPA: [fʁɑ̃s]), officially the French Republic (French: République française [ʁepyblik fʁɑ̃sɛz]), is a country whose territory consists of metropolitan France in western Europe, as well as several overseas regions and territories.[XIII] The metropolitan area of France extends from the Mediterranean Sea to the English Channel and the North Sea, and from the Rhine to the Atlantic Ocean. The overseas territories include French Guiana in South America and several islands in the Atlantic, Pacific and Indian oceans. The country's 18 integral regions (5 of which are situated overseas) span a combined area of 643,801 square kilometres (248,573 sq mi) which, as of October 2017, has a population of 67.15 million people.[10] France is a unitary semi-presidential republic with its capital in Paris, the country's largest city and main cultural and commercial centre. Other major urban centres include Marseille, Lyon, Lille, Nice, Toulouse and Bordeaux.</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gabon</t>
   </si>
   <si>
-    <t>Gabon (/ɡəˈbɒn/; French pronunciation: ​[ɡabɔ̃]), officially the Gabonese Republic (French: République gabonaise), is a sovereign state on the west coast of Central Africa. Located on the equator, Gabon is bordered by Equatorial Guinea to the northwest, Cameroon to the north, the Republic of the Congo on the east and south, and the Gulf of Guinea to the west. It has an area of nearly 270,000 square kilometres (100,000 sq mi) and its population is estimated at 2 million people. Its capital and largest city is Libreville.</t>
-  </si>
-  <si>
     <t>The Gambia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Gambia</t>
   </si>
   <si>
-    <t>The Gambia (/ˈɡæmbi.ə/ ( listen)), officially the Republic of The Gambia,[3] is a country in West Africa that is entirely surrounded by Senegal except for its coastline on the Atlantic Ocean at its western end. It is the smallest country in mainland Africa.[4]</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Georgia_(country)</t>
   </si>
   <si>
-    <t>Georgia (/ˈdʒɔːrdʒə/ ( listen); Georgian: საქართველო, translit.: sakartvelo, IPA: [sɑkʰɑrtʰvɛlɔ] ( listen)) is a country in the Caucasus region of Eurasia. Located at the crossroads of Western Asia and Eastern Europe, it is bounded to the west by the Black Sea, to the north by Russia, to the south by Turkey and Armenia, and to the southeast by Azerbaijan. The capital and largest city is Tbilisi. Georgia covers a territory of 69,700 square kilometres (26,911 sq mi), and its 2017 population is about 3.718 million. Georgia is a unitary semi-presidential republic, with the government elected through a representative democracy.[2]</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Germany</t>
   </si>
   <si>
-    <t>Germany (/ˈdʒɜːrməni/ ( listen); German: Deutschland, pronounced [ˈdɔʏtʃlant]), officially the Federal Republic of Germany (German: Bundesrepublik Deutschland,  listen (help·info)),[e][8] is a federal parliamentary republic in central-western Europe. It includes 16 constituent states, covers an area of 357,021 square kilometres (137,847 sq mi), and has a largely temperate seasonal climate. With about 82 million inhabitants, Germany is the most populous member state of the European Union. After the United States, it is the second most popular immigration destination in the world.[9][10] Germany's capital and largest metropolis is Berlin, while its largest conurbation is the Ruhr, with its main centres of Dortmund and Essen. The country's other major cities are Hamburg, Munich, Cologne, Frankfurt, Stuttgart, Düsseldorf, Leipzig, Bremen, Dresden, Hannover and Nuremberg.</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ghana</t>
   </si>
   <si>
-    <t>Ghana (/ˈɡɑːnə/ ( listen)), officially the Republic of Ghana, is a unitary presidential constitutional democracy, located along the Gulf of Guinea and Atlantic Ocean, in the subregion of West Africa. Spanning a land mass of 238,535 km², Ghana is bordered by the Ivory Coast in the west, Burkina Faso in the north, Togo in the east and the Gulf of Guinea and Atlantic Ocean in the south. Ghana means "Warrior King" in the Soninke language.[10]</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Greece</t>
   </si>
   <si>
-    <t>Greece (Greek: Ελλάδα), officially the Hellenic Republic (Greek: Ελληνική Δημοκρατία), historically also known as Hellas, is a country in Southern Europe,[8] with a population of approximately 11 million as of 2016. Athens is the nation's capital and largest city, followed by Thessaloniki.</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Grenada</t>
   </si>
   <si>
-    <t>Grenada (/ɡrɪˈneɪdə/ ( listen) gri-NAY-də; French: La Grenade) is a sovereign state in the southeastern Caribbean Sea consisting of the island of Grenada and six smaller islands at the southern end of the Grenadines island chain. It is located northwest of Trinidad and Tobago, northeast of Venezuela and southwest of Saint Vincent and the Grenadines. Its size is 348.5 square kilometres (134.6 sq mi), and it had an estimated population of 107,317[4] in 2016. Its capital is St. George's. Grenada is also known as the "Island of Spice" due to its production of nutmeg and mace crops, of which it is one of the world's largest exporters. The national bird of Grenada is the critically endangered Grenada dove.</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guatemala</t>
   </si>
   <si>
-    <t>Guatemala (/ˌɡwɑːtəˈmɑːləˌ ˌɡwæt-ˌ ˌɡɑːt-/ ( listen) GWAHT-ə-MAH-lə, GWAT-, GAHT-; Spanish: [gwateˈmala]), officially the Republic of Guatemala (Spanish: República de Guatemala), is a country in Central America bordered by Mexico to the north and west, the Pacific Ocean to the southwest, Belize to the northeast, the Caribbean to the east, Honduras to the east and El Salvador to the southeast. With an estimated population of around 16.6 million,[4] it is the most populated state in Central America. Guatemala is a representative democracy; its capital and largest city is Nueva Guatemala de la Asunción, also known as Guatemala City.</t>
-  </si>
-  <si>
     <t>Guinea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guinea</t>
   </si>
   <si>
-    <t>Guinea (/ˈɡɪni/ ( listen)), officially the Republic of Guinea (French: République de Guinée), is a country on the western coast of Africa. Formerly known as French Guinea (French: Guinée française), the modern country is sometimes referred to as Guinea-Conakry in order to distinguish it from other parts of the wider region of the same name, such as Guinea-Bissau and Equatorial Guinea.[5][6][7][8] Guinea has a population of 12.4 million and an area of 245,860 square kilometres (94,927 sq mi).[1]</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guinea-Bissau</t>
   </si>
   <si>
-    <t>Guinea-Bissau (/ˈɡɪni bɪˈsaʊ/ ( listen) GI-nee-bi-SOW), officially the Republic of Guinea-Bissau (Portuguese: República da Guiné-Bissau, pronounced [ʁeˈpublikɐ dɐ ɡiˈnɛ biˈsaw]), is a country in West Africa. It covers 36,125 square kilometres (13,948 sq mi) with an estimated population of 1,815,698.[2]</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guyana</t>
   </si>
   <si>
-    <t>Guyana (pronounced /ɡaɪˈɑːnə/ or /ɡaɪˈænə/),[8][9] officially the Co-operative Republic of Guyana,[10] is a sovereign state on the northern mainland of South America. It is, however, included in the Caribbean region due to its strong cultural, historical, and political ties with other Anglo Caribbean countries and the Caribbean Community (CARICOM). Guyana is bordered by the Atlantic Ocean to the north, Brazil to the south and southwest, Suriname to the east and Venezuela to the west. With 215,000 square kilometres (83,000 sq mi), Guyana is the fourth-smallest country on mainland South America after Uruguay, Suriname and French Guiana (an overseas region of France).</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Haiti</t>
   </si>
   <si>
-    <t>Haiti (/ˈheɪti/ ( listen); French: Haïti [a.iti]; Haitian Creole: Ayiti [ajiti]), officially the Republic of Haiti (French: République d'Haïti; Haitian Creole: Repiblik Ayiti)[8] and formerly called Hayti,[note 1] is a sovereign state located on the island of Hispaniola in the Greater Antilles archipelago of the Caribbean Sea. It occupies the western three-eighths of the island, which it shares with the Dominican Republic.[11][12] Haiti is 27,750 square kilometres (10,714 sq mi) in size and has an estimated 10.8 million people,[3] making it the most populous country in the Caribbean Community (CARICOM) and the second-most populous country in the Caribbean as a whole.</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Honduras</t>
   </si>
   <si>
-    <t>Honduras (/hɒnˈdʊərəs/ ( listen); Spanish: [onˈduɾas]), officially the Republic of Honduras (Spanish: República de Honduras), is a republic in Central America. It has at times been referred to as Spanish Honduras to differentiate it from British Honduras, which became modern-day Belize.[6] Honduras is bordered to the west by Guatemala, to the southwest by El Salvador, to the southeast by Nicaragua, to the south by the Pacific Ocean at the Gulf of Fonseca, and to the north by the Gulf of Honduras, a large inlet of the Caribbean Sea.</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hungary</t>
   </si>
   <si>
-    <t>Hungary (/ˈhʌŋɡəri/ ( listen); Hungarian: Magyarország [ˈmɒɟɒrorsaːɡ] ( listen)) is a unitary parliamentary republic in Central Europe.[2] It covers an area of 93,030 square kilometres (35,920 sq mi), situated in the Carpathian Basin, and is bordered by Slovakia to the north, Romania to the east, Serbia to the south, Croatia to the southwest, Slovenia to the west, Austria to the northwest, and Ukraine to the northeast.[12] With about 10 million inhabitants, Hungary is a medium-sized member state of the European Union.[13] The official language is Hungarian, which is the most widely spoken Uralic language in the world.[14] Hungary's capital and its largest city and metropolis is Budapest, a significant economic hub, classified as a leading global city.[15] Major urban areas include Debrecen, Szeged, Miskolc, Pécs and Győr.</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Iceland</t>
   </si>
   <si>
-    <t>Iceland (/ˈaɪslənd/ ( listen); Icelandic: Ísland pronounced [ˈistlant])[7] is a Nordic island country of Europe located in the North Atlantic Ocean. It has a population of 332,529 and an area of 103,000 km2 (40,000 sq mi), making it the most sparsely populated country in Europe.[8] The capital and largest city is Reykjavík. Reykjavík and the surrounding areas in the southwest of the country are home to over two-thirds of the population.</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/India</t>
   </si>
   <si>
-    <t>India comprises the bulk of the Indian subcontinent, lying atop the Indian tectonic plate, and part of the Indo-Australian Plate.[121] India's defining geological processes began 75 million years ago when the Indian plate, then part of the southern supercontinent Gondwana, began a north-eastward drift caused by seafloor spreading to its south-west, and later, south and south-east.[121] Simultaneously, the vast Tethyn oceanic crust, to its northeast, began to subduct under the Eurasian plate.[121] These dual processes, driven by convection in the Earth's mantle, both created the Indian Ocean and caused the Indian continental crust eventually to under-thrust Eurasia and to uplift the Himalayas.[121] Immediately south of the emerging Himalayas, plate movement created a vast trough that rapidly filled with river-borne sediment[122] and now constitutes the Indo-Gangetic Plain.[123] Cut off from the plain by the ancient Aravalli Range lies the Thar Desert.[124]</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indonesia</t>
   </si>
   <si>
-    <t>Indonesia (/ˌɪndəˈniːʒə/ ( listen) IN-də-NEE-zhə or /ˌɪndoʊˈniːziə/ IN-doh-NEE-zee-ə; Indonesian: [ɪndonesia]),[lacks stress] officially the Republic of Indonesia (Indonesian: Republik Indonesia [rɛpublik ɪndonesia]),[lacks stress] is a unitary sovereign state and transcontinental country located mainly in Southeast Asia, with some territories in Oceania. Situated between the Indian and Pacific oceans, it is the world's largest island country, with more than seventeen thousand islands.[14] At 1,904,569 square kilometres (735,358 square miles), Indonesia is the world's 14th-largest country in terms of land area and world's 7th-largest country in terms of combined sea and land area.[15] It has an estimated population of over 261 million people and is the world's fourth most populous country, the most populous Austronesian nation, as well as the most populous Muslim-majority country.[16] The world's most populous island, Java, contains more than half of the country's population.</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Iran</t>
   </si>
   <si>
-    <t>Iran (Persian: ایران‎ Irān [ʔiːˈɾɒːn] ( listen)), also known as Persia[10] (/ˈpɜːrʒə/),[11] officially the Islamic Republic of Iran (Persian: جمهوری اسلامی ایران‎ Jomhuri-ye Eslāmi-ye Irān ( listen)),[12] is a sovereign state in Western Asia.[13][14] With about 81 million inhabitants,[6] Iran is the world's 18th-most-populous country.[15] Comprising a land area of 1,648,195 km2 (636,372 sq mi), it is the second-largest country in the Middle East and the 17th-largest in the world. Iran is bordered to the northwest by Armenia, the Republic of Azerbaijan,[a] and the Azerbaijani exclave of Nakhchivan; to the north by the Caspian Sea; to the northeast by Turkmenistan; to the east by Afghanistan and Pakistan; to the south by the Persian Gulf and the Gulf of Oman; and to the west by Turkey and Iraq. The country's central location in Eurasia and Western Asia, and its proximity to the Strait of Hormuz, give it geostrategic importance.[16] Tehran is the country's capital and largest city, as well as its leading economic and cultural center.</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Iraq</t>
   </si>
   <si>
-    <t>Iraq (/ɪˈræk/, /ɪˈrɑːk/ ( listen) or /aɪˈræk/; Arabic: العراق‎ al-‘Irāq; Kurdish: عێراق‎ Eraq), officially known as the Republic of Iraq (Arabic: جُمُهورية العِراق‎  Jumhūrīyyat al-‘Irāq; Kurdish: کۆماری عێراق‎ Komari Eraq), is a country in Western Asia, bordered by Turkey to the north, Iran to the east, Kuwait to the southeast, Saudi Arabia to the south, Jordan to the southwest and Syria to the west. The capital, and largest city, is Baghdad. The main ethnic groups are Arabs and Kurds; others include Assyrians, Turkmen, Shabakis, Yazidis, Armenians, Mandeans, Circassians and Kawliya.[5] Around 95% of the country's 37 million citizens are Muslims, with Christianity, Yarsan, Yezidism and Mandeanism also present. The official languages of Iraq are Arabic and Kurdish.</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Republic_of_Ireland</t>
   </si>
   <si>
-    <t>Ireland (/ˈaɪərlənd/ ( listen); Irish: Éire [ˈeːɾʲə] ( listen)), also known as the Republic of Ireland (Poblacht na hÉireann), is a sovereign state in north-western Europe occupying 26 of 32 counties of the island of Ireland. The capital and largest city is Dublin, which is located on the eastern part of the island, and whose metropolitan area is home to around a third of the country's 4.75 million inhabitants. The state shares its only land border with Northern Ireland, a part of the United Kingdom. It is otherwise surrounded by the Atlantic Ocean, with the Celtic Sea to the south, Saint George's Channel to the south-east, and the Irish Sea to the east. It is a unitary, parliamentary republic.[8] The legislature, the Oireachtas, consists of a lower house, Dáil Éireann, an upper house, Seanad Éireann, and an elected President (Uachtarán) who serves as the largely ceremonial head of state, but with some important powers and duties. The head of government is the Taoiseach (Prime Minister, literally 'Chief', a title not used in English), who is elected by the Dáil and appointed by the President; the Taoiseach in turn appoints other government ministers.</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Israel</t>
   </si>
   <si>
-    <t>Israel (/ˈɪzreɪəl/; Hebrew: יִשְׂרָאֵל‎; Arabic: إِسْرَائِيل‎), officially the State of Israel (Hebrew: מְדִינַת יִשְׂרָאֵל‎; Arabic: دَوْلَة إِسْرَائِيل‎), is a country in the Middle East, on the southeastern shore of the Mediterranean Sea and the northern shore of the Red Sea. It has land borders with Lebanon to the north, Syria to the northeast, Jordan on the east, the Palestinian territories of the West Bank and Gaza Strip[8] to the east and west, respectively, and Egypt to the southwest. The country contains geographically diverse features within its relatively small area.[2][9] Israel's economy and technology center is Tel Aviv,[10] while its seat of government and proclaimed capital is Jerusalem, although the state's sovereignty over Jerusalem is not recognised internationally.[11][12][13][note 2][14][15] The population of Israel was estimated in 2017 to be 8,783,640 people,[3] of whom 74.7% were Jewish, 20.8% Arab and 4.5% others.[1]</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italy</t>
   </si>
   <si>
-    <t>Italy (/ˈɪtəliː/ I-tə-lee; Italian: Italia [iˈtaːlja] ( listen)), officially the Italian Republic (Italian: Repubblica italiana),[7][8][9][10] is a unitary parliamentary republic in Europe.[note 1] Located in the heart of the Mediterranean Sea, Italy shares open land borders with France, Switzerland, Austria, Slovenia, San Marino, and Vatican City. Italy covers an area of 301,338 km2 (116,347 sq mi) and has a largely temperate seasonal and Mediterranean climate. Due to its shape, it is often referred to in Italy as lo Stivale (the Boot).[11][12] With around 61 million inhabitants it is the fourth most populous EU member state.</t>
-  </si>
-  <si>
     <t>Ivory Coast</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ivory_Coast</t>
   </si>
   <si>
-    <t>Ivory Coast (/ˌaɪvəri ˈkoʊst/ ( listen)) or Côte d'Ivoire (/ˌkoʊt diˈvwɑːr/ KOHT dee-VWAHR;[6] French: [kot divwaʁ] ( listen)), officially the Republic of Côte d'Ivoire[7][8] (French: République de Côte d'Ivoire), is a sovereign state located in West Africa. Ivory Coast's political capital is Yamoussoukro, and its economic capital and largest city is the port city of Abidjan. Its bordering countries are Guinea and Liberia in the west, Burkina Faso and Mali in the north, and Ghana in the east. The Gulf of Guinea (Atlantic Ocean) is located south of Ivory Coast.</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jamaica</t>
   </si>
   <si>
-    <t>Jamaica (/dʒəˈmeɪkə/ ( listen)) is an island country situated in the Caribbean Sea. Spanning 10,990 square kilometres (4,240 sq mi) in area, it is the third-largest island of the Greater Antilles and the fourth-largest island country in the Caribbean. Jamaica lies about 145 kilometres (90 mi) south of Cuba, and 191 kilometres (119 mi) west of Hispaniola (the island containing the countries of Haiti and the Dominican Republic).</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Japan</t>
   </si>
   <si>
-    <t>Japan (Japanese: 日本 Nippon [ɲippoɴ] or Nihon [ɲihoɴ]; formally 日本国  Nippon-koku or Nihon-koku, meaning "State of Japan") is a sovereign island nation in East Asia. Located in the Pacific Ocean, it lies off the eastern coast of the Asian mainland and stretches from the Sea of Okhotsk in the north to the East China Sea and China in the southwest.</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jordan</t>
   </si>
   <si>
-    <t>Jordan (/ˈdʒɔːrdən/; Arabic: الأردن‎ Al-‘Urdunn [al.ʔur.dunn]), officially The Hashemite Kingdom of Jordan (Arabic: المملكة الأردنية الهاشمية‎ Al-Mamlakah Al-Urdunnīyah Al-Hāshimīyah), is an Arab kingdom in Western Asia, on the East Bank of the Jordan River. Jordan is bordered by Saudi Arabia to the east and south; Iraq to the north-east; Syria to the north; Israel, Palestine and the Dead Sea to the west; and the Red Sea in its extreme south-west.[6] Jordan is strategically located at the crossroads of Asia, Africa and Europe.[7] The capital, Amman, is Jordan's most populous city as well as the country's economic, political and cultural centre.[8]</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kazakhstan</t>
   </si>
   <si>
-    <t>Kazakhstan (US: /kæzækˈstæn, ˌkɑːzɑːkˈstɑːn/ ( listen), UK: /ˌkæzəkˈstɑːn, -ˈstæn/;[8] Kazakh: Қазақстан, tr. Qazaqstan, IPA: [qɑzɑqˈstɑn] ( listen); Russian: Казахстан, tr. Kazakhstan, IPA: [kəzɐxˈstan]), officially the Republic of Kazakhstan (Kazakh: Қазақстан Республикасы, tr. Qazaqstan Respy'bli'kasy; Russian: Республика Казахстан, tr. Respublika Kazakhstan),[3][9] is the world's largest landlocked country, and the ninth largest in the world, with an area of 2,724,900 square kilometres (1,052,100 sq mi).[3][10] Kazakhstan is the dominant nation of Central Asia economically, generating 60% of the region's GDP, primarily through its oil/gas industry. It also has vast mineral resources.[11] Some argue that Kazakhstan may be considered a European country because Kazakhstan's Western region is on the European continent and meets the Council of Europe's criteria for European inclusion.[12]</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kenya</t>
   </si>
   <si>
-    <t>Kenya (/ˈkɛnjə/; locally [ˈkɛɲa] ( listen)), officially the Republic of Kenya, is a country in Africa and a founding member of the East African Community (EAC). Its capital and largest city is Nairobi. Kenya's territory lies on the equator and overlies the East African Rift covering a diverse and expansive terrain that extends roughly from Lake Victoria to Lake Turkana (formerly called Lake Rudolf) and further south-east to the Indian Ocean. It is bordered by Tanzania to the south and southwest, Uganda to the west, South Sudan to the north-west, Ethiopia to the north and Somalia to the north-east. Kenya covers 581,309 km2 (224,445 sq mi), and had a population of approximately 48 million people in January 2017.[2]</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kiribati</t>
   </si>
   <si>
-    <t>Kiribati (/ˈkiriˌbɛs/ KIRR-i-BES or /ˌkɪrɪˈbɑːti/ KIRR-i-BAHT-ee),[8] officially the Republic of Kiribati (Gilbertese: Ribaberiki Kiribati),[1][3][9][10][11] is a country in the central Pacific Ocean. The permanent population is just over 110,000 (2015), more than half of whom live on Tarawa Atoll. The nation comprises 33 atolls and reef islands and one raised coral island, Banaba. They have a total land area of 800 square kilometres (310 sq mi)[12] and are dispersed over 3.5 million square kilometres (1.3 million square miles). Their spread straddles both the equator and the 180th meridian, although the International Date Line goes round Kiribati and swings far to the east, almost reaching the 150°W meridian. This brings the Line Islands into the same day as the Kiribati Islands. Kiribati's easternmost islands, the southern Line Islands, south of Hawaii, have the most advanced time on Earth: UTC+14 hours.</t>
-  </si>
-  <si>
     <t>North Korea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Korea</t>
   </si>
   <si>
-    <t>North Korea, officially the Democratic People's Republic of Korea (abbreviated DPRK), is a country in East Asia constituting the northern part of the Korean Peninsula. Pyongyang is the nation's capital and largest city. To the north and northwest, the country is bordered by China and by Russia along the Amnok (known as the Yalu in China) and Tumen rivers;[13] it is bordered to the south by South Korea, with the heavily fortified Korean Demilitarized Zone (DMZ) separating the two. Nevertheless, North Korea, like its southern counterpart, claims to be the legitimate government of the entire peninsula.[14]</t>
-  </si>
-  <si>
     <t>South Korea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_Korea</t>
   </si>
   <si>
-    <t>South Korea, officially the Republic of Korea (abbreviated ROK), is a sovereign state in East Asia, constituting the southern part of the Korean Peninsula.[15] Officially, its territory consists of the whole Korean Peninsula and its adjacent islands,[16] which are largely mountainous. South Koreans lead a distinctive urban lifestyle, as half of them live in high-rises[17] concentrated in the Seoul Capital Area with 25 million residents.[18] The capital Seoul is the world's sixth leading global city[19] with the fifth largest economy[20] and is the seventh most sustainable city in the world.[21]</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kuwait</t>
   </si>
   <si>
-    <t>Kuwait (/kʊˈweɪt/ ( listen);[5][6] Arabic: الكويت‎ al-Kuwait, Gulf Arabic pronunciation: [ɪl‿ɪkweːt] or [lɪkweːt]), officially the State of Kuwait (Arabic: دولة الكويت‎  Dawlat al-Kuwait), is a country in Western Asia. Situated in the northern edge of Eastern Arabia at the tip of the Persian Gulf, it shares borders with Iraq and Saudi Arabia. As of 2016[update], Kuwait has a population of 4.2 million people; 1.3 million are Kuwaitis and 2.9 million are expatriates.[7] Expatriates account for 70% of the population.[8]</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
@@ -870,180 +601,120 @@
     <t>https://en.wikipedia.org/wiki/Laos</t>
   </si>
   <si>
-    <t>Laos (/ˈlɑːoʊs/ ( listen),[7] /ˈlaʊs/, /ˈlɑːɒs/ or /ˈleɪɒs/;[8][9] Lao: ລາວ, Lao pronunciation: [láːw], Lāo), officially the Lao People's Democratic Republic (Lao: ສາທາລະນະລັດ ປະຊາທິປະໄຕ ປະຊາຊົນລາວ, Sathalanalat Paxathipatai Paxaxon Lao), commonly referred to by its colloquial name of Muang Lao (Lao: ເມືອງລາວ, Muang Lao), is a landlocked country in the heart of the Indochinese peninsula of Mainland Southeast Asia, bordered by Myanmar (Burma) and China to the northwest, Vietnam to the east, Cambodia to the southwest and Thailand to the west and southwest.[10]</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latvia</t>
   </si>
   <si>
-    <t>Latvia is a democratic republic and a highly developed country[citation needed]. Its capital Riga served as the European Capital of Culture in 2014. Latvian is the official language. Latvia is a unitary state, divided into 119 administrative divisions, of which 110 are municipalities and 9 are cities.[19] Latvians are the indigenous people of Latvia.[15] Latvian and Lithuanian are the only two surviving Baltic languages. Despite foreign rule from the 13th to 20th centuries, the Latvian nation maintained its identity throughout the generations via the language and musical traditions. As a consequence of centuries of Russian rule (1710–1918) and later Soviet occupation, Latvia is home to a large number of ethnic Russians (26.9% in Latvia[20]), some of whom (14.1% of Latvian residents) have not gained citizenship, leaving them with no citizenship at all. Until World War II, Latvia also had significant minorities of ethnic Germans and Jews. Latvia is historically predominantly Protestant Lutheran, except for the Latgale region in the southeast, which has historically been predominantly Roman Catholic.[21] The Russian population has also brought a significant portion of Eastern Orthodox Christians.</t>
-  </si>
-  <si>
     <t>Lebanon</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lebanon</t>
   </si>
   <si>
-    <t>Lebanon (/ˈlɛbənɒn/ ( listen); Arabic: لبنان‎ Lubnān; Lebanese pronunciation: [lɪbˈnæːn]; French: Liban), officially known as the Lebanese Republic[nb 2] (Arabic: الجمهورية اللبنانية‎ al-Jumhūrīyah al-Lubnānīyah; Lebanese pronunciation: [elˈʒʊmhuːɾɪjje l.ˈlɪbnæːnɪjje]; French: République libanaise), is a sovereign state in Western Asia. It is bordered by Syria to the north and east and Israel to the south, while Cyprus is west across the Mediterranean Sea. Lebanon's location at the crossroads of the Mediterranean Basin and the Arabian hinterland facilitated its rich history and shaped a cultural identity of religious and ethnic diversity.[8] At just 10,452 km2 (4,036 sq. mi.), it is the smallest recognized country on the entire mainland Asian continent.[nb 3][9][10]</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lesotho</t>
   </si>
   <si>
-    <t>Lesotho (/lɪˈsuːtuː/ ( listen), li-SOO-too), officially the Kingdom of Lesotho (Sotho: Muso oa Lesotho), is a landlocked country in southern Africa, completely surrounded by South Africa. It is just over 30,000 km2 (11,583 sq mi) in size and has a population of around 2 million.[1] Its capital and largest city is Maseru.</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Liberia</t>
   </si>
   <si>
-    <t>Liberia /laɪˈbɪəriə/ ( listen), officially the Republic of Liberia, is a country on the West African coast. It is bordered by Sierra Leone to its west, Guinea to its north and Ivory Coast to its east. It covers an area of 111,369 square kilometers (43,000 sq mi) and has a population of 4,503,000 people.[3] English is the official language and over 20 indigenous languages are spoken, representing the numerous ethnic groups who make up more than 95% of the population. The country's capital and largest city is Monrovia.</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libya</t>
   </si>
   <si>
-    <t>Libya (Arabic: ليبيا‎ Lībiyā)[6][7], officially the State of Libya (Arabic: دولة ليبيا‎ dawlat libiaan), is a sovereign state in the Maghreb region of North Africa, bordered by the Mediterranean Sea to the north, Egypt to the east, Sudan to the southeast, Chad and Niger to the south and Algeria and Tunisia to the west. The country is made of three historical regions, Tripolitania, Fezzan and Cyrenaica. With an area of almost 1.8 million square kilometres (700,000 sq mi), Libya is the fourth largest country in Africa, and is the 16th largest country in the world.[8] Libya has the 10th-largest proven oil reserves of any country in the world.[9]</t>
-  </si>
-  <si>
     <t>Liechtenstein</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Liechtenstein</t>
   </si>
   <si>
-    <t>Liechtenstein (/ˈlɪktənstaɪn/ ( listen); LIK-tən-styne; German: [ˈlɪçtn̩ʃtaɪn]), officially the Principality of Liechtenstein (German: Fürstentum Liechtenstein),[7] is a doubly landlocked German-speaking microstate in Central Europe.[8] The principality is a constitutional monarchy headed by the Prince of Liechtenstein.</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lithuania</t>
   </si>
   <si>
-    <t>Lithuania (/ˌlɪθuːˈeɪniə/ ( listen),[11][12][13] Lithuanian: Lietuva [lʲɪɛtʊˈvɐ]), officially the Republic of Lithuania (Lithuanian: Lietuvos Respublika), is a country in the Baltic region of northern-eastern Europe. One of the three Baltic states, it is situated along the southeastern shore of the Baltic Sea, to the east of Sweden and Denmark. It is bordered by Latvia to the north, Belarus to the east and south, Poland to the south, and Kaliningrad Oblast (a Russian exclave) to the southwest. Lithuania has an estimated population of 2.8 million people as of 2017[update], and its capital and largest city is Vilnius. Lithuanians are a Baltic people. The official language, Lithuanian, along with Latvian, is one of only two living languages in the Baltic branch of the Indo-European language family.</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Luxembourg</t>
   </si>
   <si>
-    <t>Luxembourg (/ˈlʌksəmbɜːrɡ/ ( listen)) (Luxembourgish: Lëtzebuerg [ˈlətsəbuːə̯ɕ] ( listen); French: Luxembourg, German: Luxemburg), officially the Grand Duchy of Luxembourg,[note 1] is a landlocked country in western Europe. It is bordered by Belgium to the west and north, Germany to the east, and France to the south. Its capital, Luxembourg City, is, together with Brussels and Strasbourg, one of the three official capitals of the European Union[7] and the seat of the European Court of Justice, the highest judicial authority in the EU. Its culture, people and languages are highly intertwined with its neighbours, making it essentially a mixture of French and Germanic cultures. This is emphasised by the three official languages, Luxembourgish, French, and German. The repeated invasions by Germany, especially in World War II, resulted in the country's strong will for mediation between France and Germany and, among other things, led to the foundation of the European Union.[8]</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Republic_of_Macedonia</t>
   </si>
   <si>
-    <t>Macedonia (/ˌmæsɪˈdoʊniə/ ( listen) MAS-ih-DOH-nee-ə; Macedonian: Македонија, tr. Makedonija, IPA: [makɛˈdɔnija]), officially the Republic of Macedonia (Macedonian:  Република Македонија (help·info), tr. Republika Makedonija), is a country in the Balkan peninsula in Southeast Europe. It is one of the successor states of the former Yugoslavia, from which it declared independence in 1991. It became a member of the United Nations in 1993, but, as a result of an ongoing dispute with Greece over the use of the name "Macedonia", was admitted under the provisional description the former Yugoslav Republic of Macedonia[11][12] (sometimes abbreviated as FYROM and FYR Macedonia), a term that is also used by international organizations such as the European Union,[13] the Council of Europe,[14] and NATO.[15]</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Madagascar</t>
   </si>
   <si>
-    <t>Madagascar (/ˌmædəˈɡæskər/; Malagasy: Madagasikara), officially the Republic of Madagascar (Malagasy: Repoblikan'i Madagasikara [republiˈkʲan madaɡasˈkʲarə̥]; French: République de Madagascar), and previously known as the Malagasy Republic, is an island country in the Indian Ocean, off the coast of East Africa. The nation comprises the island of Madagascar (the fourth-largest island in the world), and numerous smaller peripheral islands. Following the prehistoric breakup of the supercontinent Gondwana, Madagascar split from the Indian peninsula around 88 million years ago, allowing native plants and animals to evolve in relative isolation. Consequently, Madagascar is a biodiversity hotspot; over 90% of its wildlife is found nowhere else on Earth. The island's diverse ecosystems and unique wildlife are threatened by the encroachment of the rapidly growing human population and other environmental threats.</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Malawi</t>
   </si>
   <si>
-    <t>Malawi (/məˈlɔːwi/, /məˈlɑːwi/ or /ˈmæləwi/; Chichewa: [maláβi] or [maláwi][9]), officially the Republic of Malawi, is a landlocked country in southeast Africa that was formerly known as Nyasaland. It is bordered by Zambia to the northwest, Tanzania to the northeast, and Mozambique on the east, south and west. Malawi is over 118,000 km2 (45,560 sq mi) with an estimated population of 18,091,575 (July 2016 est.). Its capital is Lilongwe, which is also Malawi's largest city; the second largest is Blantyre, the third is Mzuzu and the fourth largest is its old capital Zomba. The name Malawi comes from the Maravi, an old name of the Nyanja people that inhabit the area. The country is also nicknamed "The Warm Heart of Africa".[10]</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Malaysia</t>
   </si>
   <si>
-    <t>Malaysia (/məˈleɪʒə/ ( listen) mə-LAY-zhə or /məˈleɪsiə/ ( listen) mə-LAY-see-ə; Malaysian pronunciation: [məlejsiə])[lacks stress] is a federal constitutional monarchy located in Southeast Asia. It consists of thirteen states and three federal territories and has a total landmass of 330,803 square kilometres (127,720 sq mi) separated by the South China Sea into two similarly sized regions, Peninsular Malaysia and East Malaysia (Malaysian Borneo). Peninsular Malaysia shares a land and maritime border with Thailand at the north and maritime borders with Singapore at the south, Vietnam at the northeast, and Indonesia in the west. East Malaysia shares land and maritime borders with Brunei and Indonesia and a maritime border with the Philippines and Vietnam. The capital city is Kuala Lumpur, while Putrajaya is the seat of the federal government. With a population of over 30 million, Malaysia is the 44th most populous country. The southernmost point of continental Eurasia, Tanjung Piai, is in Malaysia. Located in the tropics, Malaysia is one of 17 megadiverse countries on earth, with large numbers of endemic species.</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maldives</t>
   </si>
   <si>
-    <t>The Maldives (/ˈmɒldiːvz/, /ˈmɔːldiːvz/, /ˈmɔːldaɪvz/ ( listen) or /ˈmældaɪvz/),[13] officially the Republic of Maldives (Dhivehi Raa'jeyge Jumhooriyya), is a South Asian island country, located in the Indian Ocean, situated in the Arabian Sea. It lies southwest of Sri Lanka and India. The chain of 26 atolls stretches from Ihavandhippolhu Atoll in the north to the Addu City in the south. Comprising a territory spanning roughly 298 square kilometres (115 sq mi), the Maldives is one of the world's most geographically dispersed countries, as well as the smallest Asian country by both land area and population, with around 427,756 inhabitants. Malé is the capital and most populated city, traditionally called the "King's Island" for its central location.</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mali</t>
   </si>
   <si>
-    <t>Mali (/ˈmɑːli/ ( listen); French: [mali]), officially the Republic of Mali (French: République du Mali), is a landlocked country in West Africa, a region geologically identified with the West African Craton. Mali is the eighth-largest country in Africa, with an area of just over 1,240,000 square kilometres (480,000 sq mi). The population of Mali is 18 million[8]. Its capital is Bamako. Mali consists of eight regions and its borders on the north reach deep into the middle of the Sahara Desert, while the country's southern part, where the majority of inhabitants live, features the Niger and Senegal rivers. The country's economy centers on agriculture and fishing. Some of Mali's prominent natural resources include gold, being the third largest producer of gold in the African continent,[9] and salt. About half the population lives below the international poverty line of $1.25 (U.S.) a day.[10] A majority of the population (90%) are Muslims.[11]</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Malta</t>
   </si>
   <si>
-    <t>Malta (/ˈmɒltə/ ( listen); Maltese: [ˈmɐltɐ]), officially known as the Republic of Malta (Maltese: Repubblika ta' Malta), is a Southern European island country consisting of an archipelago in the Mediterranean Sea.[9] It lies 80 km (50 mi) south of Italy, 284 km (176 mi) east of Tunisia,[10] and 333 km (207 mi) north of Libya.[11] The country covers just over 316 km2 (122 sq mi),[3] with a population of just under 450,000,[4] making it one of the world's smallest[12][13][14] and most densely populated countries. The capital of Malta is Valletta, which at 0.8 km2, is the smallest national capital in the European Union by area.[15] Malta has one national language, which is Maltese, and English as an official language.</t>
-  </si>
-  <si>
     <t>Marshall Islands</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marshall_Islands</t>
   </si>
   <si>
-    <t>The Marshall Islands, officially the Republic of the Marshall Islands (Marshallese: Aolepān Aorōkin M̧ajeļ),[Note 1] is an island country located near the equator in the Pacific Ocean, slightly west of the International Date Line. Geographically, the country is part of the larger island group of Micronesia. The country's population of 53,158 people (at the 2011 Census[5]) is spread out over 29 coral atolls,[2] comprising 1,156 individual islands and islets.</t>
-  </si>
-  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mauritania</t>
   </si>
   <si>
-    <t>Mauritania (/mɔːrɪˈteɪniə/ ( listen); Arabic: موريتانيا‎ Mūrītānyā; Berber: Muritanya or Agawej; Wolof: Gànnaar; Soninke: Murutaane; Pulaar: Moritani; French: Mauritanie), officially the Islamic Republic of Mauritania, is a country in the Maghreb region of Northwestern Africa.[7][8][9] It is the eleventh largest country in Africa and is bordered by the Atlantic Ocean to the west, Western Sahara in the north, Algeria in the northeast, Mali in the east and southeast, and Senegal in the southwest.</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mauritius</t>
   </si>
   <si>
-    <t>Mauritius (/məˈrɪʃəs/ ( listen) or /məˈrɪʃiəs/; French: Maurice), officially the Republic of Mauritius (French: République de Maurice), is an island nation in the Indian Ocean about 2,000 kilometres (1,200 mi) off the southeast coast of the African continent. The country includes the islands of Mauritius and Rodrigues, 560 kilometres (350 mi) east of Mauritius, and the outer islands (Agaléga, St. Brandon and two disputed territories). The islands of Mauritius and Rodrigues form part of the Mascarene Islands, along with nearby Réunion, a French overseas department. The area of the country is 2,040 km2 (790 sq mi). The capital and largest city is Port Louis.</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mexico</t>
   </si>
   <si>
-    <t>Mexico (/ˈmɛksɪkoʊ/; MEK-si-koh; Spanish: México, pronounced [ˈmexiko] ( listen)), officially the United Mexican States (Spanish: Estados Unidos Mexicanos,  listen (help·info)),[10][11][12][13] is a federal republic in the southern portion of North America. It is bordered to the north by the United States; to the south and west by the Pacific Ocean; to the southeast by Guatemala, Belize, and the Caribbean Sea; and to the east by the Gulf of Mexico.[14] Covering almost two million square kilometers (over 760,000 sq mi),[13] the nation is the sixth largest country in the Americas by total area and the 13th largest independent state in the world.</t>
-  </si>
-  <si>
     <t>Micronesia</t>
   </si>
   <si>
@@ -1056,279 +727,186 @@
     <t>https://en.wikipedia.org/wiki/Moldova</t>
   </si>
   <si>
-    <t>Moldova (/mɒlˈdoʊvə, mɔːl-/ ( listen) or sometimes UK: /ˈmɒldəvə/),[11][12][13] officially the Republic of Moldova (Romanian: Republica Moldova,  listen (help·info)), is a landlocked country in Eastern Europe, bordered by Romania to the west and Ukraine to the north, east, and south (by way of the disputed territory of Transnistria).[14] The capital city is Chișinău.</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monaco</t>
   </si>
   <si>
-    <t>Monaco (/ˈmɒnəkoʊ/ ( listen); French pronunciation: ​[mɔnako]), officially the Principality of Monaco (French: Principauté de Monaco),[a] is a sovereign city-state, country and microstate located on the French Riviera in Western Europe. France borders the country on three sides while the other side borders the Mediterranean Sea. Monaco has an area of 2.02 km2 (0.78 sq mi) and a population of about 38,400, according to the last census of 2016.[6] With 19,009 inhabitants per km², it is the second-smallest and most densely populated sovereign state in the world. Monaco has a land border of 5.47 km (3.40 mi),[6] a coastline of 3.83 km (2.38 mi), and a width that varies between 1,700 and 349 m (1,859 and 382 yd). The highest point in the country is a narrow pathway named Chemin des Révoires on the slopes of Mont Agel, in the Les Révoires Ward, which is 161 metres (528 feet) above sea level. Monaco's most populous Quartier is Monte Carlo and the most populous Ward is Larvotto/Bas Moulins. Through land reclamation, Monaco's land mass has expanded by twenty percent; in 2005, it had an area of only 1.974 km2 (0.762 sq mi). Monaco is known as a playground for the rich and famous, due to its tax laws. In 2014, it was noted about 30% of the population was made up of millionaires, more than in Zürich or Geneva.[10]</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mongolia</t>
   </si>
   <si>
-    <t>Mongolia /mɒŋˈɡoʊliə/ ( listen) (Mongolian: Монгол Улс in Mongolian Cyrillic; ᠮᠤᠩᠭᠤᠯ ᠤᠯᠤᠰ [mɔŋˈɢɔɮ ʊɮs] in Mongolian script; Mongol Uls in Mongolian Latin script; literally: Mongol State) is a landlocked unitary sovereign state in East Asia. Its area is roughly equivalent with the historical territory of Outer Mongolia, and that term is sometimes used to refer to the Mongolian People's Republic. It is located between China to the south and Russia to the north. While it does not share a border with Kazakhstan, Mongolia is separated from it by only 36.76 kilometers (22.84 mi).</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Montenegro</t>
   </si>
   <si>
-    <t>Montenegro (/ˌmɒntɪˈneɪɡroʊ, -ˈniːɡ-, -ˈnɛɡ-/ ( listen) MON-ti-NAYG-roh, -NEEG-, -NEG-; Montenegrin: Crna Gora/Црна Гора, [t͡sr̩̂ːnaː ɡɔ̌ra] ( listen), meaning "Black Mountain") is a sovereign state in Southeastern Europe. It has a coast on the Adriatic Sea to the southwest and is bordered by Croatia to the west, Bosnia and Herzegovina to the northwest, Serbia to the northeast, Kosovo[a] to the east, and Albania to the southeast. Its capital and largest city is Podgorica, while Cetinje is designated as the Old Royal Capital (prijestonica).[8]</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Morocco</t>
   </si>
   <si>
-    <t>Morocco (/məˈrɒkoʊ/ ( listen); Arabic: المَغرِب‎, translit. al-maġrib, lit. 'place the sun sets; the west'; Standard Moroccan Tamazight: ⵍⵎⵖⵔⵉⴱ, translit. Lmeɣrib; French: Maroc), officially known as the Kingdom of Morocco (Arabic: المملكة المغربية‎, translit. al-Mamlakah al-Maghribiyah, lit. "The Western Kingdom"; Standard Moroccan Tamazight: ⵜⴰⴳⵍⴷⵉⵜ ⵏ ⵍⵎⵖⵔⵉⴱ, translit. Tageldit n Lmaɣrib), is a sovereign country located in the Maghreb region of North Africa. Geographically, Morocco is characterised by a rugged mountainous interior, large tracts of desert and a lengthy coastline along the Atlantic Ocean and Mediterranean Sea.</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mozambique</t>
   </si>
   <si>
-    <t>Mozambique (/moʊzæmˈbiːk/ or /mɔː-/), officially the Republic of Mozambique (Portuguese: Moçambique or República de Moçambique, pronounced [ʁɛˈpuβlikɐ ðɨ musɐ̃ˈbikɨ]) is a country in Southeast Africa bordered by the Indian Ocean to the east, Tanzania to the north, Malawi and Zambia to the northwest, Zimbabwe to the west, and Swaziland and South Africa to the southwest. It is separated from Madagascar by the Mozambique Channel to the east. The capital and largest city is Maputo (known as "Lourenço Marques" before independence).</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Myanmar</t>
   </si>
   <si>
-    <t>Myanmar (Burmese pronunciation: [mjəmà]),[nb 1][8] officially the Republic of the Union of Myanmar and also known as Burma, is a sovereign state in Southeast Asia. Myanmar is bordered by India and Bangladesh to its west, Thailand and Laos to its east and China to its north and northeast. To its south, about one third of Myanmar's total perimeter of 5,876 km (3,651 mi) forms an uninterrupted coastline of 1,930 km (1,200 mi) along the Bay of Bengal and the Andaman Sea. The country's 2014 census counted the population to be 51 million people.[9] As of 2017, the population is about 54 million.[10] Myanmar is 676,578 square kilometers (261,228 square miles) in size. Its capital city is Naypyidaw, and its largest city and former capital is Yangon (Rangoon).[1] Myanmar has been a member of the Association of Southeast Asian Nations (ASEAN) since 1997.</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Namibia</t>
   </si>
   <si>
-    <t>Namibia (/nəˈmɪbiə/ ( listen), /næˈ-/),[17][18] officially the Republic of Namibia (German:  Republik Namibia (help·info); Afrikaans: Republiek van Namibië) is a country in southern Africa whose western border is the Atlantic Ocean. It shares land borders with Zambia and Angola to the north, Botswana to the east and South Africa to the south and east. Although it does not border Zimbabwe, less than 200 metres of the Zambezi River (essentially a small bulge in Botswana to achieve a Botswana/Zambia micro-border) separates the two countries. Namibia gained independence from South Africa on 21 March 1990, following the Namibian War of Independence. Its capital and largest city is Windhoek, and it is a member state of the United Nations (UN), the Southern African Development Community (SADC), the African Union (AU), and the Commonwealth of Nations.</t>
-  </si>
-  <si>
     <t>Nauru</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nauru</t>
   </si>
   <si>
-    <t>Nauru (Nauruan: Naoero, /nɑːˈuːruː/ nah-OO-roo or /ˈnɑːruː/ NAH-roo[5][6]), officially the Republic of Nauru (Nauruan: Repubrikin Naoero) and formerly known as Pleasant Island, is an island country in Micronesia in the Central Pacific. Its nearest neighbour is Banaba Island in Kiribati, 300 kilometres (186 mi) to the east. It further lies northwest of Tuvalu, north of the Solomon Islands, east-northeast of Papua New Guinea, southeast of the Federated States of Micronesia and south of the Marshall Islands. With 11,347 residents in a 21-square-kilometre (8.1 sq mi) area, Nauru is the smallest state in the South Pacific and third smallest state by area in the world, behind only Vatican City and Monaco.</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nepal</t>
   </si>
   <si>
-    <t>Nepal (/nəˈpɔːl/ ( listen);[10] Nepali: नेपाल  Nepāl [neˈpal]), officially the Federal Democratic Republic of Nepal (Nepali: सङ्घीय लोकतान्त्रिक गणतन्त्र नेपाल Sanghiya Loktāntrik Ganatantra Nepāl),[11] is a landlocked central Himalayan country in South Asia. Nepal is divided into 7 states and 75 districts and 744 local units including 4 metropolises, 13 sub-metropolises, 246 municipal councils and 481 villages.[12] It has a population of 26.4 million and is the 93rd largest country by area.[2][13] Bordering China in the north and India in the south, east, and west, it is the largest sovereign Himalayan state. Nepal does not border Bangladesh, which is located within only 27 km (17 mi) of its southeastern tip. Neither does it border Bhutan due to the Indian state of Sikkim being located in between. Nepal has a diverse geography, including fertile plains,[14] subalpine forested hills, and eight of the world's ten tallest mountains, including Mount Everest, the highest point on Earth. Kathmandu is the nation's capital and largest city. Nepal is a multiethnic nation with Nepali as the official language.</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kingdom_of_the_Netherlands</t>
   </si>
   <si>
-    <t>The Netherlands is a representative parliamentary democracy organised as a unitary state. Its administration consists of the Monarch and the Council of Ministers, which is headed by a Prime Minister. The people are represented by the States General of the Netherlands, which consists of a House of Representatives and a Senate. The Netherlands is divided into 12 provinces: Drenthe, Flevoland, Friesland, Gelderland, Groningen, Limburg, Noord-Brabant, Noord-Holland, Overijssel, Utrecht, Zeeland, and Zuid-Holland. The provinces are divided into municipalities. The Prime Minister of the Netherlands is Mark Rutte. The Netherlands has the euro as its currency, except in the special municipalities of the Caribbean Netherlands (BES islands), where the Netherlands Antillean guilder was replaced by the US dollar in 2011.[19]</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/New_Zealand</t>
   </si>
   <si>
-    <t>New Zealand /njuːˈziːlənd/ ( listen) (Māori: Aotearoa [aɔˈtɛaɾɔa]) is an island country in the southwestern Pacific Ocean. The country geographically comprises two main landmasses—the North Island (or Te Ika-a-Māui), and the South Island (or Te Waipounamu)—and around 600 smaller islands. New Zealand is situated some 1,500 kilometres (900 mi) east of Australia across the Tasman Sea and roughly 1,000 kilometres (600 mi) south of the Pacific island areas of New Caledonia, Fiji, and Tonga. Because of its remoteness, it was one of the last lands to be settled by humans. During its long period of isolation, New Zealand developed a distinct biodiversity of animal, fungal and plant life. The country's varied topography and its sharp mountain peaks, such as the Southern Alps, owe much to the tectonic uplift of land and volcanic eruptions. New Zealand's capital city is Wellington, while its most populous city is Auckland.</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nicaragua</t>
   </si>
   <si>
-    <t>Nicaragua (/ˌnɪkəˈrɑːɡwəˌ -ˈræɡ-ˌ -ɡjuə/ ( listen); Spanish: [nikaˈɾaɣwa]), officially the Republic of Nicaragua (Spanish:  República de Nicaragua (help·info)), is the largest country in the Central American isthmus, bordered by Honduras to the north, the Caribbean to the east, Costa Rica to the south, and the Pacific Ocean to the west. Nicaragua's capital, Managua, is the country's largest city and the third-largest city in Central America. The multi-ethnic population of six million includes people of indigenous, European, African, and Asian heritage. The main language is Spanish. Native tribes on the Mosquito Coast speak their own languages.</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Niger</t>
   </si>
   <si>
-    <t>Niger is a developing country, consistently ranks near the bottom in the United Nations' Human Development Index (HDI); it was ranked last at 188th for 2014.[5] Much of the non-desert portions of the country are threatened by periodic drought and desertification. The economy is concentrated around subsistence, with some export agriculture in the more fertile south, and export of raw materials, especially uranium ore. Niger faces serious challenges to development due to its landlocked position, desert terrain, inefficient agriculture, high fertility rates without birth control, and the resulting overpopulation, [12]the poor educational level and the poverty of its people, the lack of infrastructure, the poor health care, and the environmental degradation.</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nigeria</t>
   </si>
   <si>
-    <t>Nigeria has been home to a number of kingdoms and tribal states over the millennia. The modern state originated from British colonial rule beginning in the 19th century, and took its present territorial shape with the merging of the Southern Nigeria Protectorate and Northern Nigeria Protectorate in 1914. The British set up administrative and legal structures whilst practising indirect rule through traditional chiefdoms. Nigeria became a formally independent federation in 1960. It experienced a civil war from 1967 to 1970. It thereafter alternated between democratically elected civilian governments and military dictatorships until 1999, with the 2011 presidential election considered the first to be reasonably free and fair.[8]</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norway</t>
   </si>
   <si>
-    <t>Norway (/ˈnɔːrweɪ/ ( listen) NAWR-way; Norwegian:  Norge (Bokmål) or  Noreg (Nynorsk); Northern Sami: Norga),[10] officially the Kingdom of Norway, is a sovereign state and unitary monarchy whose territory comprises the western portion of the Scandinavian Peninsula plus the remote island of Jan Mayen and the archipelago of Svalbard.[note 1] The Antarctic Peter I Island and the sub-Antarctic Bouvet Island are dependent territories and thus not considered part of the Kingdom. Norway also lays claim to a section of Antarctica known as Queen Maud Land. Until 1814, the kingdom included the Faroe Islands, Greenland, and Iceland. It also included Bohuslän until 1658, Jämtland and Härjedalen until 1645, Shetland and Orkney until 1468, and the Hebrides and Isle of Man until 1266.</t>
-  </si>
-  <si>
     <t>Oman</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oman</t>
   </si>
   <si>
-    <t>Oman (/oʊˈmɑːn/ ( listen) oh-MAAN; Arabic: عمان‎ ʻumān pronounced [ʕʊˈmaːn]), officially the Sultanate of Oman (Arabic: سلطنة عُمان‎ Salṭanat ʻUmān), is an Arab country on the southeastern coast of the Arabian Peninsula. Holding a strategically important position at the mouth of the Persian Gulf, the country shares land borders with the United Arab Emirates to the northwest, Saudi Arabia to the west, and Yemen to the southwest, and shares marine borders with Iran and Pakistan. The coast is formed by the Arabian Sea on the southeast and the Gulf of Oman on the northeast. The Madha and Musandam exclaves are surrounded by the UAE on their land borders, with the Strait of Hormuz (which it shares with Iran) and Gulf of Oman forming Musandam's coastal boundaries.</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pakistan</t>
   </si>
   <si>
-    <t>Pakistan (/ˈpækɪstæn/ ( listen) or /pɑːkɪˈstɑːn/ ( listen); Urdu: پاکستان‎‎), officially the Islamic Republic of Pakistan (Urdu: اسلامی جمہوریہ پاکستان‎‎), is a country in South Asia and on junction of West Asia, Central Asia and East Asia. It is the fifth-most populous country with a population exceeding 207.77 million people.[17] In terms of area, it is the 33rd-largest country spanning 881,913 square kilometres (340,509 square miles). Pakistan has a 1,046-kilometre (650-mile) coastline along the Arabian Sea and Gulf of Oman in the south and is bordered by India to the east, Afghanistan to the west, Iran to the southwest, and China in the far northeast, respectively. It is separated narrowly from Tajikistan by Afghanistan's Wakhan Corridor in the north-west, and also shares a maritime border with Oman.</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Palau</t>
   </si>
   <si>
-    <t>Palau (/pəˈlaʊ/ ( listen), historically Belau or Pelew), officially the Republic of Palau (Palauan: Beluu er a Belau),[5] is an island country located in the western Pacific Ocean. The country contains approximately 340 islands, forming the western chain of the Caroline Islands in Micronesia, and has an area of 466 square kilometers (180 sq mi).[6] The most populous island is Koror. The capital Ngerulmud is located on the nearby island of Babeldaob, in Melekeok State. Palau shares maritime boundaries with Indonesia, the Philippines, and the Federated States of Micronesia.</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_of_Palestine</t>
   </si>
   <si>
-    <t>Palestine (Arabic: فلسطين‎ Filasṭīn), officially the State of Palestine[i] (Arabic: دولة فلسطين‎ Dawlat Filasṭīn), is a de jure sovereign state[16][17] in the Middle East claiming the West Bank (bordering Israel and Jordan) and Gaza Strip (bordering Israel and Egypt)[3] with East Jerusalem as the designated capital although its administrative center is located in Ramallah.[ii][4][5] Most of the areas claimed by the State of Palestine have been occupied by Israel since 1967 in the consequence of the Six-Day War.[8] The population is 4,550,368 as of 2014, ranked 123rd in the world.</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Panama</t>
   </si>
   <si>
-    <t>Panama (/ˈpænəmɑː/ ( listen) PAN-ə-mah; Spanish: Panamá [panaˈma]), officially called the Republic of Panama (Spanish: República de Panamá), is a country in Central America.[8] It is bordered by Costa Rica to the west, Colombia (in South America) to the southeast, the Caribbean Sea to the north and the Pacific Ocean to the south. The capital and largest city is Panama City, whose metropolitan area is home to nearly half of the country's 4 million people.[3]</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Papua_New_Guinea</t>
   </si>
   <si>
-    <t>Papua New Guinea (PNG; /ˈpæpuə njuː ˈɡɪniː, ˈpɑː-, -pju-/, US: /ˈpæpjuə, pɑːˈpuːə/;[9] Tok Pisin: Papua Niugini; Hiri Motu: Papua Niu Gini), officially the Independent State of Papua New Guinea, is an Oceanian country that occupies the eastern half of the island of New Guinea and its offshore islands in Melanesia, a region of the southwestern Pacific Ocean north of Australia. Its capital, located along its southeastern coast, is Port Moresby. The western half of New Guinea forms the Indonesian provinces of Papua and West Papua.</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paraguay</t>
   </si>
   <si>
-    <t>Paraguay (/ˈpærəɡwaɪ/; Spanish pronunciation: [paɾaˈɣwaj]; Guarani: Paraguái, [paɾaˈɰwaj]), officially the Republic of Paraguay (Spanish: República del Paraguay; Guarani: Tetã Paraguái), is a landlocked country in central South America, bordered by Argentina to the south and southwest, Brazil to the east and northeast, and Bolivia to the northwest. Paraguay lies on both banks of the Paraguay River, which runs through the center of the country from north to south. Due to its central location in South America, it is sometimes referred to as Corazón de Sudamérica ("Heart of South America").[8] Paraguay is one of the two landlocked countries (the other is Bolivia) outside Afro-Eurasia, and is the smallest[9] landlocked country in the Americas.</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peru</t>
   </si>
   <si>
-    <t>Peru (/pəˈruː/ ( listen); Spanish: Perú [peˈɾu]; Quechua: Piruw [pʰɪɾʊw];[7] Aymara: Piruw [pɪɾʊw]), officially the Republic of Peru (Spanish:  República del Perú (help·info)), is a country in western South America. It is bordered in the north by Ecuador and Colombia, in the east by Brazil, in the southeast by Bolivia, in the south by Chile, and in the west by the Pacific Ocean. Peru is an extremely biodiverse country with habitats ranging from the arid plains of the Pacific coastal region in the west to the peaks of the Andes mountains vertically extending from the north to the southeast of the country to the tropical Amazon Basin rainforest in the east with the Amazon river.[8]</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philippines</t>
   </si>
   <si>
-    <t>The Philippines (/ˈfɪlɪpiːnz/ ( listen); Filipino: Pilipinas [ˌpɪlɪˈpinɐs] or Filipinas [ˌfɪlɪˈpinɐs]), officially the Republic of the Philippines (Filipino: Republika ng Pilipinas), is a unitary sovereign state and island country in Southeast Asia. Situated in the western Pacific Ocean, it consists of about 7,641 islands[17] that are categorized broadly under three main geographical divisions from north to south: Luzon, Visayas, and Mindanao. The capital city of the Philippines is Manila and the most populous city is Quezon City, both part of Metro Manila.[18] Bounded by the South China Sea on the west, the Philippine Sea on the east and the Celebes Sea on the southwest, the Philippines shares maritime borders with Taiwan to the north, Vietnam to the west, Palau to the east and Malaysia and Indonesia to the south.</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Poland</t>
   </si>
   <si>
-    <t>Poland (Polish: Polska [ˈpɔlska] ( listen)), officially the Republic of Poland (Polish: Rzeczpospolita Polska,[a]  listen (help·info)), is a sovereign country in Central Europe.[11] It is a unitary state divided into 16 administrative subdivisions, covering an area of 312,679 square kilometres (120,726 sq mi) with a mostly temperate climate.[9] With a population of over 38.5 million people, Poland is the sixth most populous member state of the European Union.[9] Poland's capital and largest city is Warsaw. Other cities include Kraków, Wrocław, Poznań, Gdańsk and Szczecin.</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portugal</t>
   </si>
   <si>
-    <t>Portugal (Portuguese: [puɾtuˈɣaɫ]), officially the Portuguese Republic (Portuguese: República Portuguesa [ʁɛ'puβlikɐ puɾtu'ɣezɐ]),[note 1] is a sovereign state located on the Iberian Peninsula in southwestern Europe. It is the westernmost country of mainland Europe, being bordered to the west and south by the Atlantic Ocean and to the north and east by Spain. Its territory also includes the Atlantic archipelagos of the Azores and Madeira, both autonomous regions with their own regional governments. At 1.7 million km2, its Exclusive Economic Zone is the 3rd largest in the European Union and the 11th largest in the world.[9]</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Qatar</t>
   </si>
   <si>
-    <t>Qatar (/ˈkætɑːr/,[9] /ˈkɑːtɑːr/ ( listen), /ˈkɑːtər/ or /kəˈtɑːr/ ( listen);[10] Arabic: قطر‎ Qaṭar [ˈqɑtˤɑr]; local vernacular pronunciation: [ˈɡɪtˤɑr]),[11][12] officially the State of Qatar (Arabic: دولة قطر‎ Dawlat Qaṭar), is a sovereign country located in Western Asia, occupying the small Qatar Peninsula on the northeastern coast of the Arabian Peninsula. Its sole land border is with Saudi Arabia to the south, with the rest of its territory surrounded by the Persian Gulf. An arm of the Persian Gulf separates Qatar from the nearby island country of Bahrain.</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Romania</t>
   </si>
   <si>
-    <t>Romania (/roʊˈmeɪniə/ ( listen) roh-MAY-nee-ə; Romanian: România i[romɨˈni.a]) is a sovereign state located in Southeastern Europe. It borders the Black Sea, Bulgaria, Ukraine, Hungary, Serbia, and Moldova. It has an area of 238,397 square kilometres (92,046 sq mi) and a temperate-continental climate. With almost 20 million inhabitants, the country is the seventh most populous member state of the European Union. Its capital and largest city, Bucharest, is the sixth-largest city in the EU, with 1,883,425 inhabitants as of 2011.[8]</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russia</t>
   </si>
   <si>
-    <t>Russia (/ˈrʌʃə/ ( listen); Russian: Росси́я, tr. Rossíya, IPA: [rɐˈsʲijə]; from the Greek: Ρωσία — Rus'), also officially known as the Russian Federation[12] (Russian: Российская Федерация, tr. Rossiyskaya Federatsiya, IPA: [rɐˈsʲijskəjə fʲɪdʲɪˈratsɨjə]), is a sovereign country in Eurasia.[13] At 17,125,200 square kilometres (6,612,100 sq mi),[14] Russia is the largest country in the world by surface area, covering more than one-eighth of the Earth's inhabited land area,[15][16][17] and the ninth most populous, with over 144 million people at the end of March 2016.[18][7] The European western part of the country is much more populated and urbanised than the eastern; about 77% of the population live in European Russia. Russia's capital Moscow is one of the largest cities in the world; other major urban centers include Saint Petersburg, Novosibirsk, Yekaterinburg, Chelyabinsk, Nizhny Novgorod, Ufa, and Kazan.</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rwanda</t>
   </si>
   <si>
-    <t>Rwanda (/ruːˈɑːndə/ or /ruːˈændə/ ( listen); Kinyarwanda: U Rwanda [u.ɾɡwanda] ( listen)), officially the Republic of Rwanda (Kinyarwanda: Repubulika y'u Rwanda; French: République du Rwanda), is a sovereign state in Central and East Africa and one of the smallest countries on the African mainland. Located a few degrees south of the Equator, Rwanda is bordered by Uganda, Tanzania, Burundi and the Democratic Republic of the Congo. Rwanda is in the African Great Lakes region and is highly elevated; its geography is dominated by mountains in the west and savanna to the east, with numerous lakes throughout the country. The climate is temperate to subtropical, with two rainy seasons and two dry seasons each year.</t>
-  </si>
-  <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
@@ -1344,117 +922,75 @@
     <t>https://en.wikipedia.org/wiki/Saint_Lucia</t>
   </si>
   <si>
-    <t>Saint Lucia (/seɪnt ˈluːʃə/ ( listen); French: Sainte-Lucie) is a sovereign island country in the eastern Caribbean Sea on the boundary with the Atlantic Ocean.[6] Part of the Lesser Antilles, it is located north/northeast of the island of Saint Vincent, northwest of Barbados and south of Martinique. It covers a land area of 617 km2 (238.23 sq mi) and reported a population of 165,595 in the 2010 census.[7] Its capital is Castries.</t>
-  </si>
-  <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Saint_Vincent_and_the_Grenadines</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines (/seɪnt ˈvɪnsənt ænd ðə ɡrɛnəˈdiːnz/ ( listen)) is a sovereign state in the Lesser Antilles island arc, in the southern portion of the Windward Islands, which lies at the southern end of the eastern border of the Caribbean Sea where the latter meets the Atlantic Ocean. The country is also known simply as Saint Vincent.</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Samoa</t>
   </si>
   <si>
-    <t>Samoa is a member of the Commonwealth of Nations. Western Samoa was admitted to the United Nations on 15 December 1976.[8] The entire island group, which includes American Samoa, was called "Navigator Islands" by European explorers before the 20th century because of the Samoans' seafaring skills.[9][10]</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/San_Marino</t>
   </si>
   <si>
-    <t xml:space="preserve"> San Marino (/sæn məˈriːnoʊ/ ( listen); Italian: [san maˈriːno]), officially the Republic of San Marino[1][2] (Italian: Repubblica di San Marino), also known as the Most Serene Republic of San Marino[2] (Italian: Serenissima Repubblica di San Marino), is an enclaved microstate surrounded by Italy, situated on the Italian Peninsula on the northeastern side of the Apennine Mountains. Its size is just over 61 km2 (24 sq mi), with a population of 33,562.[6] Its capital is the City of San Marino and its largest city is Serravalle. San Marino has the smallest population of all the members of the Council of Europe.</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe (/ˌsaʊ təˈmeɪ ən ˈprɪnsɪpə, -ˈprɪnsɪpeɪ/ SOW tə-MAY ən PRIN-sip-ə, -PRIN-sip-ay;[8] Portuguese: [sɐ̃w tuˈmɛ i ˈpɾĩsɨpɨ]), officially the Democratic Republic of São Tomé and Príncipe, is a Portuguese-speaking island nation in the Gulf of Guinea, off the western equatorial coast of Central Africa. It consists of two archipelagos around the two main islands: São Tomé and Príncipe, located about 140 kilometres (87 miles) apart and about 250 and 225 kilometres (155 and 140 miles), respectively, off the northwestern coast of Gabon.</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Saudi_Arabia</t>
   </si>
   <si>
-    <t>Saudi Arabia[c] (/ˌsɔːdi əˈreɪbiə/ ( listen), /ˌsaʊ-/ ( listen)), officially the Kingdom of Saudi Arabia (KSA),[d] is a sovereign Arab state in Western Asia constituting the bulk of the Arabian Peninsula. With a land area of approximately 2,150,000 km2 (830,000 sq mi), Saudi Arabia is geographically the fifth-largest state in Asia and second-largest state in the Arab world after Algeria. Saudi Arabia is bordered by Jordan and Iraq to the north, Kuwait to the northeast, Qatar, Bahrain and the United Arab Emirates to the east, Oman to the southeast and Yemen to the south. It is separated from Israel and Egypt by the Gulf of Aqaba. It is the only nation with both a Red Sea coast and a Persian Gulf coast and most of its terrain consists of arid desert and mountains.</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Senegal</t>
   </si>
   <si>
-    <t>Senegal (/ˌsɛnɪˈɡɔːl, -ˈɡɑːl/ ( listen);[7][8] French: Sénégal), officially the Republic of Senegal (French: République du Sénégal [ʁepyblik dy seneɡal]), is a country in West Africa. Senegal is bordered by Mauritania in the north, Mali to the east, Guinea to the southeast, and Guinea-Bissau to the southwest. Senegal also borders The Gambia, a country occupying a narrow sliver of land along the banks of the Gambia River, which separates Senegal's southern region of Casamance from the rest of the country. Senegal also shares a maritime border with Cape Verde. Senegal's economic and political capital is Dakar. It is the westernmost country in the mainland of the Old World, or Afro-Eurasia,[9] and owes its name to the Senegal River, which borders it to the east and north. The name "Senegal" comes from the Wolof "Sunuu Gaal", which means "Our Boat". Senegal covers a land area of almost 197,000 square kilometres (76,000 sq mi) and has an estimated population of about 15 million[2]. The climate is Sahelian, but there is a rainy season.</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Serbia</t>
   </si>
   <si>
-    <t>Serbia (/ˈsɜːrbiə/ ( listen), Serbian: Србија / Srbija, IPA: [sř̩bija]), officially the Republic of Serbia (Serbian: Република Србија / Republika Srbija), is a landlocked country situated at the crossroads of Central[6] and Southeast Europe in the southern Pannonian Plain and the central Balkans.[7] It borders Hungary to the north; Romania and Bulgaria to the east; Macedonia to the south; Croatia, Bosnia, Montenegro to the west and claims a border with Albania through the disputed territory of Kosovo. Serbia numbers around 7 million residents;[8] its capital, Belgrade, ranks among the oldest[9][7] and largest cities in Southeastern Europe.</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seychelles</t>
   </si>
   <si>
-    <t>Seychelles (/seɪˈʃɛlz/ ( listen) say-SHELZ; French: [seʃɛl]), officially the Republic of Seychelles (French: République des Seychelles; Creole: Repiblik Sesel), is an archipelago and country in the Indian Ocean. The 115-island country, whose capital is Victoria, lies 1,500 kilometres (932 mi) east of mainland East Africa. Other nearby island countries and territories include Comoros, Mayotte (region of France), Madagascar, Réunion (region of France) and Mauritius to the south. With a population of roughly 94,228, it has the smallest population of any sovereign African country; however, it does have a larger population than the British overseas territory Saint Helena, Ascension and Tristan da Cunha.[5]</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sierra_Leone</t>
   </si>
   <si>
-    <t>Sierra Leone (/siːˈɛərə liːˈoʊniː, -liːˈoʊn/ ( listen)),[6] officially the Republic of Sierra Leone, is a country in West Africa. It is bordered by Guinea to the north-east, Liberia to the south-east and the Atlantic Ocean to the south-west. Sierra Leone has a tropical climate, with a diverse environment ranging from savannah to rainforests. The country has a total area of 71,740 km2 (27,699 sq mi)[7] and a population of 7,075,641 (based on the 2015 national census).[2] It is a constitutional republic with a directly elected president and a unicameral legislature.</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Singapore</t>
   </si>
   <si>
-    <t>Singapore (/ˈsɪŋəpɔːr/ ( listen), /ˈsɪŋɡə-/), officially the Republic of Singapore, is a sovereign city-state and island country in Southeast Asia. It lies one degree (137 kilometres (85 mi)) north of the equator, at the southern tip of the Malay Peninsula, with Indonesia's Riau Islands to the south and Peninsular Malaysia to the north. Singapore's territory consists of one main island along with 62 other islets. Since independence, extensive land reclamation has increased its total size by 23% (130 square kilometres (50 sq mi)).</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slovakia</t>
   </si>
   <si>
-    <t>Slovakia (/sloʊˈvækiə, slə-, -ˈvɑː-/ ( listen);[6][7] Slovak: Slovensko [ˈsloʋensko] ( listen)), officially the Slovak Republic (Slovak: Slovenská republika,  listen (help·info)),[8] is a landlocked country in Central Europe.[9][10] It is bordered by the Czech Republic and Austria to the west, Poland to the north, Ukraine to the east and Hungary to the south. Slovakia's territory spans about 49,000 square kilometres (19,000 sq mi) and is mostly mountainous. The population is over 5 million and comprises mostly ethnic Slovaks. The capital and largest city is Bratislava. The official language is Slovak.</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slovenia</t>
   </si>
   <si>
-    <t>Slovenia (/sloʊˈviːniə, slə-, -njə/ ( listen)[12][13] sloh-VEE-nee-ə; Slovene: Slovenija [slɔˈʋèːnija]),[14] officially the Republic of Slovenia (Slovene:  Republika Slovenija (help·info),[15] abbr.: RS[16]), is a nation state located in the southern Central Europe.[17][Note 2] The country is located at the crossroads of main European cultural and trade routes.[22][23] It is bordered by Italy to the west, Austria to the north, Hungary to the northeast, Croatia to the south and southeast, and the Adriatic Sea to the southwest.[24] It covers 20,273 square kilometers (7,827 sq mi) and has a population of 2.06 million.[25] It is a parliamentary republic[26] and a member of the United Nations, European Union, and NATO.[27] The capital and largest city is Ljubljana.[28]</t>
-  </si>
-  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
@@ -1470,431 +1006,900 @@
     <t>https://en.wikipedia.org/wiki/Somalia</t>
   </si>
   <si>
-    <t>Somalia (/səˈmɑːliə, soʊ-, -ljə/[7][8][9] so-MAH-lee-ə; Somali: Soomaaliya; Arabic: الصومال‎ aṣ-Ṣūmāl), officially the Federal Republic of Somalia[1] (Somali: Jamhuuriyadda Federaalka Soomaaliya, Arabic: جمهورية الصومال الفيدرالية‎ Jumhūrīyat aṣ-Ṣūmāl al-Fidirālīyah), is a country located in the Horn of Africa. It is bordered by Ethiopia to the west, Djibouti to the northwest, the Gulf of Aden to the north, the Indian Ocean to the east, and Kenya to the southwest. Somalia has the longest coastline on Africa's mainland,[10] and its terrain consists mainly of plateaus, plains and highlands.[3] Climatically, hot conditions prevail year-round, with periodic monsoon winds and irregular rainfall.[11]</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_Africa</t>
   </si>
   <si>
-    <t>South Africa, officially the Republic of South Africa (RSA), is the southernmost country in Africa. It is bounded on the south by 2,798 kilometres (1,739 mi) of coastline of Southern Africa stretching along the South Atlantic and Indian Oceans;[9][10][11] on the north by the neighbouring countries of Namibia, Botswana, and Zimbabwe; and on the east and northeast by Mozambique and Swaziland; and surrounds the kingdom of Lesotho.[12] South Africa is the largest country in Southern Africa[13] and the 25th-largest country in the world by land area and, with close to 56 million people, is the world's 24th-most populous nation. It is the southernmost country on the mainland of the Old World or the Eastern Hemisphere. About 80 percent of South Africans are of Sub-Saharan African ancestry,[5] divided among a variety of ethnic groups speaking different African languages, nine of which have official status.[11] The remaining population consists of Africa's largest communities of European (white), Asian (Indian), and multiracial (coloured) ancestry.</t>
-  </si>
-  <si>
     <t>South Sudan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_Sudan</t>
   </si>
   <si>
-    <t>South Sudan (/ˌsaʊθ suːˈdɑːn, -ˈdæn/ ( listen)),[12][13] officially the Republic of South Sudan,[14] is a landlocked country in East-Central Africa[15][16] that gained its independence from the Republic of the Sudan in 2011. Its current capital, Juba is also the largest city. Before the outbreak of a civil war in 2013, it was planned that the capital city would be moved to the more centrally located Ramciel in the future.[17]</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spain</t>
   </si>
   <si>
-    <t>Spain (Spanish: España [esˈpaɲa] ( listen)), officially the Kingdom of Spain (Spanish: Reino de España),[a][b] is a sovereign state located on the Iberian Peninsula in southwestern Europe, with two large archipelagoes, the Balearic Islands in the Mediterranean Sea and the Canary Islands off the North African Atlantic coast, two cities, Ceuta and Melilla, in the North African mainland and several small islands in the Alboran Sea near the Moroccan coast. The country's mainland is bordered to the south and east by the Mediterranean Sea except for a small land boundary with Gibraltar; to the north and northeast by France, Andorra, and the Bay of Biscay; and to the west and northwest by Portugal and the Atlantic Ocean. It is the only European country to have a border with an African country (Morocco)[h] and its African territory accounts for nearly 5% of its population, mostly in the Canary Islands but also in Ceuta and Melilla.</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sri_Lanka</t>
   </si>
   <si>
-    <t>Sri Lanka (/sriː ˈlɑːŋkə, -ˈlæŋkə/ or /ʃriː-/ ( listen);[9][10] Sinhala: ශ්‍රී ලංකා Śrī Laṃkā, Tamil: இலங்கை Ilaṅkai), officially the Democratic Socialist Republic of Sri Lanka, is an island country in South Asia, located southeast of India and northeast of the Maldives.</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sudan</t>
   </si>
   <si>
-    <t>The Sudan or Sudan (US: /suˈdæn/ ( listen), UK: /suˈdɑːn, -ˈdæn/;[8][9] Arabic: السودان‎ as-Sūdān) also known as North Sudan since South Sudan's independence and officially the Republic of the Sudan[10] (Arabic: جمهورية السودان‎ Jumhūriyyat as-Sūdān), is a country in Northern Africa. It is bordered by Egypt to the north, the Red Sea, Eritrea and Ethiopia to the east, South Sudan to the south, the Central African Republic to the southwest, Chad to the west and Libya to the northwest. It is the third largest country in Africa. The River Nile divides the country into eastern and western halves. Before the Sudanese Civil War, South Sudan was part of Sudan, but it became independent in 2011.[11] Its predominant religion is Islam.[12]</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Suriname</t>
   </si>
   <si>
-    <t>Suriname (/ˈsʊrɪnæm/, /-nɑːm/ or /-nəm/, also spelled Surinam), officially known as the Republic of Suriname (Dutch: Republiek Suriname [ˌreːpyˈblik ˌsyːriˈnaːmə]), is a sovereign state on the northeastern Atlantic coast of South America. It is bordered by French Guiana to the east, Guyana to the west and Brazil to the south. At just under 165,000 square kilometers (64,000 square miles), it is the smallest country in South America.[note 1] Suriname has a population of approximately 558,368,[8] most of whom live on the country's north coast, in and around the capital and largest city, Paramaribo.</t>
-  </si>
-  <si>
     <t>Swaziland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Swaziland</t>
   </si>
   <si>
-    <t>Swaziland is a developing country with a small economy. With a GDP per capita of $9,714, it is classified as a country with a lower-middle income.[2] As a member of the Southern African Customs Union (SACU) and Common Market for Eastern and Southern Africa (COMESA), its main local trading partner is South Africa; in order to ensure economic stability, Swaziland's currency, the lilangeni, is pegged to the South African rand. Swaziland's major overseas trading partners are the United States[11] and the European Union.[12] The majority of the country's employment is provided by its agricultural and manufacturing sectors. Swaziland is a member of the Southern African Development Community (SADC), the African Union, the Commonwealth of Nations and the United Nations.</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sweden</t>
   </si>
   <si>
-    <t>Sweden (/ˈswiːdən/ ( listen) SWEE-dən; Swedish: Sverige [ˈsværjɛ]  listen (help·info)), officially the Kingdom of Sweden (Swedish:  Konungariket Sverige (help·info)), is a Scandinavian country in Northern Europe. It borders Norway to the west and north and Finland to the east, and is connected to Denmark in the southwest by a bridge-tunnel across the Öresund. At 450,295 square kilometres (173,860 sq mi), Sweden is the third-largest country in the European Union by area. Sweden has a total population of 10 million[3] of which 2.3 million has a foreign background.[12] It has a low population density of 22 inhabitants per square kilometre (57/sq mi); the highest concentration is in the southern half of the country. Approximately 85% of the population lives in urban areas.[13]</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Switzerland</t>
   </si>
   <si>
-    <t>Switzerland (/ˈswɪtsərlənd/), officially the Swiss Confederation, is a federal republic in Europe. It consists of 26 cantons, and the city of Bern is the seat of the federal authorities.[1][2][note 1] The country is situated in Western-Central Europe,[note 4] and is bordered by Italy to the south, France to the west, Germany to the north, and Austria and Liechtenstein to the east. Switzerland is a landlocked country geographically divided between the Alps, the Swiss Plateau and the Jura, spanning an area of 41,285 km2 (15,940 sq mi). While the Alps occupy the greater part of the territory, the Swiss population of approximately eight million people is concentrated mostly on the plateau, where the largest cities are to be found: among them are the two global cities and economic centres Zürich and Geneva.</t>
-  </si>
-  <si>
     <t>Syria</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Syria</t>
   </si>
   <si>
-    <t>Syria (Arabic: سوريا‎ Sūriyā), officially known as the Syrian Arab Republic (Arabic: الجمهورية العربية السورية‎ al-Jumhūrīyah al-ʻArabīyah as-Sūrīyah), is a country in Western Asia, bordering Lebanon and the Mediterranean Sea to the west, Turkey to the north, Iraq to the east, Jordan to the south, and Israel to the southwest. The western two-thirds of Syria′s Golan Heights are since 1967 occupied by Israel and were in 1981 effectively annexed by Israel,[8][9] whereas the eastern third is controlled by Syria, with the UNDOF maintaining a buffer zone in between, to implement the ceasefire of the Purple Line. Syria's capital and largest city is Damascus.</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tajikistan</t>
   </si>
   <si>
-    <t>Tajikistan (/tɑːˈdʒiːkɪstɑːn/ ( listen), /təˈdʒiːkɪstæn/, or /tæˈdʒiːkiːstæn/; Tajik: Тоҷикистон [tɔːd͡ʒikɪsˈtɔːn]), officially the Republic of Tajikistan (Tajik: Ҷумҳурии Тоҷикистон), is a mountainous, landlocked sovereign state in Central Asia with an estimated population of 8.7 million people as of 2016, and an area of 143,100 km2 (55,300 sq mi). It is bordered by Afghanistan to the south, Uzbekistan to the west, Kyrgyzstan to the north, and China to the east. Traditional homelands of Tajik people included present-day Tajikistan, Afghanistan and Uzbekistan.</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tanzania</t>
   </si>
   <si>
-    <t>Tanzania (/ˌtænzəˈniːə/),[12] officially the United Republic of Tanzania (Swahili: Jamhuri ya Muungano wa Tanzania), is a sovereign state in eastern Africa within the African Great Lakes region. It borders Kenya and Uganda to the north; Rwanda, Burundi, and the Democratic Republic of the Congo to the west; Zambia, Malawi, and Mozambique to the south; and the Indian Ocean to the east. Mount Kilimanjaro, Africa's highest mountain, is in north-eastern Tanzania.</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thailand</t>
   </si>
   <si>
-    <t>Thailand (/ˈtaɪlænd/ TY-land), officially the Kingdom of Thailand and formerly known as Siam, is a country at the centre of the Indochinese peninsula in Southeast Asia. With a total area of approximately 513,000 km2 (198,000 sq mi), Thailand is the world's 50th-largest country. It is the 20th-most-populous country in the world, with around 69 million people.</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Togo</t>
   </si>
   <si>
-    <t>Togo (/ˈtoʊɡoʊ/ ( listen)), officially the Togolese Republic (French: République Togolaise), is a country in West Africa bordered by Ghana to the west, Benin to the east and Burkina Faso to the north. It extends south to the Gulf of Guinea, where its capital Lomé is located. Togo covers 57,000 square kilometres (22,008 square miles), making it one of the smallest countries in Africa, with a population of approximately 7.6 million.[6]</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tonga</t>
   </si>
   <si>
-    <t>Tonga (/ˈtɒŋə/ or /ˈtɒŋɡə/; Tongan: [ˈtoŋa][7] Puleʻanga Fakatuʻi ʻo Tonga), officially the Kingdom of Tonga, is a Polynesian sovereign state and archipelago comprising 169 islands, of which 36 are inhabited.[1] The total surface area is about 750 square kilometres (290 sq mi) scattered over 700,000 square kilometres (270,000 sq mi) of the southern Pacific Ocean. It has a population of 107,122 people,[8] of whom 70% reside on the main island of Tongatapu.</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Trinidad_and_Tobago</t>
   </si>
   <si>
-    <t>Trinidad and Tobago (/ˈtrɪnɪˌdæd ən təˈbeɪɡoʊ/ ( listen); /-toʊˈ-/[10]), officially the Republic of Trinidad and Tobago, is a twin island country that is the southernmost nation in the Caribbean. It is situated 130 kilometres (81 miles) south of Grenada off the northern edge of the South American mainland, 11 kilometres (6.8 miles) off the coast of northeastern Venezuela. It shares maritime boundaries with Barbados to the northeast, Grenada to the northwest, Guyana to the southeast, and Venezuela to the south and west.[11][12]</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tunisia</t>
   </si>
   <si>
-    <t>Tunisia (English: /tuˈniʒə/; Arabic: تونس‎  Tūnis; Berber: ⵜⵓⵏⴻⵙ Tunes; French: Tunisie), officially the Republic of Tunisia[15] (Arabic: الجمهورية التونسية‎  al-Jumhūrīya at-Tūnisīya) is a country in North Africa, covering 165,000 square kilometres (64,000 square miles). Its northernmost point, Cape Angela, is the northernmost point on the African continent. It is bordered by Algeria to the west and southwest, Libya to the southeast, and the Mediterranean Sea to the north and east. Tunisia's population was estimated to be just under 11.93 million in 2016.[10] Tunisia's name is derived from its capital city, Tunis, which is located on its northeast coast.</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Turkey</t>
   </si>
   <si>
-    <t>Turkey (/ˈtɜːrki/ ( listen); Turkish: Türkiye [ˈtyɾcije]), officially the Republic of Turkey (Turkish:  Türkiye Cumhuriyeti (help·info); pronounced [ˈtyɾcije d͡ʒumˈhuɾijeti]), is a transcontinental country in Eurasia, mainly in Anatolia in Western Asia, with a smaller portion on the Balkan peninsula in Southeast Europe.[7] Turkey is bordered by eight countries with Greece and Bulgaria to the northwest; Georgia to the northeast; Armenia, the Azerbaijani exclave of Nakhchivan and Iran to the east; and Iraq and Syria to the south. The country is encircled by seas on three sides with the Aegean Sea to the west, the Black Sea to the north, and the Mediterranean Sea to the south. The Bosphorus, the Sea of Marmara, and the Dardanelles, which together form the Turkish Straits, divide Thrace and Anatolia and separate Europe and Asia.[8] Ankara is the capital while Istanbul is the country's largest city and main cultural and commercial centre. Approximately 70-80% of the country's citizens identify themselves as ethnic Turks.[9][10] Kurds are the largest minority at about 20% of the population, and other ethnic minorities include Circassians, Albanians, Arabs, Bosniaks and Laz.[10][11][12][13][14] Minority languages spoken today in Turkey include Kurmanji, Arabic, Zaza, Kabardian and several others.[1]</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Turkmenistan</t>
   </si>
   <si>
-    <t>Turkmenistan (/tɜːrkˈmɛnɪstæn/ ( listen) or /tɜːrkmɛnɪˈstɑːn/ ( listen); Turkmen: Türkmenistan, pronounced [tyɾkmeniˈθtɑn]), formerly known as Turkmenia,[7] is a country in Central Asia, bordered by Kazakhstan to the northwest, Uzbekistan to the north and east, Afghanistan to the southeast, Iran to the south and southwest, and the Caspian Sea to the west.</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tuvalu</t>
   </si>
   <si>
-    <t>Tuvalu (/tuˈvɑːluː/ ( listen) too-VAH-loo or /ˈtuːvəˌluː/ TOO-və-loo), formerly known as the Ellice Islands, is a Polynesian island nation located in the Pacific Ocean, about midway between Hawaii and Australia, lying east-northeast of the Santa Cruz Islands (belonging to the Solomons), southeast of Nauru, south of Kiribati, west of Tokelau, northwest of Samoa and Wallis and Futuna and north of Fiji. It comprises three reef islands and six true atolls spread out between the latitude of 5° to 10° south and longitude of 176° to 180°, west of the International Date Line. Tuvalu has a population of 10,640 (2012 census).[1][2] Situated in Oceania, the total land area of the islands of Tuvalu is 26 square kilometres (10 sq mi).</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Uganda</t>
   </si>
   <si>
-    <t>Uganda (/juːˈɡændə/ yew-GAN-də or /juːˈɡɑːndə/ yew-GAHN-də), officially the Republic of Uganda,[1] is a landlocked country in East Africa. It is bordered to the east by Kenya, to the north by South Sudan, to the west by the Democratic Republic of the Congo, to the south-west by Rwanda, and to the south by Tanzania. The southern part of the country includes a substantial portion of Lake Victoria, shared with Kenya and Tanzania. Uganda is in the African Great Lakes region. Uganda also lies within the Nile basin, and has a varied but generally a modified equatorial climate.</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ukraine</t>
   </si>
   <si>
-    <t>Ukraine (/juːˈkreɪn/ ( listen) yoo-KRAYN; Ukrainian: Україна, translit. Ukrajina [ukrɑˈjinɑ]), sometimes called the Ukraine,[9] is a sovereign state in Eastern Europe,[10] bordered by Russia to the east and northeast; Belarus to the northwest; Poland, Hungary, and Slovakia to the west; Romania and Moldova to the southwest; and the Black Sea and Sea of Azov to the south and southeast, respectively. Ukraine is currently in territorial dispute with Russia over the Crimean Peninsula, which Russia annexed in 2014[11] but which Ukraine and most of the international community recognise as Ukrainian. Including Crimea, Ukraine has an area of 603,628 km2 (233,062 sq mi),[12] making it the largest country entirely within Europe and the 46th largest country in the world. Excluding Crimea, Ukraine has a population of about 42.5 million, making it the 32nd most populous country in the world.[4]</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Arab_Emirates</t>
   </si>
   <si>
-    <t>The United Arab Emirates (/juːˈnaɪtɪd ˈærəb ˈɛmɪrɪts/ ( listen); UAE; Arabic: دولة الإمارات العربية المتحدة‎ Dawlat al-Imārāt al-'Arabīyah al-Muttaḥidah), sometimes simply called the Emirates (Arabic: الإمارات‎ al-Imārāt), is a federal absolute monarchy in Western Asia at the southeast end of the Arabian Peninsula on the Persian Gulf, bordering Oman to the east and Saudi Arabia to the south, as well as sharing maritime borders with Qatar to the west and Iran to the north. In 2013, the UAE's population was 9.2 million, of which 1.4 million are Emirati citizens and 7.8 million are expatriates.[7][8][9]</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Kingdom</t>
   </si>
   <si>
-    <t>The United Kingdom of Great Britain and Northern Ireland, commonly known as the United Kingdom (UK) and colloquially Great Britain (GB) or simply Britain, is a sovereign country in western Europe. Lying off the north-western coast of the European mainland, the United Kingdom includes the island of Great Britain, the north-eastern part of the island of Ireland and many smaller islands.[11] Northern Ireland is the only part of the United Kingdom that shares a land border with another sovereign state‍—‌the Republic of Ireland.[note 9] Apart from this land border, the United Kingdom is surrounded by the Atlantic Ocean, with the North Sea to its east, the English Channel to its south and the Celtic Sea to its south-south-west, giving it the 12th-longest coastline in the world. The Irish Sea lies between Great Britain and Ireland. With an area of 242,500 square kilometres (93,600 sq mi), the United Kingdom is the 78th-largest sovereign state in the world and the 11th-largest in Europe. It is also the 21st-most populous country, with an estimated 65.1 million inhabitants.[12] Together, this makes it the fourth-most densely populated country in the European Union (EU).[note 10][13]</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States</t>
   </si>
   <si>
-    <t>The United States of America (USA), commonly known as the United States (U.S.) or America, is a federal republic[15][16] composed of 50 states, a federal district, five major self-governing territories, and various possessions.[fn 6] At 3.8 million square miles (9.8 million km2)[18] and with over 325 million people, the United States is the world's third- or fourth-largest country by total area[fn 7] and the third-most populous. The capital is Washington, D.C., and the largest city by population is New York City. Forty-eight states and the capital's federal district are contiguous and located in North America between Canada and Mexico. The state of Alaska is in the northwest corner of North America, bordered by Canada to the east and across the Bering Strait from Russia to the west. The state of Hawaii is an archipelago in the mid-Pacific Ocean. The U.S. territories are scattered about the Pacific Ocean and the Caribbean Sea, stretching across nine official time zones. The extremely diverse geography, climate, and wildlife of the United States make it one of the world's 17 megadiverse countries.[23]</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Uruguay</t>
   </si>
   <si>
-    <t>Uruguay (/ˈjʊərəɡwaɪ/ ( listen);[7] Spanish pronunciation: [uɾuˈɣwai̯]), officially the Oriental Republic of Uruguay (Spanish: República Oriental del Uruguay), is a sovereign state in the southeastern region of South America. It borders Argentina to its west and Brazil to its north and east, with the Río de la Plata (River of Silver) to the south and the Atlantic Ocean to the southeast. Uruguay is home to an estimated 3.44 million people,[2] of whom 1.8 million live in the metropolitan area of its capital and largest city, Montevideo. With an area of approximately 176,000 square kilometres (68,000 sq mi), Uruguay is geographically the second-smallest nation in South America,[8] after Suriname.</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Uzbekistan</t>
   </si>
   <si>
-    <t>Uzbekistan (US: /ʊzˈbɛkɪˌstæn, -ˌstɑːn/ ( listen), UK: /ʊzˌbɛkɪˈstɑːn, ʌz-, -ˈstæn/), officially also the Republic of Uzbekistan (Uzbek: Oʻzbekiston Respublikasi), is a doubly landlocked Central Asian state. It is a secular, unitary constitutional republic, comprising 12 provinces, one autonomous republic, and a capital city. Uzbekistan is bordered by five landlocked countries: Kazakhstan to the north; Kyrgyzstan to the northeast; Tajikistan to the southeast; Afghanistan to the south; and Turkmenistan to the southwest.</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vanuatu</t>
   </si>
   <si>
-    <t>Vanuatu (English: /ˌvɑːnuˈɑːtuː/ ( listen) VAH-noo-AH-too or /vænˈwɑːtuː/ van-WAH-too; Bislama, French IPA: [vanuatu]), officially the Republic of Vanuatu (French: République de Vanuatu, Bislama: Ripablik blong Vanuatu), is a Pacific island nation located in the South Pacific Ocean. The archipelago, which is of volcanic origin, is some 1,750 kilometres (1,090 mi) east of northern Australia, 540 kilometres (340 mi) northeast of New Caledonia, east of New Guinea, southeast of the Solomon Islands, and west of Fiji.</t>
-  </si>
-  <si>
     <t>Vatican City</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vatican_City</t>
   </si>
   <si>
-    <t>Vatican City (/ˈvætɪkən ˈsɪti/ ( listen); Italian: Città del Vaticano [tʃitˈta ddel vatiˈkaːno]; Latin: Civitas Vaticana),[d] officially Vatican City State or the State of Vatican City (Italian: Stato della Città del Vaticano;[e] Latin: Status Civitatis Vaticanae),[f] is a country located within the city of Rome. With an area of approximately 44 hectares (110 acres), and a population of 1,000,[3] it is the smallest state in the world by both area and population. However, formally it is not sovereign, with sovereignty being held by the Holy See.</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Venezuela</t>
   </si>
   <si>
-    <t>Venezuela (/ˌvɛnəˈzweɪlə/ ( listen) VEN-ə-ZWAYL-ə; American Spanish: [beneˈswela]), officially the Bolivarian Republic of Venezuela (Spanish: República Bolivariana de Venezuela), is a federal republic located on the northern coast of South America. It is bordered by Colombia on the west, Brazil on the south, Guyana on the east, the Dutch Caribbean ABC islands to the north and the islands of Trinidad and Tobago to the north-east. Venezuela covers 916,445 km2 (353,841 sq mi) and has over 31 million (31,568,179) people.[3] The country has extremely high biodiversity and is ranked 7th in the world's list of nations with the most number of species.[7] There are habitats ranging from the Andes Mountains in the west to the Amazon Basin rain-forest in the south via extensive llanos plains. Additionally, there is the Caribbean coast in the center and the Orinoco River Delta in the east.</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vietnam</t>
   </si>
   <si>
-    <t>Vietnam (UK: /ˌvjɛtˈnæm, -ˈnɑːm/, US: /ˌviːətˈnɑːm, -ˈnæm/ ( listen);[10] Vietnamese: Việt Nam [vîət nāːm] ( listen)), officially the Socialist Republic of Vietnam (Vietnamese: Cộng hòa xã hội chủ nghĩa Việt Nam ( listen)), is the easternmost country on the Indochina Peninsula in Southeast Asia. With an estimated 94.6 million inhabitants as of 2016[update], it is the world's 14th-most-populous country, and the ninth-most-populous Asian country. Vietnam is bordered by China to the north, Laos to the northwest, Cambodia to the southwest, Thailand across the Gulf of Thailand to the southwest, and the Philippines, Malaysia and Indonesia across the South China Sea to the east and southeast.[d] Its capital city has been Hanoi since the reunification of North and South Vietnam in 1976, with Ho Chi Minh City as the most populous city.</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yemen</t>
   </si>
   <si>
-    <t>Yemen (/ˈjɛmən/ ( listen); Arabic: اليَمَن‎ al-Yaman), officially known as the Republic of Yemen (الجمهورية اليمنية al-Jumhūrīyah al-Yamanīyah), is an Arab country in Western Asia at the southern end of the Arabian Peninsula. Yemen is the second-largest country in the peninsula, occupying 527,970 km2 (203,850 sq mi). The coastline stretches for about 2,000 km (1,200 mi).[7] It is bordered by Saudi Arabia to the north, the Red Sea to the west, the Gulf of Aden and Arabian Sea to the south, and Oman to the east-northeast. Although Yemen's constitutionally stated capital is the city of Sana'a, the city has been under Houthi rebel control since February 2015. Because of this, Yemen's capital has been temporarily relocated to the port city of Aden, on the southern coast. Yemen's territory includes more than 200 islands; the largest of these is Socotra.</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zambia</t>
   </si>
   <si>
-    <t>Zambia (/ˈzæmbiə/), officially the Republic of Zambia, is a landlocked country in Southern Africa,[8] neighbouring the Democratic Republic of the Congo to the north, Tanzania to the north-east, Malawi to the east, Mozambique, Zimbabwe, Botswana and Namibia to the south, and Angola to the west. The capital city is Lusaka, in the south-central part of Zambia. The population is concentrated mainly around Lusaka in the south and the Copperbelt Province to the northwest, the core economic hubs of the country.</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zimbabwe</t>
   </si>
   <si>
-    <t>Zimbabwe (/zɪmˈbɑːbweɪ/), officially the Republic of Zimbabwe, is a landlocked country located in southern Africa, between the Zambezi and Limpopo Rivers, bordered by South Africa, Botswana, Zambia and Mozambique. The capital and largest city is Harare. A country of roughly 16 million[5] people, Zimbabwe has 16 official languages,[3] with English, Shona, and Ndebele the most commonly used.</t>
-  </si>
-  <si>
-    <t>UN member states</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Member_states_of_the_United_Nations</t>
-  </si>
-  <si>
-    <t>The UN officially came into existence on 24 October 1945, after ratification of the United Nations Charter by the five permanent members of the United Nations Security Council (the Republic of China, France, the Soviet Union, the United Kingdom, and the United States) and a majority of the other signatories.[7] A total of 51 original members (or founding members) joined that year; 50 of them signed the Charter at the United Nations Conference on International Organization in San Francisco on 26 June 1945, while Poland, which was not represented at the conference, signed it on 15 October 1945.[8][9]</t>
-  </si>
-  <si>
-    <t>Abkhazia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Abkhazia</t>
-  </si>
-  <si>
-    <t>Abkhazia (Abkhaz: Аҧсны́ Apsny [apʰsˈnɨ]; Georgian: აფხაზეთი Apkhazeti [ɑpʰxɑzɛtʰi]; Russian: Абха́зия, tr. Abkhа́ziya, IPA: [ɐpˈxazʲɪjə]) is a partially recognised state on the eastern coast of the Black Sea and the south-western flank of the Caucasus Mountains, south of Russia and northwest of Georgia proper. It covers 8,660 square kilometres (3,340 sq mi) and has a population of around 240,000. Its capital is Sukhumi. The separatist Abkhazian polity, formally the Republic of Abkhazia or Apsny,[6][7][8][9][10] is recognised only by Russia and a small number of other countries. While Georgia lacks control over Abkhazia, the Georgian government, the United Nations and the majority of the world's governments consider Abkhazia part of Georgia, whose constitution designates the area as the Autonomous Republic of Abkhazia.</t>
-  </si>
-  <si>
-    <t>Artsakh</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Republic_of_Artsakh</t>
-  </si>
-  <si>
-    <t>The Artsakh Republic is a presidential democracy (in the middle of transforming from a semi-presidential one, after the 2017 referendum) with a unicameral legislature. Its reliance on Armenia means that in many ways it functions de facto as part of Armenia. The country is very mountainous, averaging 1,097 metres (3,599 ft) above sea level. The population is predominantly Christian, most being affiliated with the Armenian Apostolic Church. Several historical monasteries are popular with tourists, mostly from the Armenian diaspora, as most travel can take place only between Armenia and Artsakh.</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cook_Islands</t>
-  </si>
-  <si>
-    <t>The Cook Islands (/ˈkʊk ˈaɪləndz/ ( listen); Cook Islands Māori: Kūki 'Āirani)[6] is a self-governing island country in the South Pacific Ocean in free association with New Zealand. It comprises 15 islands whose total land area is 240 square kilometres (92.7 sq mi). The Cook Islands' Exclusive Economic Zone (EEZ) covers 1,800,000 square kilometres (690,000 sq mi) of ocean.[7]</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kosovo</t>
-  </si>
-  <si>
-    <t>Kosovo (/ˈkɒsəvoʊ, ˈkoʊ-/;[8] Albanian: Kosova, [kɔsɔva][lacks stress] or Kosovë; Serbian Cyrillic: Косово) is a disputed territory[9][10] and partially recognised state[11][12] in Southeastern Europe that declared independence from Serbia in February 2008 as the Republic of Kosovo (Albanian: Republika e Kosovës; error: {{lang-xx}}: text has italic markup (help)).</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Niue</t>
-  </si>
-  <si>
-    <t>Niue (/ˈnjuːeɪ/ NEW-ay; Niuean: Niuē) is an island country in the South Pacific Ocean, 2,400 kilometres (1,500 mi) northeast of New Zealand, east of Tonga, south of Samoa, and west of the Cook Islands. Niue's land area is about 261 square kilometres (101 sq mi)[7] and its population, predominantly Polynesian, was about 1,600 in 2016.[4] The island is commonly referred to as "The Rock", which comes from the traditional name "Rock of Polynesia".[8]</t>
-  </si>
-  <si>
-    <t>Northern Cyprus</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Northern_Cyprus</t>
-  </si>
-  <si>
-    <t>Northern Cyprus (Turkish: Kuzey Kıbrıs, Greek: Βόρεια Κύπρος), officially the Turkish Republic of Northern Cyprus (TRNC; Turkish: Kuzey Kıbrıs Türk Cumhuriyeti), is a self-declared state that comprises the northeastern portion of the island of Cyprus. Recognised only by Turkey, Northern Cyprus is considered by the international community to be part of the Republic of Cyprus.</t>
-  </si>
-  <si>
-    <t>Sahrawi Arab Democratic Republic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sahrawi_Arab_Democratic_Republic</t>
-  </si>
-  <si>
-    <t>The Sahrawi Republic, officially the Sahrawi Arab Democratic Republic (SADR; Spanish: República Árabe Saharaui Democrática; Arabic: الجمهورية العربية الصحراوية الديمقراطية‎ al-Jumhūrīyah al-‘Arabīyah aṣ-Ṣaḥrāwīyah ad-Dīmuqrāṭīyah), is a partially recognized state that controls a thin strip of area in the Western Sahara region and claims sovereignty over the entire territory of Western Sahara, a former Spanish colony. SADR was proclaimed by the Polisario Front on February 27, 1976, in Bir Lehlou, Western Sahara, a former communist liberation force (modeled after that of Cuba) which has since reformed its ideological and political views.[not verified in body]</t>
-  </si>
-  <si>
-    <t>Somaliland</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Somaliland</t>
-  </si>
-  <si>
-    <t>Somaliland (Somali: Somaliland; Arabic: صوماليلاند‎ Ṣūmālīlānd, أرض الصومال Arḍ aṣ-Ṣūmāl), officially the Republic of Somaliland (Somali: Jamhuuriyadda Somaliland, Arabic: جمهورية صوماليلاند‎ Jumhūrīyat Ṣūmālīlānd), is a self-declared state internationally recognised as an autonomous region of Somalia.[7][12]</t>
-  </si>
-  <si>
-    <t>South Ossetia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/South_Ossetia</t>
-  </si>
-  <si>
-    <t>South Ossetia (/ɒˈsɛtiə/[5]) (oficially Republic of South Ossetia or the State of Alania) or Tskhinvali Region, is a partially recognised state in the South Caucasus, located in the territory of the South Ossetian Autonomous Oblast within the former Georgian SSR.[6] It has a population of 53,000 people who live in an area of 3,900 km2, south of the Russian Caucasus, with 30,000 living in its capital city of Tskhinvali.</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taiwan</t>
-  </si>
-  <si>
-    <t>Taiwan (/ˌtaɪˈwɑːn/ ( listen)), officially the Republic of China (ROC), is a state in East Asia. Its neighbors include the People's Republic of China (PRC) to the west, Japan to the northeast, and the Philippines to the south. Taiwan is the most populous state and largest economy that is not a member of the United Nations.</t>
-  </si>
-  <si>
-    <t>Transnistria</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Transnistria</t>
-  </si>
-  <si>
-    <t>Transnistria (Romanian: [transˈnistria]), officially the Pridnestrovian Moldavian Republic (PMR; Russian: Приднестровская Молдавская Республика, ПМР; Romanian: Republica Moldovenească Nistreană, RMN; Република Молдовеняскэ Нистрянэ; Ukrainian: Придністровська Молдавська Республіка), and also called Transdniester, Trans-Dniestr, Transdniestria, or Pridnestrovie, is a landlocked self-proclaimed state situated in geographical region Transnistria between Ukraine and the River Dniester, recognised only by three other non-United Nations (UN) states: Abkhazia, Republic of Artsakh and South Ossetia.[6] The region is considered by the UN to be part of Moldova. The PMR controls a narrow strip of territory to the east of the River Dniester, and also the city of Bender and its surrounding localities on the west bank, in the historical region of Bessarabia.</t>
-  </si>
-  <si>
     <t>Afghanistan, officially the Islamic Republic of Afghanistan, is a landlocked country located within South Asia and Central Asia. The country has a population of 35 million, making it the 42nd most populous country in the world. Afghanistan is bordered by Pakistan in the south and east; Iran in the west; Turkmenistan, Uzbekistan, and Tajikistan in the north; and China in the far northeast - it also borders Gilgit-Baltistan in this region which is claimed by India. Its territory covers 652,000 square kilometers, making it the 41st largest country in the world.</t>
+  </si>
+  <si>
+    <t>Albania, officially the Republic of Albania, is a country in Southern and Southeastern Europe. It spans 28,748 square kilometres and had a total population of 3 million people as of 2016. Albania is a unitary parliamentary constitutional republic with the capital in Tirana, the country's most populous city and main economic and commercial centre, followed by Durres. The country's other major cities include Vlore, Sarande, Shkoder, Berat, Korce, Gjirokaster and Fier.</t>
+  </si>
+  <si>
+    <t>Algeria, officially the People's Democratic Republic of Algeria, is a sovereign state in North Africa on the Mediterranean coast. Its capital and most populous city is Algiers, located in the country's far north. With an area of 2,381,741 square kilometres, Algeria is the tenth-largest country in the world, and the largest in Africa. Algeria is bordered to the northeast by Tunisia, to the east by Libya, to the west by Morocco, to the southwest by the Western Saharan territory, Mauritania, and Mali, to the southeast by Niger, and to the north by the Mediterranean Sea. The country is a semi-presidential republic consisting of 48 provinces and 1,541 communes (counties). Abdelaziz Bouteflika has been President since 1999.</t>
+  </si>
+  <si>
+    <t>Andorra, officially the Principality of Andorra, also called the Principality of the Valleys of Andorra, is a sovereign landlocked microstate in Southwestern Europe, located in the eastern Pyrenees mountains and bordered by France in the north, and Spain in the south. Created under a charter in 988, the present principality was formed in 1278. It is known as a principality as it is a diarchy headed by two Co-Princes – the Catholic Bishop of Urgell in Spain and the President of France.</t>
+  </si>
+  <si>
+    <t>Angola, officially the Republic of Angola, is a country in Southern Africa. It is the seventh-largest country in Africa, bordered by Namibia to the south, the Democratic Republic of the Congo to the north, Zambia to the east, and the Atlantic Ocean to the west. The exclave province of Cabinda borders the Republic of the Congo and the Democratic Republic of the Congo. The capital and largest city of Angola is Luanda.</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda is a sovereign state in the Americas, lying between the Caribbean Sea and the Atlantic Ocean. It consists of two major islands, Antigua and Barbuda, and a number of smaller islands (including Great Bird, Green, Guiana, Long, Maiden and York Islands and further south, the island of Redonda). The permanent population numbers about 81,800 (at the 2011 Census) and the capital and largest port and city is St. John's, on Antigua.</t>
+  </si>
+  <si>
+    <t>Argentina, officially the Argentine Republic, is a federal republic in the southern portion of South America. Sharing the bulk of the Southern Cone with its neighbor Chile to the west, the country is also bordered by Bolivia and Paraguay to the north, Brazil to the northeast, Uruguay and the South Atlantic Ocean to the east, and the Drake Passage to the south. With a mainland area of 2,780,400 km2, Argentina is the eighth-largest country in the world, the second largest in Latin America, and the largest Spanish-speaking nation. It is subdivided into twenty-three provinces and one autonomous city, Buenos Aires, which is the federal capital of the nation as decided by Congress. The provinces and the capital have their own constitutions, but exist under a federal system. Argentina claims sovereignty over part of Antarctica, the Falkland Islands, and South Georgia and the South Sandwich Islands.</t>
+  </si>
+  <si>
+    <t>Armenia, officially the Republic of Armenia, is a country in the South Caucasus region of Eurasia. Located in West Asia on the Armenian Highlands, it is bordered by Turkey to the west, Georgia to the north, the de facto independent Republic of Artsakh and Azerbaijan to the east, and Iran and Azerbaijan's exclave of Nakhchivan to the south.</t>
+  </si>
+  <si>
+    <t>Australia officially the Commonwealth of Australia, is a sovereign country comprising the mainland of the Australian continent, the island of Tasmania and numerous smaller islands. It is the largest country in Oceania and the world's sixth-largest country by total area. The neighbouring countries are Papua New Guinea, Indonesia and East Timor to the north; the Solomon Islands and Vanuatu to the north-east; and New Zealand to the south-east. Australia's capital is Canberra, and its largest urban area is Sydney.</t>
+  </si>
+  <si>
+    <t>Austria, officially the Republic of Austria, is a federal republic and a landlocked country of over 8.7 million people in Central Europe. It is bordered by the Czech Republic and Germany to the north, Hungary and Slovakia to the east, Slovenia and Italy to the south, and Switzerland and Liechtenstein to the west. The territory of Austria covers 83,879 km2. The terrain is highly mountainous, lying within the Alps; only 32% of the country is below 500 m, and its highest point is 3,798 m. The majority of the population speaks local Bavarian dialects of German as their native language, and German in its standard form is the country's official language. Other local official languages are Hungarian, Burgenland Croatian, and Slovene.</t>
+  </si>
+  <si>
+    <t>Azerbaijan, officially the Republic of Azerbaijan, is a country in the South Caucasus region, situated at the crossroads of Southwest Asia and Southeastern Europe. It is bound by the Caspian Sea to the east, Russia to the north, Georgia to the northwest, Armenia to the west and Iran to the south. The exclave of Nakhchivan is bound by Armenia to the north and east, Iran to the south and west, and has an 11 km long border with Turkey in the north west.</t>
+  </si>
+  <si>
+    <t>The Bahamas, known officially as the Commonwealth of The Bahamas, is an archipelagic state within the Lucayan Archipelago. It consists of more than 700 islands, cays, and islets in the Atlantic Ocean, and is located north of Cuba and Hispaniola, northwest of the Turks and Caicos Islands, southeast of the US state of Florida, and east of the Florida Keys. The capital is Nassau on the island of New Providence. The designation of "the Bahamas" can refer either to the country or to the larger island chain that it shares with the Turks and Caicos Islands. As stated in the mandate/manifesto of the Royal Bahamas Defence Force, the Bahamas territory encompasses 470,000 km2 of ocean space.</t>
+  </si>
+  <si>
+    <t>Bahrain, officially the Kingdom of Bahrain, is an Arab constitutional monarchy in the Persian Gulf. It is an island country consisting of a small archipelago centered around Bahrain Island, situated between the Qatar peninsula and the north eastern coast of Saudi Arabia, to which it is connected by the 25 km King Fahd Causeway. Bahrain's population is 1,234,571, including 666,172 non-nationals. It is 780 km2 in size, making it the third smallest nation in Asia after the Maldives and Singapore.</t>
+  </si>
+  <si>
+    <t>Bangladesh, officially the People's Republic of Bangladesh, is a country in South Asia. It shares land borders with India and Myanmar. Nepal, Bhutan and China are located near Bangladesh but do not share a border with it. The country's maritime territory in the Bay of Bengal is roughly equal to the size of its land area. Bangladesh is the world's eighth most populous country. Dhaka is its capital and largest city, followed by Chittagong, which has the country's largest port.</t>
+  </si>
+  <si>
+    <t>Barbados is an island country in the Lesser Antilles, in the Caribbean region of North America. It is 34 kilometres in length and up to 23 km in width, covering an area of 432 km2. It is situated in the western area of the North Atlantic and 100 km east of the Windward Islands and the Caribbean Sea; therein, it is about 168 km east of the islands of Saint Vincent and the Grenadines and 400 km north-east of Trinidad and Tobago. Barbados is outside the principal Atlantic hurricane belt. Its capital and largest city is Bridgetown.</t>
+  </si>
+  <si>
+    <t>Belarus, officially the Republic of Belarus, formerly known by its Russian name Byelorussia or Belorussia, is a landlocked country in Eastern Europe bordered by Russia to the northeast, Ukraine to the south, Poland to the west, and Lithuania and Latvia to the northwest. Its capital and most populous city is Minsk. Over 40% of its 207,600 square kilometres is forested. Its major economic sectors are service industries and manufacturing. Until the 20th century, different states at various times controlled the lands of modern-day Belarus, including the Principality of Polotsk (11th to 14th centuries), the Grand Duchy of Lithuania, the Polish–Lithuanian Commonwealth, and the Russian Empire.</t>
+  </si>
+  <si>
+    <t>Belgium, officially the Kingdom of Belgium, is a sovereign state in Western Europe bordered by France, the Netherlands, Germany, Luxembourg, and the North Sea. It is a small, densely populated country which covers an area of 30,528 square kilometres and has a population of about 11 million people. Straddling the cultural boundary between Germanic and Latin Europe, Belgium is home to two main linguistic groups: the Dutch-speaking, mostly Flemish community, which constitutes about 59 percent of the population, and the French-speaking, mostly Walloon population, which comprises about 40 percent of all Belgians. Additionally, there is a small ~1 percent group of German speakers who live in the East Cantons.</t>
+  </si>
+  <si>
+    <t>Belize, formerly British Honduras, is an independent country on the eastern coast of Central America. Belize is bordered on the north by Mexico, on the south and west by Guatemala, and on the east by the Caribbean Sea. Its mainland is about 290 km long and 110 km wide.</t>
+  </si>
+  <si>
+    <t>Benin, officially the Republic of Benin and formerly Dahomey, is a country in West Africa. It is bordered by Togo to the west, Nigeria to the east, and Burkina Faso and Niger to the north. The majority of its population lives on the small southern coastline of the Bight of Benin, part of the Gulf of Guinea in the northernmost tropical portion of the Atlantic Ocean. The capital of Benin is Porto-Novo, but the seat of government is in Cotonou, the country's largest city and economic capital. Benin covers an area of 114,763 square kilometers and its population in 2016 was estimated to be approximately 10.87 million. Benin is a tropical nation, highly dependent on agriculture, with substantial employment and income arising from subsistence farming.</t>
+  </si>
+  <si>
+    <t>Bhutan, officially the Kingdom of Bhutan, is a landlocked country in South Asia. Located in the Eastern Himalayas, it is bordered by Tibet Autonomous Region of China in the north, India in the south, the Sikkim state of India and the Chumbi Valley of Tibet in the west, and Arunachal Pradesh state of India in the east and Assam in the south. Bhutan is geopolitically in South Asia and is the region's second least populous nation after the Maldives. Thimphu is its capital and largest city, while Phuntsholing is its financial center.</t>
+  </si>
+  <si>
+    <t>Bolivia, officially known as the Plurinational State of Bolivia, is located in western-central South America. It is bordered to the north and east by Brazil, to the southeast by Paraguay, to the south by Argentina, to the southwest by Chile, and to the northwest by Peru. It has no ocean access. One-third of the country is the Andean mountain range.</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina, sometimes called Bosnia-Herzegovina, and often known informally as Bosnia, is a country in Southeastern Europe located on the Balkan Peninsula. Sarajevo is the capital and largest city. Bordered by Croatia to the north, and west; Serbia to the east; Montenegro to the southeast; and the Adriatic Sea to the south, with a coastline about 20 kilometres long surrounding the town of Neum. In the central and eastern interior of the country the geography is mountainous, in the northwest it is moderately hilly, and the northeast is predominantly flatland. The inland is a geographically larger region and has a moderate continental climate, with hot summers and cold and snowy winters. The southern tip of the country has a Mediterranean climate and plain topography.</t>
+  </si>
+  <si>
+    <t>Botswana, officially the Republic of Botswana, is a landlocked country located in Southern Africa. The citizens refer to themselves as Batswana. Formerly the British protectorate of Bechuanaland, Botswana adopted its new name after becoming independent within the Commonwealth on 30 September 1966. Since then, it has maintained a strong tradition of stable representative democracy, with a consistent record of uninterrupted democratic elections and the best perceived corruption ranking in Africa for the last four years.</t>
+  </si>
+  <si>
+    <t>Brazil, officially the Federative Republic of Brazil, is the largest country in both South America and Latin America. At 8.5 million square kilometers and with over 208 million people, Brazil is the world's fifth-largest country by area and the sixth-most populous. The capital is Brasilia, and the largest city by population is Sao Paulo. It is the largest country to have Portuguese as an official language and the only one in the Americas. Bounded by the Atlantic Ocean on the east, Brazil has a coastline of 7,491 kilometers. It borders all other South American countries except Ecuador and Chile and covers 47.3% of the continent's land area. Its Amazon River basin includes a vast tropical forest, home to diverse wildlife, a variety of ecological systems, and extensive natural resources spanning numerous protected habitats. This unique environmental heritage makes Brazil one of 17 megadiverse countries, and is the subject of significant global interest and debate regarding deforestation and environmental protection.</t>
+  </si>
+  <si>
+    <t>Brunei, officially the Nation of Brunei, the Abode of Peace, is a sovereign state located on the north coast of the island of Borneo in Southeast Asia. Apart from its coastline with the South China Sea, the country is completely surrounded by the Malaysian state of Sarawak. It is separated into two parts by the Sarawak district of Limbang. Brunei is the only sovereign state completely on the island of Borneo; the remainder of the island's territory is divided between the nations of Malaysia and Indonesia. Brunei's population was 423,196 in 2016.</t>
+  </si>
+  <si>
+    <t>Bulgaria, officially the Republic of Bulgaria, is a country in southeastern Europe. It is bordered by Romania to the north, Serbia and Macedonia to the west, Greece and Turkey to the south, and the Black Sea to the east. With a territory of 110,994 square kilometres, Bulgaria is Europe's 16th-largest country.</t>
+  </si>
+  <si>
+    <t>Burkina Faso is a landlocked country in West Africa. It covers an area of around 274,200 square kilometres and is surrounded by six countries: Mali to the north; Niger to the east; Benin to the southeast; Togo and Ghana to the south; and Ivory Coast to the southwest. Its capital is Ouagadougou. In 2014 its population was estimated at just over 17.3 million. Burkina Faso is a francophone country, with French as an official language of government and business. Formerly called the Republic of Upper Volta (1958-1984), the country was renamed "Burkina Faso" on 4 August 1984 by then-President Thomas Sankara. The citizens of Burkina Faso are known as Burkinabe.</t>
+  </si>
+  <si>
+    <t>Burundi, officially the Republic of Burundi, is a landlocked country in the African Great Lakes region of East Africa, bordered by Rwanda to the north, Tanzania to the east and south, and the Democratic Republic of the Congo to the west. It is also considered part of Central Africa. Burundi's capital is Bujumbura. The southwestern border is adjacent to Lake Tanganyika.</t>
+  </si>
+  <si>
+    <t>Cambodia, officially known as the Kingdom of Cambodia, is a country located in the southern portion of the Indochina Peninsula in Southeast Asia. It is 181,035 square kilometres in area, bordered by Thailand to the northwest, Laos to the northeast, Vietnam to the east, and the Gulf of Thailand to the southwest.</t>
+  </si>
+  <si>
+    <t>Cameroon, officially the Republic of Cameroon, is a country in Central Africa. It is bordered by Nigeria to the west; Chad to the northeast; the Central African Republic to the east; and Equatorial Guinea, Gabon and the Republic of the Congo to the south. Cameroon's coastline lies on the Bight of Biafra, part of the Gulf of Guinea and the Atlantic Ocean.</t>
+  </si>
+  <si>
+    <t>Canada is a country in the northern part of North America. Its ten provinces and three territories extend from the Atlantic to the Pacific and northward into the Arctic Ocean, covering 9.98 million square kilometres, making it the world's second-largest country by total area and the fourth-largest country by land area. Canada's southern border with the United States is the world's longest bi-national land border. The majority of the country has a cold or severely cold winter climate, but southerly areas are warm in summer. Canada is sparsely populated, the majority of its land territory being dominated by forest and tundra and the Rocky Mountains. It is highly urbanized with 82 per cent of the 35.15 million people concentrated in large and medium-sized cities, many near the southern border. Its capital is Ottawa, and its five largest metropolitan areas are Toronto, Montreal, Vancouver, Calgary and Ottawa.</t>
+  </si>
+  <si>
+    <t>Cape Verde or Cabo Verde, officially the Republic of Cabo Verde, is an island country spanning an archipelago of 10 volcanic islands in the central Atlantic Ocean. Located 570 kilometres west of the Cape Verde Peninsula in West Africa, the islands cover a combined area of slightly over 4,000 square kilometres.</t>
+  </si>
+  <si>
+    <t>The Central African Republic is a landlocked country in Central Africa. It is bordered by Chad to the north, Sudan to the northeast, South Sudan to the east, the Democratic Republic of the Congo to the south, the Republic of the Congo to the southwest and Cameroon to the west. The CAR covers a land area of about 620,000 square kilometres and had an estimated population of around 4.6 million as of 2016.</t>
+  </si>
+  <si>
+    <t>Chad, officially the Republic of Chad, is a sovereign state in Central Africa. It is bordered by Libya to the north, Sudan to the east, the Central African Republic to the south, Cameroon and Nigeria to the southwest and Niger to the west. It is the fifth largest country in Africa in terms of area.</t>
+  </si>
+  <si>
+    <t>Chile, is a South American country occupying a long, narrow strip of land between the Andes to the east and the Pacific Ocean to the west. It borders Peru to the north, Bolivia to the northeast, Argentina to the east, and the Drake Passage in the far south. Chilean territory includes the Pacific islands of Juan Fernández, Salas y Gomez, Desventuradas, and Easter Island in Oceania. Chile also claims about 1,250,000 square kilometres of Antarctica, although all claims are suspended under the Antarctic Treaty.</t>
+  </si>
+  <si>
+    <t>Colombia, officially the Republic of Colombia (Spanish:  República de Colombia (help·info)),[Note 1] is a sovereign state largely situated in the northwest of South America, with territories in Central America. Colombia shares a border to the northwest with Panama, to the east with Venezuela and Brazil and to the south with Ecuador and Peru. It shares its maritime limits with Costa Rica, Nicaragua, Honduras, Jamaica, Haiti and the Dominican Republic. It is a unitary, constitutional republic comprising thirty-two departments. The territory of what is now Colombia was originally inhabited by indigenous peoples, including the Muisca, Quimbaya and the Tairona.</t>
+  </si>
+  <si>
+    <t>The Comoros, officially the Union of the Comoros, is a sovereign archipelago island nation in the Indian Ocean located at the northern end of the Mozambique Channel off the eastern coast of Africa between northeastern Mozambique and northwestern Madagascar. Other countries near the Comoros are Tanzania to the northwest and the Seychelles to the northeast. Its capital is Moroni, on Grande Comore. The Union of the Comoros has three official languages – Comorian, Arabic and French. The religion of the majority of the population is Islam.</t>
+  </si>
+  <si>
+    <t>The Democratic Republic of the Congo, also known as Zaire, DR Congo, East Congo, DRC, DROC, Congo-Kinshasa or simply the Congo, is a country located in Central Africa. The DRC borders the Central African Republic and South Sudan to the north; Uganda, Rwanda, Burundi and Tanzania to the east; Zambia to the south; Angola to the southwest; and the Republic of the Congo and the Atlantic Ocean to the west.</t>
+  </si>
+  <si>
+    <t>The Republic of the Congo, also known as Congo-Brazzaville, West Congo, the Congo Republic or simply Congo, is a country in Central Africa. It is bordered by five countries: Gabon and the Atlantic Ocean to the west; Cameroon to the northwest; the Central African Republic to the northeast; the Democratic Republic of the Congo to the east and south; and the Angolan exclave of Cabinda to the southwest.</t>
+  </si>
+  <si>
+    <t>Costa Rica, officially the Republic of Costa Rica, is a country in Central America, bordered by Nicaragua to the north, Panama to the southeast, the Pacific Ocean to the west, the Caribbean Sea to the east, and Ecuador to the south of Cocos Island. It has a population of around 4.9 million, in a land area of 51,060 square kilometers; over 300,000 live in the capital and largest city, San Jose with a population of an estimated 333,980 in 2015.</t>
+  </si>
+  <si>
+    <t>Croatia, officially the Republic of Croatia, is a country situated at the crossroads of Central and Southeast Europe, on the Adriatic Sea. Its capital city is Zagreb, which forms one of the country's primary subdivisions, along with its twenty counties. Croatia has a total area of 56,594 square kilometres and a population of 4.28 million, most of whom are Roman Catholics.</t>
+  </si>
+  <si>
+    <t>Cuba, officially the Republic of Cuba, is a country comprising the island of Cuba as well as Isla de la Juventud and several minor archipelagos. Cuba is located in the northern Caribbean where the Caribbean Sea, the Gulf of Mexico, and the Atlantic Ocean meet. It is south of both the U.S. state of Florida and the Bahamas, west of Haiti, and north of Jamaica. Havana is the largest city and capital; other major cities include Santiago de Cuba and Camagüey. Cuba is the largest island in the Caribbean, with an area of 109,884 square kilometres (42,426 sq mi), and the second-most populous after Hispaniola, with over 11 million inhabitants.[12]</t>
+  </si>
+  <si>
+    <t>Cyprus was placed under British administration based on the Cyprus Convention in 1878 and was formally annexed by Britain in 1914. While Turkish Cypriots made up 18% of the population, the partition of Cyprus and creation of a Turkish state in the north became a policy of Turkish Cypriot leaders and Turkey in the 1950s. Turkish leaders for a period advocated the annexation of Cyprus to Turkey as Cyprus was considered an "extension of Anatolia" by them; while, since the 19th century, the majority Greek Cypriot population and its Orthodox church had been pursuing union with Greece, which became a Greek national policy in the 1950s. Following nationalist violence in the 1950s, Cyprus was granted independence in 1960. In 1963, the 11-year intercommunal violence between Greek Cypriots and Turkish Cypriots started, which displaced more than 25,000 Turkish Cypriots and brought the end of Turkish Cypriot representation in the republic. On 15 July 1974, a coup d' etat was staged by Greek Cypriot nationalists and elements of the Greek military junta in an attempt at enosis, the incorporation of Cyprus into Greece. This action precipitated the Turkish invasion of Cyprus on 20 July, which led to the capture of the present-day territory of Northern Cyprus in the following month, after a ceasefire collapsed, and the displacement of over 150,000 Greek Cypriots and 50,000 Turkish Cypriots. A separate Turkish Cypriot state in the north was established by unilateral declaration in 1983; the move was widely condemned by the international community, with Turkey alone recognizing the new state. These events and the resulting political situation are matters of a continuing dispute.</t>
+  </si>
+  <si>
+    <t>The Czech Republic, also known as Czechia, is a landlocked nation state in Central Europe bordered by Germany to the west, Austria to the south, Slovakia to the east and Poland to the northeast. The Czech Republic covers an area of 78,866 square kilometres with a mostly temperate continental climate and oceanic climate. It is a unitary parliamentary republic, has 10.6 million inhabitants and the capital and largest city is Prague, with over 1.2 million residents. The Czech Republic includes the historical territories of Bohemia, Moravia, and Czech Silesia.</t>
+  </si>
+  <si>
+    <t>Denmark, officially the Kingdom of Denmark, is a Nordic country and a sovereign state. The southernmost of the Scandinavian nations, it is south-west of Sweden and south of Norway, and bordered to the south by Germany. The Kingdom of Denmark also comprises two autonomous constituent countries in the North Atlantic Ocean: the Faroe Islands and Greenland. Denmark proper consists of a peninsula, Jutland, and an archipelago of 443 named islands, with the largest being Zealand, Funen and the North Jutlandic Island. The islands are characterised by flat, arable land and sandy coasts, low elevation and a temperate climate. Denmark has an area of 42,924 km2, total area including Greenland and the Faroe Islands is 2,210,579 km2, and a population of 5.75 million.</t>
+  </si>
+  <si>
+    <t>Djibouti, officially the Republic of Djibouti, is a country located in the Horn of Africa. It is bordered by Eritrea in the north, Ethiopia in the west and south, and Somalia in the southeast. The remainder of the border is formed by the Red Sea and the Gulf of Aden at the east. Djibouti occupies a total area of just 23,200 km2.</t>
+  </si>
+  <si>
+    <t>Dominica, officially the Commonwealth of Dominica, is a sovereign island country. The capital, Roseau, is located on the leeward side of the island. It is part of the Windward Islands in the Lesser Antilles archipelago in the Caribbean Sea. The island lies south-southeast of Guadeloupe and northwest of Martinique. Its area is 750 km2, and the highest point is Morne Diablotins, at 1,447 m in elevation. The population was 71,293 at the 2011 census.</t>
+  </si>
+  <si>
+    <t>The Dominican Republic is a country located in the island of Hispaniola, in the Greater Antilles archipelago of the Caribbean region. It occupies the eastern five-eighths of the island, which it shares with the nation of Haiti,[10][11] making Hispaniola one of two Caribbean islands, along with Saint Martin, that are shared by two countries. The Dominican Republic is the second-largest Caribbean nation by area (after Cuba) at 48,445 square kilometers, and third by population with approximately 10 million people, of which approximately three million live in the metropolitan area of Santo Domingo, the capital city.</t>
+  </si>
+  <si>
+    <t>East Timor or Timor-Leste, officially the Democratic Republic of Timor-Leste, is a sovereign state in Maritime Southeast Asia. It comprises the eastern half of the island of Timor, the nearby islands of Atauro and Jaco, and Oecusse, an exclave on the northwestern side of the island surrounded by Indonesian West Timor. Australia is the country's southern neighbor, separated by the Timor Sea. The country's size is about 15,410 km2.</t>
+  </si>
+  <si>
+    <t>Ecuador, officially the Republic of Ecuador, is a representative democratic republic in northwestern South America, bordered by Colombia on the north, Peru on the east and south, and the Pacific Ocean to the west. Ecuador also includes the Galápagos Islands in the Pacific, about 1,000 kilometres west of the mainland. The capital city is Quito, while the largest city is Guayaquil.</t>
+  </si>
+  <si>
+    <t>Egypt, officially the Arab Republic of Egypt, is a transcontinental country spanning the northeast corner of Africa and southwest corner of Asia by a land bridge formed by the Sinai Peninsula. Egypt is a Mediterranean country bordered by the Gaza Strip and Israel to the northeast, the Gulf of Aqaba to the east, the Red Sea to the east and south, Sudan to the south, and Libya to the west. Across the Gulf of Aqaba lies Jordan, and across from the Sinai Peninsula lies Saudi Arabia, although Jordan and Saudi Arabia do not share a land border with Egypt.</t>
+  </si>
+  <si>
+    <t>El Salvador, officially the Republic of El Salvador, is the smallest and the most densely populated country in Central America. El Salvador's capital and largest city is San Salvador. As of 2016, the country had a population of approximately 6.34 million, consisting largely of Mestizos of European and Indigenous American descent.</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, officially the Republic of Equatorial Guinea, is a country located in Central Africa, with an area of 28,000 square kilometres. Formerly the colony of Spanish Guinea, its post-independence name evokes its location near both the Equator and the Gulf of Guinea. Equatorial Guinea is the only sovereign African state in which Spanish is an official language. As of 2015, the country had an estimated population of 1,222,245.</t>
+  </si>
+  <si>
+    <t>Eritrea, officially the State of Eritrea, is a country in the Horn of Africa, with its capital at Asmara. It is bordered by Sudan in the west, Ethiopia in the south, and Djibouti in the southeast. The northeastern and eastern parts of Eritrea have an extensive coastline along the Red Sea. The nation has a total area of approximately 117,600 km2, and includes the Dahlak Archipelago and several of the Hanish Islands. Its toponym Eritrea is based on the Greek name for the Red Sea, which was first adopted for Italian Eritrea in 1890.</t>
+  </si>
+  <si>
+    <t>Estonia, officially the Republic of Estonia, is a country in the Baltic region of Northern Europe. It is bordered to the north by the Gulf of Finland, to the west by the Baltic Sea, to the south by Latvia, and to the east by Lake Peipus and Russia. Across the Baltic Sea lies Sweden in the west and Finland in the north. The territory of Estonia consists of a mainland and 2,222 islands in the Baltic Sea, covering 45,339 km2 of land and water, and is influenced by a humid continental climate. Ethnic Estonians are a Finnic people, sharing close cultural ties with their northern neighbour, Finland, and the official language, Estonian, is a Finno-Ugric language closely related to Finnish and the Sami languages, and distantly to Hungarian.</t>
+  </si>
+  <si>
+    <t>Ethiopia, officially the Federal Democratic Republic of Ethiopia, is a country located in the Horn of Africa. It shares borders with Eritrea to the north and northeast, Djibouti and Somalia to the east, Sudan and South Sudan to the west, and Kenya to the south. With over 102 million inhabitants, Ethiopia is the most populous landlocked country in the world and the second-most populous nation on the African continent. It occupies a total area of 1,100,000 square kilometres, and its capital and largest city is Addis Ababa.</t>
+  </si>
+  <si>
+    <t>Fiji, officially the Republic of Fiji, is an island country in Melanesia in the South Pacific Ocean about 1,100 nautical miles northeast of New Zealand's North Island. Its closest neighbours are Vanuatu to the west, New Caledonia to the southwest, New Zealand's Kermadec Islands to the southeast, Tonga to the east, the Samoas and France's Wallis and Futuna to the northeast, and Tuvalu to the north.</t>
+  </si>
+  <si>
+    <t>Finland, officially the Republic of Finland, is a sovereign state in Northern Europe. The country has land borders with Sweden to the northwest, Norway to the north, and Russia to the east. Estonia is south of the country across the Gulf of Finland. Finland is a Nordic country situated in the geographical region of Fennoscandia, which also includes Scandinavia. Finland's population is 5.5 million, and the majority of the population is concentrated in the southern region. 88.7% of the population is Finnish and speaks Finnish, a Uralic language unrelated to the Scandinavian languages; the second major group is the Finland-Swedes (5.3%). Finland is the eighth largest country in Europe and the most sparsely populated country in the European Union. It is a parliamentary republic with a central government based in the capital city of Helsinki, local governments in 311 municipalities, and one autonomous region, the Åland Islands. Over 1.4 million people live in the Greater Helsinki metropolitan area, which produces one third of the country's GDP.</t>
+  </si>
+  <si>
+    <t>France, officially the French Republic, is a country whose territory consists of metropolitan France in western Europe, as well as several overseas regions and territories. The metropolitan area of France extends from the Mediterranean Sea to the English Channel and the North Sea, and from the Rhine to the Atlantic Ocean. The overseas territories include French Guiana in South America and several islands in the Atlantic, Pacific and Indian oceans. The country's 18 integral regions (5 of which are situated overseas) span a combined area of 643,801 square kilometres which, as of October 2017, has a population of 67.15 million people. France is a unitary semi-presidential republic with its capital in Paris, the country's largest city and main cultural and commercial centre. Other major urban centres include Marseille, Lyon, Lille, Nice, Toulouse and Bordeaux.</t>
+  </si>
+  <si>
+    <t>Gabon, officially the Gabonese Republic, is a sovereign state on the west coast of Central Africa. Located on the equator, Gabon is bordered by Equatorial Guinea to the northwest, Cameroon to the north, the Republic of the Congo on the east and south, and the Gulf of Guinea to the west. It has an area of nearly 270,000 square kilometres and its population is estimated at 2 million people. Its capital and largest city is Libreville.</t>
+  </si>
+  <si>
+    <t>The Gambia, officially the Republic of The Gambia, is a country in West Africa that is entirely surrounded by Senegal except for its coastline on the Atlantic Ocean at its western end. It is the smallest country in mainland Africa.</t>
+  </si>
+  <si>
+    <t>Georgia is a country in the Caucasus region of Eurasia. Located at the crossroads of Western Asia and Eastern Europe, it is bounded to the west by the Black Sea, to the north by Russia, to the south by Turkey and Armenia, and to the southeast by Azerbaijan. The capital and largest city is Tbilisi. Georgia covers a territory of 69,700 square kilometres, and its 2017 population is about 3.718 million. Georgia is a unitary semi-presidential republic, with the government elected through a representative democracy.</t>
+  </si>
+  <si>
+    <t>Germany, officially the Federal Republic of Germany, is a federal parliamentary republic in central-western Europe. It includes 16 constituent states, covers an area of 357,021 square kilometres, and has a largely temperate seasonal climate. With about 82 million inhabitants, Germany is the most populous member state of the European Union. After the United States, it is the second most popular immigration destination in the world. Germany's capital and largest metropolis is Berlin, while its largest conurbation is the Ruhr, with its main centres of Dortmund and Essen. The country's other major cities are Hamburg, Munich, Cologne, Frankfurt, Stuttgart, Düsseldorf, Leipzig, Bremen, Dresden, Hannover and Nuremberg.</t>
+  </si>
+  <si>
+    <t>Ghana, officially the Republic of Ghana, is a unitary presidential constitutional democracy, located along the Gulf of Guinea and Atlantic Ocean, in the subregion of West Africa. Spanning a land mass of 238,535 km², Ghana is bordered by the Ivory Coast in the west, Burkina Faso in the north, Togo in the east and the Gulf of Guinea and Atlantic Ocean in the south. Ghana means "Warrior King" in the Soninke language.</t>
+  </si>
+  <si>
+    <t>Greece, officially the Hellenic Republic, historically also known as Hellas, is a country in Southern Europe,[8] with a population of approximately 11 million as of 2016. Athens is the nation's capital and largest city, followed by Thessaloniki.</t>
+  </si>
+  <si>
+    <t>Grenada is a sovereign state in the southeastern Caribbean Sea consisting of the island of Grenada and six smaller islands at the southern end of the Grenadines island chain. It is located northwest of Trinidad and Tobago, northeast of Venezuela and southwest of Saint Vincent and the Grenadines. Its size is 348.5 square kilometres, and it had an estimated population of 107,317 in 2016. Its capital is St. George's. Grenada is also known as the "Island of Spice" due to its production of nutmeg and mace crops, of which it is one of the world's largest exporters. The national bird of Grenada is the critically endangered Grenada dove.</t>
+  </si>
+  <si>
+    <t>Guatemala, officially the Republic of Guatemala, is a country in Central America bordered by Mexico to the north and west, the Pacific Ocean to the southwest, Belize to the northeast, the Caribbean to the east, Honduras to the east and El Salvador to the southeast. With an estimated population of around 16.6 million, it is the most populated state in Central America. Guatemala is a representative democracy; its capital and largest city is Nueva Guatemala de la Asuncion, also known as Guatemala City.</t>
+  </si>
+  <si>
+    <t>Guinea, officially the Republic of Guinea, is a country on the western coast of Africa. Formerly known as French Guinea, the modern country is sometimes referred to as Guinea-Conakry in order to distinguish it from other parts of the wider region of the same name, such as Guinea-Bissau and Equatorial Guinea. Guinea has a population of 12.4 million and an area of 245,860 square kilometres.</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau, officially the Republic of Guinea-Bissau, is a country in West Africa. It covers 36,125 square kilometres with an estimated population of 1,815,698.</t>
+  </si>
+  <si>
+    <t>Guyana, officially the Co-operative Republic of Guyana, is a sovereign state on the northern mainland of South America. It is, however, included in the Caribbean region due to its strong cultural, historical, and political ties with other Anglo Caribbean countries and the Caribbean Community (CARICOM). Guyana is bordered by the Atlantic Ocean to the north, Brazil to the south and southwest, Suriname to the east and Venezuela to the west. With 215,000 square kilometres, Guyana is the fourth-smallest country on mainland South America after Uruguay, Suriname and French Guiana (an overseas region of France).</t>
+  </si>
+  <si>
+    <t>Haiti, officially the Republic of Haiti and formerly called Hayti, is a sovereign state located on the island of Hispaniola in the Greater Antilles archipelago of the Caribbean Sea. It occupies the western three-eighths of the island, which it shares with the Dominican Republic. Haiti is 27,750 square kilometres in size and has an estimated 10.8 million people,s making it the most populous country in the Caribbean Community (CARICOM) and the second-most populous country in the Caribbean as a whole.</t>
+  </si>
+  <si>
+    <t>Honduras, officially the Republic of Honduras, is a republic in Central America. It has at times been referred to as Spanish Honduras to differentiate it from British Honduras, which became modern-day Belize. Honduras is bordered to the west by Guatemala, to the southwest by El Salvador, to the southeast by Nicaragua, to the south by the Pacific Ocean at the Gulf of Fonseca, and to the north by the Gulf of Honduras, a large inlet of the Caribbean Sea.</t>
+  </si>
+  <si>
+    <t>Hungary is a unitary parliamentary republic in Central Europe. It covers an area of 93,030 square kilometres, situated in the Carpathian Basin, and is bordered by Slovakia to the north, Romania to the east, Serbia to the south, Croatia to the southwest, Slovenia to the west, Austria to the northwest, and Ukraine to the northeast. With about 10 million inhabitants, Hungary is a medium-sized member state of the European Union. The official language is Hungarian, which is the most widely spoken Uralic language in the world. Hungary's capital and its largest city and metropolis is Budapest, a significant economic hub, classified as a leading global city. Major urban areas include Debrecen, Szeged, Miskolc, Pecs and Gyor.</t>
+  </si>
+  <si>
+    <t>Iceland is a Nordic island country of Europe located in the North Atlantic Ocean. It has a population of 332,529 and an area of 103,000 km2, making it the most sparsely populated country in Europe. The capital and largest city is Reykjavik. Reykjavik and the surrounding areas in the southwest of the country are home to over two-thirds of the population.</t>
+  </si>
+  <si>
+    <t>India comprises the bulk of the Indian subcontinent, lying atop the Indian tectonic plate, and part of the Indo-Australian Plate. India's defining geological processes began 75 million years ago when the Indian plate, then part of the southern supercontinent Gondwana, began a north-eastward drift caused by seafloor spreading to its south-west, and later, south and south-east. Simultaneously, the vast Tethyn oceanic crust, to its northeast, began to subduct under the Eurasian plate. These dual processes, driven by convection in the Earth's mantle, both created the Indian Ocean and caused the Indian continental crust eventually to under-thrust Eurasia and to uplift the Himalayas. Immediately south of the emerging Himalayas, plate movement created a vast trough that rapidly filled with river-borne sediment and now constitutes the Indo-Gangetic Plain. Cut off from the plain by the ancient Aravalli Range lies the Thar Desert.</t>
+  </si>
+  <si>
+    <t>Indonesia, officially the Republic of Indonesia, is a unitary sovereign state and transcontinental country located mainly in Southeast Asia, with some territories in Oceania. Situated between the Indian and Pacific oceans, it is the world's largest island country, with more than seventeen thousand islands. At 1,904,569 square kilometres, Indonesia is the world's 14th-largest country in terms of land area and world's 7th-largest country in terms of combined sea and land area. It has an estimated population of over 261 million people and is the world's fourth most populous country, the most populous Austronesian nation, as well as the most populous Muslim-majority country. The world's most populous island, Java, contains more than half of the country's population.</t>
+  </si>
+  <si>
+    <t>Iran, also known as Persia, officially the Islamic Republic of Iran, is a sovereign state in Western Asia. With about 81 million inhabitants, Iran is the world's 18th-most-populous country. Comprising a land area of 1,648,195 km2, it is the second-largest country in the Middle East and the 17th-largest in the world. Iran is bordered to the northwest by Armenia, the Republic of Azerbaijan, and the Azerbaijani exclave of Nakhchivan; to the north by the Caspian Sea; to the northeast by Turkmenistan; to the east by Afghanistan and Pakistan; to the south by the Persian Gulf and the Gulf of Oman; and to the west by Turkey and Iraq. The country's central location in Eurasia and Western Asia, and its proximity to the Strait of Hormuz, give it geostrategic importance. Tehran is the country's capital and largest city, as well as its leading economic and cultural center.</t>
+  </si>
+  <si>
+    <t>Iraq, officially known as the Republic of Iraq, is a country in Western Asia, bordered by Turkey to the north, Iran to the east, Kuwait to the southeast, Saudi Arabia to the south, Jordan to the southwest and Syria to the west. The capital, and largest city, is Baghdad. The main ethnic groups are Arabs and Kurds; others include Assyrians, Turkmen, Shabakis, Yazidis, Armenians, Mandeans, Circassians and Kawliya. Around 95% of the country's 37 million citizens are Muslims, with Christianity, Yarsan, Yezidism and Mandeanism also present. The official languages of Iraq are Arabic and Kurdish.</t>
+  </si>
+  <si>
+    <t>Ireland, also known as the Republic of Ireland, is a sovereign state in north-western Europe occupying 26 of 32 counties of the island of Ireland. The capital and largest city is Dublin, which is located on the eastern part of the island, and whose metropolitan area is home to around a third of the country's 4.75 million inhabitants. The state shares its only land border with Northern Ireland, a part of the United Kingdom. It is otherwise surrounded by the Atlantic Ocean, with the Celtic Sea to the south, Saint George's Channel to the south-east, and the Irish Sea to the east. It is a unitary, parliamentary republic. The legislature, the Oireachtas, consists of a lower house, Dail Eireann, an upper house, Seanad Eireann, and an elected President (Uachtaran) who serves as the largely ceremonial head of state, but with some important powers and duties. The head of government is the Taoiseach (Prime Minister, literally 'Chief', a title not used in English), who is elected by the Dail and appointed by the President; the Taoiseach in turn appoints other government ministers.</t>
+  </si>
+  <si>
+    <t>Israel, officially the State of Israel, is a country in the Middle East, on the southeastern shore of the Mediterranean Sea and the northern shore of the Red Sea. It has land borders with Lebanon to the north, Syria to the northeast, Jordan on the east, the Palestinian territories of the West Bank and Gaza Strip to the east and west, respectively, and Egypt to the southwest. The country contains geographically diverse features within its relatively small area. Israel's economy and technology center is Tel Aviv, while its seat of government and proclaimed capital is Jerusalem, although the state's sovereignty over Jerusalem is not recognised internationally. The population of Israel was estimated in 2017 to be 8,783,640 people, of whom 74.7% were Jewish, 20.8% Arab and 4.5% others.</t>
+  </si>
+  <si>
+    <t>Italy, officially the Italian Republic, is a unitary parliamentary republic in Europe. Located in the heart of the Mediterranean Sea, Italy shares open land borders with France, Switzerland, Austria, Slovenia, San Marino, and Vatican City. Italy covers an area of 301,338 km2 and has a largely temperate seasonal and Mediterranean climate. Due to its shape, it is often referred to in Italy as lo Stivale (the Boot). With around 61 million inhabitants it is the fourth most populous EU member state.</t>
+  </si>
+  <si>
+    <t>Ivory Coast or Cote d'Ivoire, officially the Republic of Cote d'Ivoire, is a sovereign state located in West Africa. Ivory Coast's political capital is Yamoussoukro, and its economic capital and largest city is the port city of Abidjan. Its bordering countries are Guinea and Liberia in the west, Burkina Faso and Mali in the north, and Ghana in the east. The Gulf of Guinea (Atlantic Ocean) is located south of Ivory Coast.</t>
+  </si>
+  <si>
+    <t>Jamaica is an island country situated in the Caribbean Sea. Spanning 10,990 square kilometres in area, it is the third-largest island of the Greater Antilles and the fourth-largest island country in the Caribbean. Jamaica lies about 145 kilometres (90 mi) south of Cuba, and 191 kilometres (119 mi) west of Hispaniola (the island containing the countries of Haiti and the Dominican Republic).</t>
+  </si>
+  <si>
+    <t>Japan is a sovereign island nation in East Asia. Located in the Pacific Ocean, it lies off the eastern coast of the Asian mainland and stretches from the Sea of Okhotsk in the north to the East China Sea and China in the southwest.</t>
+  </si>
+  <si>
+    <t>Jordan, officially The Hashemite Kingdom of Jordan, is an Arab kingdom in Western Asia, on the East Bank of the Jordan River. Jordan is bordered by Saudi Arabia to the east and south; Iraq to the north-east; Syria to the north; Israel, Palestine and the Dead Sea to the west; and the Red Sea in its extreme south-west. Jordan is strategically located at the crossroads of Asia, Africa and Europe. The capital, Amman, is Jordan's most populous city as well as the country's economic, political and cultural centre.</t>
+  </si>
+  <si>
+    <t>Kazakhstan, officially the Republic of Kazakhstan, is the world's largest landlocked country, and the ninth largest in the world, with an area of 2,724,900 square kilometres. Kazakhstan is the dominant nation of Central Asia economically, generating 60% of the region's GDP, primarily through its oil/gas industry. It also has vast mineral resources. Some argue that Kazakhstan may be considered a European country because Kazakhstan's Western region is on the European continent and meets the Council of Europe's criteria for European inclusion.</t>
+  </si>
+  <si>
+    <t>Kenya, officially the Republic of Kenya, is a country in Africa and a founding member of the East African Community (EAC). Its capital and largest city is Nairobi. Kenya's territory lies on the equator and overlies the East African Rift covering a diverse and expansive terrain that extends roughly from Lake Victoria to Lake Turkana (formerly called Lake Rudolf) and further south-east to the Indian Ocean. It is bordered by Tanzania to the south and southwest, Uganda to the west, South Sudan to the north-west, Ethiopia to the north and Somalia to the north-east. Kenya covers 581,309 km2, and had a population of approximately 48 million people in January 2017.</t>
+  </si>
+  <si>
+    <t>Kiribati, officially the Republic of Kiribati, is a country in the central Pacific Ocean. The permanent population is just over 110,000, more than half of whom live on Tarawa Atoll. The nation comprises 33 atolls and reef islands and one raised coral island, Banaba. They have a total land area of 800 square kilometres and are dispersed over 3.5 million square kilometres. Their spread straddles both the equator and the 180th meridian, although the International Date Line goes round Kiribati and swings far to the east, almost reaching the 150°W meridian. This brings the Line Islands into the same day as the Kiribati Islands. Kiribati's easternmost islands, the southern Line Islands, south of Hawaii, have the most advanced time on Earth: UTC+14 hours.</t>
+  </si>
+  <si>
+    <t>North Korea, officially the Democratic People's Republic of Korea (abbreviated DPRK), is a country in East Asia constituting the northern part of the Korean Peninsula. Pyongyang is the nation's capital and largest city. To the north and northwest, the country is bordered by China and by Russia along the Amnok (known as the Yalu in China) and Tumen rivers; it is bordered to the south by South Korea, with the heavily fortified Korean Demilitarized Zone (DMZ) separating the two. Nevertheless, North Korea, like its southern counterpart, claims to be the legitimate government of the entire peninsula.</t>
+  </si>
+  <si>
+    <t>South Korea, officially the Republic of Korea (abbreviated ROK), is a sovereign state in East Asia, constituting the southern part of the Korean Peninsula. Officially, its territory consists of the whole Korean Peninsula and its adjacent islands, which are largely mountainous. South Koreans lead a distinctive urban lifestyle, as half of them live in high-rises concentrated in the Seoul Capital Area with 25 million residents. The capital Seoul is the world's sixth leading global city with the fifth largest economy[20] and is the seventh most sustainable city in the world.</t>
+  </si>
+  <si>
+    <t>Kuwait, officially the State of Kuwait, is a country in Western Asia. Situated in the northern edge of Eastern Arabia at the tip of the Persian Gulf, it shares borders with Iraq and Saudi Arabia. As of 2016, Kuwait has a population of 4.2 million people; 1.3 million are Kuwaitis and 2.9 million are expatriates. Expatriates account for 70% of the population.</t>
+  </si>
+  <si>
+    <t>Laos, officially the Lao People's Democratic Republic, commonly referred to by its colloquial name of Muang Lao, is a landlocked country in the heart of the Indochinese peninsula of Mainland Southeast Asia, bordered by Myanmar (Burma) and China to the northwest, Vietnam to the east, Cambodia to the southwest and Thailand to the west and southwest.</t>
+  </si>
+  <si>
+    <t>Latvia is a democratic republic and a highly developed country. Its capital Riga served as the European Capital of Culture in 2014. Latvian is the official language. Latvia is a unitary state, divided into 119 administrative divisions, of which 110 are municipalities and 9 are cities. Latvians are the indigenous people of Latvia. Latvian and Lithuanian are the only two surviving Baltic languages. Despite foreign rule from the 13th to 20th centuries, the Latvian nation maintained its identity throughout the generations via the language and musical traditions. As a consequence of centuries of Russian rule (1710–1918) and later Soviet occupation, Latvia is home to a large number of ethnic Russians (26.9% in Latvia[20]), some of whom (14.1% of Latvian residents) have not gained citizenship, leaving them with no citizenship at all. Until World War II, Latvia also had significant minorities of ethnic Germans and Jews. Latvia is historically predominantly Protestant Lutheran, except for the Latgale region in the southeast, which has historically been predominantly Roman Catholic. The Russian population has also brought a significant portion of Eastern Orthodox Christians.</t>
+  </si>
+  <si>
+    <t>Lebanon, officially known as the Lebanese Republic, is a sovereign state in Western Asia. It is bordered by Syria to the north and east and Israel to the south, while Cyprus is west across the Mediterranean Sea. Lebanon's location at the crossroads of the Mediterranean Basin and the Arabian hinterland facilitated its rich history and shaped a cultural identity of religious and ethnic diversity. At just 10,452 km2, it is the smallest recognized country on the entire mainland Asian continent.</t>
+  </si>
+  <si>
+    <t>Lesotho, officially the Kingdom of Lesotho, is a landlocked country in southern Africa, completely surrounded by South Africa. It is just over 30,000 km2 in size and has a population of around 2 million. Its capital and largest city is Maseru.</t>
+  </si>
+  <si>
+    <t>Liberia, officially the Republic of Liberia, is a country on the West African coast. It is bordered by Sierra Leone to its west, Guinea to its north and Ivory Coast to its east. It covers an area of 111,369 square kilometers and has a population of 4,503,000 people. English is the official language and over 20 indigenous languages are spoken, representing the numerous ethnic groups who make up more than 95% of the population. The country's capital and largest city is Monrovia.</t>
+  </si>
+  <si>
+    <t>Libya, officially the State of Libya, is a sovereign state in the Maghreb region of North Africa, bordered by the Mediterranean Sea to the north, Egypt to the east, Sudan to the southeast, Chad and Niger to the south and Algeria and Tunisia to the west. The country is made of three historical regions, Tripolitania, Fezzan and Cyrenaica. With an area of almost 1.8 million square kilometres, Libya is the fourth largest country in Africa, and is the 16th largest country in the world. Libya has the 10th-largest proven oil reserves of any country in the world.</t>
+  </si>
+  <si>
+    <t>Liechtenstein, officially the Principality of Liechtenstein, is a doubly landlocked German-speaking microstate in Central Europe. The principality is a constitutional monarchy headed by the Prince of Liechtenstein.</t>
+  </si>
+  <si>
+    <t>Lithuania, officially the Republic of Lithuania, is a country in the Baltic region of northern-eastern Europe. One of the three Baltic states, it is situated along the southeastern shore of the Baltic Sea, to the east of Sweden and Denmark. It is bordered by Latvia to the north, Belarus to the east and south, Poland to the south, and Kaliningrad Oblast (a Russian exclave) to the southwest. Lithuania has an estimated population of 2.8 million people as of 2017, and its capital and largest city is Vilnius. Lithuanians are a Baltic people. The official language, Lithuanian, along with Latvian, is one of only two living languages in the Baltic branch of the Indo-European language family.</t>
+  </si>
+  <si>
+    <t>Luxembourg, officially the Grand Duchy of Luxembourg, is a landlocked country in western Europe. It is bordered by Belgium to the west and north, Germany to the east, and France to the south. Its capital, Luxembourg City, is, together with Brussels and Strasbourg, one of the three official capitals of the European Union and the seat of the European Court of Justice, the highest judicial authority in the EU. Its culture, people and languages are highly intertwined with its neighbours, making it essentially a mixture of French and Germanic cultures. This is emphasised by the three official languages, Luxembourgish, French, and German. The repeated invasions by Germany, especially in World War II, resulted in the country's strong will for mediation between France and Germany and, among other things, led to the foundation of the European Union.</t>
+  </si>
+  <si>
+    <t>Macedonia, officially the Republic of Macedonia, is a country in the Balkan peninsula in Southeast Europe. It is one of the successor states of the former Yugoslavia, from which it declared independence in 1991. It became a member of the United Nations in 1993, but, as a result of an ongoing dispute with Greece over the use of the name "Macedonia", was admitted under the provisional description the former Yugoslav Republic of Macedonia (sometimes abbreviated as FYROM and FYR Macedonia), a term that is also used by international organizations such as the European Union, the Council of Europe, and NATO.</t>
+  </si>
+  <si>
+    <t>Madagascar, officially the Republic of Madagascar, and previously known as the Malagasy Republic, is an island country in the Indian Ocean, off the coast of East Africa. The nation comprises the island of Madagascar (the fourth-largest island in the world), and numerous smaller peripheral islands. Following the prehistoric breakup of the supercontinent Gondwana, Madagascar split from the Indian peninsula around 88 million years ago, allowing native plants and animals to evolve in relative isolation. Consequently, Madagascar is a biodiversity hotspot; over 90% of its wildlife is found nowhere else on Earth. The island's diverse ecosystems and unique wildlife are threatened by the encroachment of the rapidly growing human population and other environmental threats.</t>
+  </si>
+  <si>
+    <t>Malawi, officially the Republic of Malawi, is a landlocked country in southeast Africa that was formerly known as Nyasaland. It is bordered by Zambia to the northwest, Tanzania to the northeast, and Mozambique on the east, south and west. Malawi is over 118,000 km2 with an estimated population of 18,091,575. Its capital is Lilongwe, which is also Malawi's largest city; the second largest is Blantyre, the third is Mzuzu and the fourth largest is its old capital Zomba. The name Malawi comes from the Maravi, an old name of the Nyanja people that inhabit the area. The country is also nicknamed "The Warm Heart of Africa".</t>
+  </si>
+  <si>
+    <t>Malaysia is a federal constitutional monarchy located in Southeast Asia. It consists of thirteen states and three federal territories and has a total landmass of 330,803 square kilometres separated by the South China Sea into two similarly sized regions, Peninsular Malaysia and East Malaysia (Malaysian Borneo). Peninsular Malaysia shares a land and maritime border with Thailand at the north and maritime borders with Singapore at the south, Vietnam at the northeast, and Indonesia in the west. East Malaysia shares land and maritime borders with Brunei and Indonesia and a maritime border with the Philippines and Vietnam. The capital city is Kuala Lumpur, while Putrajaya is the seat of the federal government. With a population of over 30 million, Malaysia is the 44th most populous country. The southernmost point of continental Eurasia, Tanjung Piai, is in Malaysia. Located in the tropics, Malaysia is one of 17 megadiverse countries on earth, with large numbers of endemic species.</t>
+  </si>
+  <si>
+    <t>The Maldives, officially the Republic of Maldives, is a South Asian island country, located in the Indian Ocean, situated in the Arabian Sea. It lies southwest of Sri Lanka and India. The chain of 26 atolls stretches from Ihavandhippolhu Atoll in the north to the Addu City in the south. Comprising a territory spanning roughly 298 square kilometres, the Maldives is one of the world's most geographically dispersed countries, as well as the smallest Asian country by both land area and population, with around 427,756 inhabitants. Malé is the capital and most populated city, traditionally called the "King's Island" for its central location.</t>
+  </si>
+  <si>
+    <t>Mali, officially the Republic of Mali, is a landlocked country in West Africa, a region geologically identified with the West African Craton. Mali is the eighth-largest country in Africa, with an area of just over 1,240,000 square kilometres. The population of Mali is 18 million. Its capital is Bamako. Mali consists of eight regions and its borders on the north reach deep into the middle of the Sahara Desert, while the country's southern part, where the majority of inhabitants live, features the Niger and Senegal rivers. The country's economy centers on agriculture and fishing. Some of Mali's prominent natural resources include gold, being the third largest producer of gold in the African continent, and salt. About half the population lives below the international poverty line of $1.25 (U.S.) a day. A majority of the population (90%) are Muslims.</t>
+  </si>
+  <si>
+    <t>Malta, officially known as the Republic of Malta, is a Southern European island country consisting of an archipelago in the Mediterranean Sea. It lies 80 km south of Italy, 284 km east of Tunisia, and 333 km north of Libya. The country covers just over 316 km2, with a population of just under 450,000, making it one of the world's smallest and most densely populated countries. The capital of Malta is Valletta, which at 0.8 km2, is the smallest national capital in the European Union by area. Malta has one national language, which is Maltese, and English as an official language.</t>
+  </si>
+  <si>
+    <t>The Marshall Islands, officially the Republic of the Marshall Islands, is an island country located near the equator in the Pacific Ocean, slightly west of the International Date Line. Geographically, the country is part of the larger island group of Micronesia. The country's population of 53,158 people is spread out over 29 coral atolls, comprising 1,156 individual islands and islets.</t>
+  </si>
+  <si>
+    <t>Mauritania, officially the Islamic Republic of Mauritania, is a country in the Maghreb region of Northwestern Africa. It is the eleventh largest country in Africa and is bordered by the Atlantic Ocean to the west, Western Sahara in the north, Algeria in the northeast, Mali in the east and southeast, and Senegal in the southwest.</t>
+  </si>
+  <si>
+    <t>Mauritius, officially the Republic of Mauritius, is an island nation in the Indian Ocean about 2,000 kilometres off the southeast coast of the African continent. The country includes the islands of Mauritius and Rodrigues, 560 kilometres east of Mauritius, and the outer islands (Agalega, St. Brandon and two disputed territories). The islands of Mauritius and Rodrigues form part of the Mascarene Islands, along with nearby Réunion, a French overseas department. The area of the country is 2,040 km2. The capital and largest city is Port Louis.</t>
+  </si>
+  <si>
+    <t>Mexico, officially the United Mexican States, is a federal republic in the southern portion of North America. It is bordered to the north by the United States; to the south and west by the Pacific Ocean; to the southeast by Guatemala, Belize, and the Caribbean Sea; and to the east by the Gulf of Mexico. Covering almost two million square kilometers, the nation is the sixth largest country in the Americas by total area and the 13th largest independent state in the world.</t>
+  </si>
+  <si>
+    <t>Moldova, officially the Republic of Moldova, is a landlocked country in Eastern Europe, bordered by Romania to the west and Ukraine to the north, east, and south (by way of the disputed territory of Transnistria). The capital city is Chisinau.</t>
+  </si>
+  <si>
+    <t>Monaco, officially the Principality of Monaco, is a sovereign city-state, country and microstate located on the French Riviera in Western Europe. France borders the country on three sides while the other side borders the Mediterranean Sea. Monaco has an area of 2.02 km2 and a population of about 38,400, according to the last census of 2016. With 19,009 inhabitants per km², it is the second-smallest and most densely populated sovereign state in the world. Monaco has a land border of 5.47 km, a coastline of 3.83 km, and a width that varies between 1,700 and 349 m (1,859 and 382 yd). The highest point in the country is a narrow pathway named Chemin des Revoires on the slopes of Mont Agel, in the Les Revoires Ward, which is 161 metres above sea level. Monaco's most populous Quartier is Monte Carlo and the most populous Ward is Larvotto/Bas Moulins. Through land reclamation, Monaco's land mass has expanded by twenty percent; in 2005, it had an area of only 1.974 km2. Monaco is known as a playground for the rich and famous, due to its tax laws. In 2014, it was noted about 30% of the population was made up of millionaires, more than in Zürich or Geneva.</t>
+  </si>
+  <si>
+    <t>Mongolia is a landlocked unitary sovereign state in East Asia. Its area is roughly equivalent with the historical territory of Outer Mongolia, and that term is sometimes used to refer to the Mongolian People's Republic. It is located between China to the south and Russia to the north. While it does not share a border with Kazakhstan, Mongolia is separated from it by only 36.76 kilometers.</t>
+  </si>
+  <si>
+    <t>Montenegro is a sovereign state in Southeastern Europe. It has a coast on the Adriatic Sea to the southwest and is bordered by Croatia to the west, Bosnia and Herzegovina to the northwest, Serbia to the northeast, Kosovo to the east, and Albania to the southeast. Its capital and largest city is Podgorica, while Cetinje is designated as the Old Royal Capital (prijestonica).</t>
+  </si>
+  <si>
+    <t>Morocco, officially known as the Kingdom of Morocco, is a sovereign country located in the Maghreb region of North Africa. Geographically, Morocco is characterised by a rugged mountainous interior, large tracts of desert and a lengthy coastline along the Atlantic Ocean and Mediterranean Sea.</t>
+  </si>
+  <si>
+    <t>Mozambique, officially the Republic of Mozambique is a country in Southeast Africa bordered by the Indian Ocean to the east, Tanzania to the north, Malawi and Zambia to the northwest, Zimbabwe to the west, and Swaziland and South Africa to the southwest. It is separated from Madagascar by the Mozambique Channel to the east. The capital and largest city is Maputo (known as "Lourenco Marques" before independence).</t>
+  </si>
+  <si>
+    <t>Myanmar, officially the Republic of the Union of Myanmar and also known as Burma, is a sovereign state in Southeast Asia. Myanmar is bordered by India and Bangladesh to its west, Thailand and Laos to its east and China to its north and northeast. To its south, about one third of Myanmar's total perimeter of 5,876 km forms an uninterrupted coastline of 1,930 km along the Bay of Bengal and the Andaman Sea. The country's 2014 census counted the population to be 51 million people. As of 2017, the population is about 54 million. Myanmar is 676,578 square kilometers in size. Its capital city is Naypyidaw, and its largest city and former capital is Yangon (Rangoon). Myanmar has been a member of the Association of Southeast Asian Nations (ASEAN) since 1997.</t>
+  </si>
+  <si>
+    <t>Namibia, officially the Republic of Namibia is a country in southern Africa whose western border is the Atlantic Ocean. It shares land borders with Zambia and Angola to the north, Botswana to the east and South Africa to the south and east. Although it does not border Zimbabwe, less than 200 metres of the Zambezi River (essentially a small bulge in Botswana to achieve a Botswana/Zambia micro-border) separates the two countries. Namibia gained independence from South Africa on 21 March 1990, following the Namibian War of Independence. Its capital and largest city is Windhoek, and it is a member state of the United Nations (UN), the Southern African Development Community (SADC), the African Union (AU), and the Commonwealth of Nations.</t>
+  </si>
+  <si>
+    <t>Nauru, officially the Republic of Nauru and formerly known as Pleasant Island, is an island country in Micronesia in the Central Pacific. Its nearest neighbour is Banaba Island in Kiribati, 300 kilometres to the east. It further lies northwest of Tuvalu, north of the Solomon Islands, east-northeast of Papua New Guinea, southeast of the Federated States of Micronesia and south of the Marshall Islands. With 11,347 residents in a 21-square-kilometre area, Nauru is the smallest state in the South Pacific and third smallest state by area in the world, behind only Vatican City and Monaco.</t>
+  </si>
+  <si>
+    <t>Nepal, officially the Federal Democratic Republic of Nepal, is a landlocked central Himalayan country in South Asia. Nepal is divided into 7 states and 75 districts and 744 local units including 4 metropolises, 13 sub-metropolises, 246 municipal councils and 481 villages. It has a population of 26.4 million and is the 93rd largest country by area. Bordering China in the north and India in the south, east, and west, it is the largest sovereign Himalayan state. Nepal does not border Bangladesh, which is located within only 27 km of its southeastern tip. Neither does it border Bhutan due to the Indian state of Sikkim being located in between. Nepal has a diverse geography, including fertile plains, subalpine forested hills, and eight of the world's ten tallest mountains, including Mount Everest, the highest point on Earth. Kathmandu is the nation's capital and largest city. Nepal is a multiethnic nation with Nepali as the official language.</t>
+  </si>
+  <si>
+    <t>The Netherlands is a representative parliamentary democracy organised as a unitary state. Its administration consists of the Monarch and the Council of Ministers, which is headed by a Prime Minister. The people are represented by the States General of the Netherlands, which consists of a House of Representatives and a Senate. The Netherlands is divided into 12 provinces: Drenthe, Flevoland, Friesland, Gelderland, Groningen, Limburg, Noord-Brabant, Noord-Holland, Overijssel, Utrecht, Zeeland, and Zuid-Holland. The provinces are divided into municipalities. The Prime Minister of the Netherlands is Mark Rutte. The Netherlands has the euro as its currency, except in the special municipalities of the Caribbean Netherlands (BES islands), where the Netherlands Antillean guilder was replaced by the US dollar in 2011.</t>
+  </si>
+  <si>
+    <t>New Zealand is an island country in the southwestern Pacific Ocean. The country geographically comprises two main landmasses—the North Island (or Te Ika-a-Maui), and the South Island (or Te Waipounamu)—and around 600 smaller islands. New Zealand is situated some 1,500 kilometres east of Australia across the Tasman Sea and roughly 1,000 kilometres south of the Pacific island areas of New Caledonia, Fiji, and Tonga. Because of its remoteness, it was one of the last lands to be settled by humans. During its long period of isolation, New Zealand developed a distinct biodiversity of animal, fungal and plant life. The country's varied topography and its sharp mountain peaks, such as the Southern Alps, owe much to the tectonic uplift of land and volcanic eruptions. New Zealand's capital city is Wellington, while its most populous city is Auckland.</t>
+  </si>
+  <si>
+    <t>Nicaragua, officially the Republic of Nicaragua, is the largest country in the Central American isthmus, bordered by Honduras to the north, the Caribbean to the east, Costa Rica to the south, and the Pacific Ocean to the west. Nicaragua's capital, Managua, is the country's largest city and the third-largest city in Central America. The multi-ethnic population of six million includes people of indigenous, European, African, and Asian heritage. The main language is Spanish. Native tribes on the Mosquito Coast speak their own languages.</t>
+  </si>
+  <si>
+    <t>Niger is a developing country, consistently ranks near the bottom in the United Nations' Human Development Index (HDI); it was ranked last at 188th for 2014. Much of the non-desert portions of the country are threatened by periodic drought and desertification. The economy is concentrated around subsistence, with some export agriculture in the more fertile south, and export of raw materials, especially uranium ore. Niger faces serious challenges to development due to its landlocked position, desert terrain, inefficient agriculture, high fertility rates without birth control, and the resulting overpopulation, the poor educational level and the poverty of its people, the lack of infrastructure, the poor health care, and the environmental degradation.</t>
+  </si>
+  <si>
+    <t>Nigeria has been home to a number of kingdoms and tribal states over the millennia. The modern state originated from British colonial rule beginning in the 19th century, and took its present territorial shape with the merging of the Southern Nigeria Protectorate and Northern Nigeria Protectorate in 1914. The British set up administrative and legal structures whilst practising indirect rule through traditional chiefdoms. Nigeria became a formally independent federation in 1960. It experienced a civil war from 1967 to 1970. It thereafter alternated between democratically elected civilian governments and military dictatorships until 1999, with the 2011 presidential election considered the first to be reasonably free and fair.</t>
+  </si>
+  <si>
+    <t>Norway, officially the Kingdom of Norway, is a sovereign state and unitary monarchy whose territory comprises the western portion of the Scandinavian Peninsula plus the remote island of Jan Mayen and the archipelago of Svalbard. The Antarctic Peter I Island and the sub-Antarctic Bouvet Island are dependent territories and thus not considered part of the Kingdom. Norway also lays claim to a section of Antarctica known as Queen Maud Land. Until 1814, the kingdom included the Faroe Islands, Greenland, and Iceland. It also included Bohuslän until 1658, Jamtland and Harjedalen until 1645, Shetland and Orkney until 1468, and the Hebrides and Isle of Man until 1266.</t>
+  </si>
+  <si>
+    <t>Oman, officially the Sultanate of Oman, is an Arab country on the southeastern coast of the Arabian Peninsula. Holding a strategically important position at the mouth of the Persian Gulf, the country shares land borders with the United Arab Emirates to the northwest, Saudi Arabia to the west, and Yemen to the southwest, and shares marine borders with Iran and Pakistan. The coast is formed by the Arabian Sea on the southeast and the Gulf of Oman on the northeast. The Madha and Musandam exclaves are surrounded by the UAE on their land borders, with the Strait of Hormuz (which it shares with Iran) and Gulf of Oman forming Musandam's coastal boundaries.</t>
+  </si>
+  <si>
+    <t>Pakistan, officially the Islamic Republic of Pakistan, is a country in South Asia and on junction of West Asia, Central Asia and East Asia. It is the fifth-most populous country with a population exceeding 207.77 million people. In terms of area, it is the 33rd-largest country spanning 881,913 square kilometres. Pakistan has a 1,046-kilometre coastline along the Arabian Sea and Gulf of Oman in the south and is bordered by India to the east, Afghanistan to the west, Iran to the southwest, and China in the far northeast, respectively. It is separated narrowly from Tajikistan by Afghanistan's Wakhan Corridor in the north-west, and also shares a maritime border with Oman.</t>
+  </si>
+  <si>
+    <t>Palau, officially the Republic of Palau, is an island country located in the western Pacific Ocean. The country contains approximately 340 islands, forming the western chain of the Caroline Islands in Micronesia, and has an area of 466 square kilometers. The most populous island is Koror. The capital Ngerulmud is located on the nearby island of Babeldaob, in Melekeok State. Palau shares maritime boundaries with Indonesia, the Philippines, and the Federated States of Micronesia.</t>
+  </si>
+  <si>
+    <t>Palestine, officially the State of Palestine, is a de jure sovereign state in the Middle East claiming the West Bank (bordering Israel and Jordan) and Gaza Strip (bordering Israel and Egypt) with East Jerusalem as the designated capital although its administrative center is located in Ramallah. Most of the areas claimed by the State of Palestine have been occupied by Israel since 1967 in the consequence of the Six-Day War. The population is 4,550,368 as of 2014, ranked 123rd in the world.</t>
+  </si>
+  <si>
+    <t>Panama, officially called the Republic of Panama, is a country in Central America. It is bordered by Costa Rica to the west, Colombia (in South America) to the southeast, the Caribbean Sea to the north and the Pacific Ocean to the south. The capital and largest city is Panama City, whose metropolitan area is home to nearly half of the country's 4 million people.</t>
+  </si>
+  <si>
+    <t>Papua New Guinea, officially the Independent State of Papua New Guinea, is an Oceanian country that occupies the eastern half of the island of New Guinea and its offshore islands in Melanesia, a region of the southwestern Pacific Ocean north of Australia. Its capital, located along its southeastern coast, is Port Moresby. The western half of New Guinea forms the Indonesian provinces of Papua and West Papua.</t>
+  </si>
+  <si>
+    <t>Paraguay, officially the Republic of Paraguay, is a landlocked country in central South America, bordered by Argentina to the south and southwest, Brazil to the east and northeast, and Bolivia to the northwest. Paraguay lies on both banks of the Paraguay River, which runs through the center of the country from north to south. Due to its central location in South America, it is sometimes referred to as Corazon de Sudamerica ("Heart of South America"). Paraguay is one of the two landlocked countries (the other is Bolivia) outside Afro-Eurasia, and is the smallest landlocked country in the Americas.</t>
+  </si>
+  <si>
+    <t>Peru, officially the Republic of Peru, is a country in western South America. It is bordered in the north by Ecuador and Colombia, in the east by Brazil, in the southeast by Bolivia, in the south by Chile, and in the west by the Pacific Ocean. Peru is an extremely biodiverse country with habitats ranging from the arid plains of the Pacific coastal region in the west to the peaks of the Andes mountains vertically extending from the north to the southeast of the country to the tropical Amazon Basin rainforest in the east with the Amazon river.</t>
+  </si>
+  <si>
+    <t>The Philippines, officially the Republic of the Philippines, is a unitary sovereign state and island country in Southeast Asia. Situated in the western Pacific Ocean, it consists of about 7,641 islands that are categorized broadly under three main geographical divisions from north to south: Luzon, Visayas, and Mindanao. The capital city of the Philippines is Manila and the most populous city is Quezon City, both part of Metro Manila. Bounded by the South China Sea on the west, the Philippine Sea on the east and the Celebes Sea on the southwest, the Philippines shares maritime borders with Taiwan to the north, Vietnam to the west, Palau to the east and Malaysia and Indonesia to the south.</t>
+  </si>
+  <si>
+    <t>Poland, officially the Republic of Poland, is a sovereign country in Central Europe. It is a unitary state divided into 16 administrative subdivisions, covering an area of 312,679 square kilometres with a mostly temperate climate. With a population of over 38.5 million people, Poland is the sixth most populous member state of the European Union. Poland's capital and largest city is Warsaw. Other cities include Krakow, Wroclaw, Poznan, Gdansk and Szczecin.</t>
+  </si>
+  <si>
+    <t>Portugal, officially the Portuguese Republic, is a sovereign state located on the Iberian Peninsula in southwestern Europe. It is the westernmost country of mainland Europe, being bordered to the west and south by the Atlantic Ocean and to the north and east by Spain. Its territory also includes the Atlantic archipelagos of the Azores and Madeira, both autonomous regions with their own regional governments. At 1.7 million km2, its Exclusive Economic Zone is the 3rd largest in the European Union and the 11th largest in the world.</t>
+  </si>
+  <si>
+    <t>Qatar, officially the State of Qatar, is a sovereign country located in Western Asia, occupying the small Qatar Peninsula on the northeastern coast of the Arabian Peninsula. Its sole land border is with Saudi Arabia to the south, with the rest of its territory surrounded by the Persian Gulf. An arm of the Persian Gulf separates Qatar from the nearby island country of Bahrain.</t>
+  </si>
+  <si>
+    <t>Romania is a sovereign state located in Southeastern Europe. It borders the Black Sea, Bulgaria, Ukraine, Hungary, Serbia, and Moldova. It has an area of 238,397 square kilometres and a temperate-continental climate. With almost 20 million inhabitants, the country is the seventh most populous member state of the European Union. Its capital and largest city, Bucharest, is the sixth-largest city in the EU, with 1,883,425 inhabitants as of 2011.</t>
+  </si>
+  <si>
+    <t>Russia, also officially known as the Russian Federation, is a sovereign country in Eurasia. At 17,125,200 square kilometres, Russia is the largest country in the world by surface area, covering more than one-eighth of the Earth's inhabited land area, and the ninth most populous, with over 144 million people at the end of March 2016. The European western part of the country is much more populated and urbanised than the eastern; about 77% of the population live in European Russia. Russia's capital Moscow is one of the largest cities in the world; other major urban centers include Saint Petersburg, Novosibirsk, Yekaterinburg, Chelyabinsk, Nizhny Novgorod, Ufa, and Kazan.</t>
+  </si>
+  <si>
+    <t>Rwanda, officially the Republic of Rwanda, is a sovereign state in Central and East Africa and one of the smallest countries on the African mainland. Located a few degrees south of the Equator, Rwanda is bordered by Uganda, Tanzania, Burundi and the Democratic Republic of the Congo. Rwanda is in the African Great Lakes region and is highly elevated; its geography is dominated by mountains in the west and savanna to the east, with numerous lakes throughout the country. The climate is temperate to subtropical, with two rainy seasons and two dry seasons each year.</t>
+  </si>
+  <si>
+    <t>Saint Lucia is a sovereign island country in the eastern Caribbean Sea on the boundary with the Atlantic Ocean. Part of the Lesser Antilles, it is located north/northeast of the island of Saint Vincent, northwest of Barbados and south of Martinique. It covers a land area of 617 km2 and reported a population of 165,595 in the 2010 census. Its capital is Castries.</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines is a sovereign state in the Lesser Antilles island arc, in the southern portion of the Windward Islands, which lies at the southern end of the eastern border of the Caribbean Sea where the latter meets the Atlantic Ocean. The country is also known simply as Saint Vincent.</t>
+  </si>
+  <si>
+    <t>Samoa is a member of the Commonwealth of Nations. Western Samoa was admitted to the United Nations on 15 December 1976. The entire island group, which includes American Samoa, was called "Navigator Islands" by European explorers before the 20th century because of the Samoans' seafaring skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Marino, officially the Republic of San Marino, also known as the Most Serene Republic of San Marino, is an enclaved microstate surrounded by Italy, situated on the Italian Peninsula on the northeastern side of the Apennine Mountains. Its size is just over 61 km2, with a population of 33,562. Its capital is the City of San Marino and its largest city is Serravalle. San Marino has the smallest population of all the members of the Council of Europe.</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe, officially the Democratic Republic of Sao Tome and Principe, is a Portuguese-speaking island nation in the Gulf of Guinea, off the western equatorial coast of Central Africa. It consists of two archipelagos around the two main islands: Sao Tome and Principe, located about 140 kilometres apart and about 250 and 225 kilometres, respectively, off the northwestern coast of Gabon.</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia, officially the Kingdom of Saudi Arabia (KSA), is a sovereign Arab state in Western Asia constituting the bulk of the Arabian Peninsula. With a land area of approximately 2,150,000 km2, Saudi Arabia is geographically the fifth-largest state in Asia and second-largest state in the Arab world after Algeria. Saudi Arabia is bordered by Jordan and Iraq to the north, Kuwait to the northeast, Qatar, Bahrain and the United Arab Emirates to the east, Oman to the southeast and Yemen to the south. It is separated from Israel and Egypt by the Gulf of Aqaba. It is the only nation with both a Red Sea coast and a Persian Gulf coast and most of its terrain consists of arid desert and mountains.</t>
+  </si>
+  <si>
+    <t>Senegal, officially the Republic of Senegal, is a country in West Africa. Senegal is bordered by Mauritania in the north, Mali to the east, Guinea to the southeast, and Guinea-Bissau to the southwest. Senegal also borders The Gambia, a country occupying a narrow sliver of land along the banks of the Gambia River, which separates Senegal's southern region of Casamance from the rest of the country. Senegal also shares a maritime border with Cape Verde. Senegal's economic and political capital is Dakar. It is the westernmost country in the mainland of the Old World, or Afro-Eurasia, and owes its name to the Senegal River, which borders it to the east and north. The name "Senegal" comes from the Wolof "Sunuu Gaal", which means "Our Boat". Senegal covers a land area of almost 197,000 square kilometres and has an estimated population of about 15 million. The climate is Sahelian, but there is a rainy season.</t>
+  </si>
+  <si>
+    <t>Serbia, officially the Republic of Serbia, is a landlocked country situated at the crossroads of Central and Southeast Europe in the southern Pannonian Plain and the central Balkans. It borders Hungary to the north; Romania and Bulgaria to the east; Macedonia to the south; Croatia, Bosnia, Montenegro to the west and claims a border with Albania through the disputed territory of Kosovo. Serbia numbers around 7 million residents; its capital, Belgrade, ranks among the oldest and largest cities in Southeastern Europe.</t>
+  </si>
+  <si>
+    <t>Seychelles, officially the Republic of Seychelles, is an archipelago and country in the Indian Ocean. The 115-island country, whose capital is Victoria, lies 1,500 kilometres east of mainland East Africa. Other nearby island countries and territories include Comoros, Mayotte (region of France), Madagascar, Reunion (region of France) and Mauritius to the south. With a population of roughly 94,228, it has the smallest population of any sovereign African country; however, it does have a larger population than the British overseas territory Saint Helena, Ascension and Tristan da Cunha.</t>
+  </si>
+  <si>
+    <t>Sierra Leone, officially the Republic of Sierra Leone, is a country in West Africa. It is bordered by Guinea to the north-east, Liberia to the south-east and the Atlantic Ocean to the south-west. Sierra Leone has a tropical climate, with a diverse environment ranging from savannah to rainforests. The country has a total area of 71,740 km2 and a population of 7,075,641 (based on the 2015 national census). It is a constitutional republic with a directly elected president and a unicameral legislature.</t>
+  </si>
+  <si>
+    <t>Singapore, officially the Republic of Singapore, is a sovereign city-state and island country in Southeast Asia. It lies one degree (137 kilometres) north of the equator, at the southern tip of the Malay Peninsula, with Indonesia's Riau Islands to the south and Peninsular Malaysia to the north. Singapore's territory consists of one main island along with 62 other islets. Since independence, extensive land reclamation has increased its total size by 23% (130 square kilometres).</t>
+  </si>
+  <si>
+    <t>Slovakia, officially the Slovak Republic, is a landlocked country in Central Europe. It is bordered by the Czech Republic and Austria to the west, Poland to the north, Ukraine to the east and Hungary to the south. Slovakia's territory spans about 49,000 square kilometres and is mostly mountainous. The population is over 5 million and comprises mostly ethnic Slovaks. The capital and largest city is Bratislava. The official language is Slovak.</t>
+  </si>
+  <si>
+    <t>Slovenia, officially the Republic of Slovenia, is a nation state located in the southern Central Europe. The country is located at the crossroads of main European cultural and trade routes. It is bordered by Italy to the west, Austria to the north, Hungary to the northeast, Croatia to the south and southeast, and the Adriatic Sea to the southwest. It covers 20,273 square kilometers and has a population of 2.06 million. It is a parliamentary republic and a member of the United Nations, European Union, and NATO.[27] The capital and largest city is Ljubljana.</t>
+  </si>
+  <si>
+    <t>Somalia, officially the Federal Republic of Somalia, is a country located in the Horn of Africa. It is bordered by Ethiopia to the west, Djibouti to the northwest, the Gulf of Aden to the north, the Indian Ocean to the east, and Kenya to the southwest. Somalia has the longest coastline on Africa's mainland,[10] and its terrain consists mainly of plateaus, plains and highlands. Climatically, hot conditions prevail year-round, with periodic monsoon winds and irregular rainfall.</t>
+  </si>
+  <si>
+    <t>South Africa, officially the Republic of South Africa (RSA), is the southernmost country in Africa. It is bounded on the south by 2,798 kilometres of coastline of Southern Africa stretching along the South Atlantic and Indian Oceans; on the north by the neighbouring countries of Namibia, Botswana, and Zimbabwe; and on the east and northeast by Mozambique and Swaziland; and surrounds the kingdom of Lesotho. South Africa is the largest country in Southern Africa and the 25th-largest country in the world by land area and, with close to 56 million people, is the world's 24th-most populous nation. It is the southernmost country on the mainland of the Old World or the Eastern Hemisphere. About 80 percent of South Africans are of Sub-Saharan African ancestry, divided among a variety of ethnic groups speaking different African languages, nine of which have official status. The remaining population consists of Africa's largest communities of European (white), Asian (Indian), and multiracial (coloured) ancestry.</t>
+  </si>
+  <si>
+    <t>South Sudan, officially the Republic of South Sudan, is a landlocked country in East-Central Africa that gained its independence from the Republic of the Sudan in 2011. Its current capital, Juba is also the largest city. Before the outbreak of a civil war in 2013, it was planned that the capital city would be moved to the more centrally located Ramciel in the future.</t>
+  </si>
+  <si>
+    <t>Spain, officially the Kingdom of Spain, is a sovereign state located on the Iberian Peninsula in southwestern Europe, with two large archipelagoes, the Balearic Islands in the Mediterranean Sea and the Canary Islands off the North African Atlantic coast, two cities, Ceuta and Melilla, in the North African mainland and several small islands in the Alboran Sea near the Moroccan coast. The country's mainland is bordered to the south and east by the Mediterranean Sea except for a small land boundary with Gibraltar; to the north and northeast by France, Andorra, and the Bay of Biscay; and to the west and northwest by Portugal and the Atlantic Ocean. It is the only European country to have a border with an African country (Morocco) and its African territory accounts for nearly 5% of its population, mostly in the Canary Islands but also in Ceuta and Melilla.</t>
+  </si>
+  <si>
+    <t>Sri Lanka, officially the Democratic Socialist Republic of Sri Lanka, is an island country in South Asia, located southeast of India and northeast of the Maldives.</t>
+  </si>
+  <si>
+    <t>The Sudan or Sudan also known as North Sudan since South Sudan's independence and officially the Republic of the Sudan, is a country in Northern Africa. It is bordered by Egypt to the north, the Red Sea, Eritrea and Ethiopia to the east, South Sudan to the south, the Central African Republic to the southwest, Chad to the west and Libya to the northwest. It is the third largest country in Africa. The River Nile divides the country into eastern and western halves. Before the Sudanese Civil War, South Sudan was part of Sudan, but it became independent in 2011. Its predominant religion is Islam.</t>
+  </si>
+  <si>
+    <t>Suriname, officially known as the Republic of Suriname, is a sovereign state on the northeastern Atlantic coast of South America. It is bordered by French Guiana to the east, Guyana to the west and Brazil to the south. At just under 165,000 square kilometers, it is the smallest country in South America. Suriname has a population of approximately 558,368, most of whom live on the country's north coast, in and around the capital and largest city, Paramaribo.</t>
+  </si>
+  <si>
+    <t>Swaziland is a developing country with a small economy. With a GDP per capita of $9,714, it is classified as a country with a lower-middle income. As a member of the Southern African Customs Union (SACU) and Common Market for Eastern and Southern Africa (COMESA), its main local trading partner is South Africa; in order to ensure economic stability, Swaziland's currency, the lilangeni, is pegged to the South African rand. Swaziland's major overseas trading partners are the United States and the European Union. The majority of the country's employment is provided by its agricultural and manufacturing sectors. Swaziland is a member of the Southern African Development Community (SADC), the African Union, the Commonwealth of Nations and the United Nations.</t>
+  </si>
+  <si>
+    <t>Sweden, officially the Kingdom of Sweden, is a Scandinavian country in Northern Europe. It borders Norway to the west and north and Finland to the east, and is connected to Denmark in the southwest by a bridge-tunnel across the Öresund. At 450,295 square kilometres (173,860 sq mi), Sweden is the third-largest country in the European Union by area. Sweden has a total population of 10 million of which 2.3 million has a foreign background. It has a low population density of 22 inhabitants per square kilometre (57/sq mi); the highest concentration is in the southern half of the country. Approximately 85% of the population lives in urban areas.</t>
+  </si>
+  <si>
+    <t>Switzerland, officially the Swiss Confederation, is a federal republic in Europe. It consists of 26 cantons, and the city of Bern is the seat of the federal authorities. The country is situated in Western-Central Europe, and is bordered by Italy to the south, France to the west, Germany to the north, and Austria and Liechtenstein to the east. Switzerland is a landlocked country geographically divided between the Alps, the Swiss Plateau and the Jura, spanning an area of 41,285 km2. While the Alps occupy the greater part of the territory, the Swiss population of approximately eight million people is concentrated mostly on the plateau, where the largest cities are to be found: among them are the two global cities and economic centres Zürich and Geneva.</t>
+  </si>
+  <si>
+    <t>Syria, officially known as the Syrian Arab Republic, is a country in Western Asia, bordering Lebanon and the Mediterranean Sea to the west, Turkey to the north, Iraq to the east, Jordan to the south, and Israel to the southwest. The western two-thirds of Syria′s Golan Heights are since 1967 occupied by Israel and were in 1981 effectively annexed by Israel, whereas the eastern third is controlled by Syria, with the UNDOF maintaining a buffer zone in between, to implement the ceasefire of the Purple Line. Syria's capital and largest city is Damascus.</t>
+  </si>
+  <si>
+    <t>Tajikistan, officially the Republic of Tajikistan, is a mountainous, landlocked sovereign state in Central Asia with an estimated population of 8.7 million people as of 2016, and an area of 143,100 km2. It is bordered by Afghanistan to the south, Uzbekistan to the west, Kyrgyzstan to the north, and China to the east. Traditional homelands of Tajik people included present-day Tajikistan, Afghanistan and Uzbekistan.</t>
+  </si>
+  <si>
+    <t>Tanzania, officially the United Republic of Tanzania, is a sovereign state in eastern Africa within the African Great Lakes region. It borders Kenya and Uganda to the north; Rwanda, Burundi, and the Democratic Republic of the Congo to the west; Zambia, Malawi, and Mozambique to the south; and the Indian Ocean to the east. Mount Kilimanjaro, Africa's highest mountain, is in north-eastern Tanzania.</t>
+  </si>
+  <si>
+    <t>Thailand, officially the Kingdom of Thailand and formerly known as Siam, is a country at the centre of the Indochinese peninsula in Southeast Asia. With a total area of approximately 513,000 km2, Thailand is the world's 50th-largest country. It is the 20th-most-populous country in the world, with around 69 million people.</t>
+  </si>
+  <si>
+    <t>Togo, officially the Togolese Republic, is a country in West Africa bordered by Ghana to the west, Benin to the east and Burkina Faso to the north. It extends south to the Gulf of Guinea, where its capital Lome is located. Togo covers 57,000 square kilometres, making it one of the smallest countries in Africa, with a population of approximately 7.6 million.</t>
+  </si>
+  <si>
+    <t>Tonga, officially the Kingdom of Tonga, is a Polynesian sovereign state and archipelago comprising 169 islands, of which 36 are inhabited. The total surface area is about 750 square kilometres scattered over 700,000 square kilometres of the southern Pacific Ocean. It has a population of 107,122 people, of whom 70% reside on the main island of Tongatapu.</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago, officially the Republic of Trinidad and Tobago, is a twin island country that is the southernmost nation in the Caribbean. It is situated 130 kilometres south of Grenada off the northern edge of the South American mainland, 11 kilometres off the coast of northeastern Venezuela. It shares maritime boundaries with Barbados to the northeast, Grenada to the northwest, Guyana to the southeast, and Venezuela to the south and west.</t>
+  </si>
+  <si>
+    <t>Tunisia, officially the Republic of Tunisia is a country in North Africa, covering 165,000 square kilometres. Its northernmost point, Cape Angela, is the northernmost point on the African continent. It is bordered by Algeria to the west and southwest, Libya to the southeast, and the Mediterranean Sea to the north and east. Tunisia's population was estimated to be just under 11.93 million in 2016. Tunisia's name is derived from its capital city, Tunis, which is located on its northeast coast.</t>
+  </si>
+  <si>
+    <t>Turkey officially the Republic of Turkey, is a transcontinental country in Eurasia, mainly in Anatolia in Western Asia, with a smaller portion on the Balkan peninsula in Southeast Europe. Turkey is bordered by eight countries with Greece and Bulgaria to the northwest; Georgia to the northeast; Armenia, the Azerbaijani exclave of Nakhchivan and Iran to the east; and Iraq and Syria to the south. The country is encircled by seas on three sides with the Aegean Sea to the west, the Black Sea to the north, and the Mediterranean Sea to the south. The Bosphorus, the Sea of Marmara, and the Dardanelles, which together form the Turkish Straits, divide Thrace and Anatolia and separate Europe and Asia. Ankara is the capital while Istanbul is the country's largest city and main cultural and commercial centre. Approximately 70-80% of the country's citizens identify themselves as ethnic Turks. Kurds are the largest minority at about 20% of the population, and other ethnic minorities include Circassians, Albanians, Arabs, Bosniaks and Laz. Minority languages spoken today in Turkey include Kurmanji, Arabic, Zaza, Kabardian and several others.</t>
+  </si>
+  <si>
+    <t>Turkmenistan, formerly known as Turkmenia, is a country in Central Asia, bordered by Kazakhstan to the northwest, Uzbekistan to the north and east, Afghanistan to the southeast, Iran to the south and southwest, and the Caspian Sea to the west.</t>
+  </si>
+  <si>
+    <t>Tuvalu, formerly known as the Ellice Islands, is a Polynesian island nation located in the Pacific Ocean, about midway between Hawaii and Australia, lying east-northeast of the Santa Cruz Islands (belonging to the Solomons), southeast of Nauru, south of Kiribati, west of Tokelau, northwest of Samoa and Wallis and Futuna and north of Fiji. It comprises three reef islands and six true atolls spread out between the latitude of 5° to 10° south and longitude of 176° to 180°, west of the International Date Line. Tuvalu has a population of 10,640 (2012 census). Situated in Oceania, the total land area of the islands of Tuvalu is 26 square kilometres.</t>
+  </si>
+  <si>
+    <t>Uganda, officially the Republic of Uganda, is a landlocked country in East Africa. It is bordered to the east by Kenya, to the north by South Sudan, to the west by the Democratic Republic of the Congo, to the south-west by Rwanda, and to the south by Tanzania. The southern part of the country includes a substantial portion of Lake Victoria, shared with Kenya and Tanzania. Uganda is in the African Great Lakes region. Uganda also lies within the Nile basin, and has a varied but generally a modified equatorial climate.</t>
+  </si>
+  <si>
+    <t>Ukraine, sometimes called the Ukraine, is a sovereign state in Eastern Europe, bordered by Russia to the east and northeast; Belarus to the northwest; Poland, Hungary, and Slovakia to the west; Romania and Moldova to the southwest; and the Black Sea and Sea of Azov to the south and southeast, respectively. Ukraine is currently in territorial dispute with Russia over the Crimean Peninsula, which Russia annexed in 2014 but which Ukraine and most of the international community recognise as Ukrainian. Including Crimea, Ukraine has an area of 603,628 km2, making it the largest country entirely within Europe and the 46th largest country in the world. Excluding Crimea, Ukraine has a population of about 42.5 million, making it the 32nd most populous country in the world.</t>
+  </si>
+  <si>
+    <t>The United Arab Emirates, sometimes simply called the Emirates, is a federal absolute monarchy in Western Asia at the southeast end of the Arabian Peninsula on the Persian Gulf, bordering Oman to the east and Saudi Arabia to the south, as well as sharing maritime borders with Qatar to the west and Iran to the north. In 2013, the UAE's population was 9.2 million, of which 1.4 million are Emirati citizens and 7.8 million are expatriates.</t>
+  </si>
+  <si>
+    <t>The United Kingdom of Great Britain and Northern Ireland, commonly known as the United Kingdom (UK) and colloquially Great Britain (GB) or simply Britain, is a sovereign country in western Europe. Lying off the north-western coast of the European mainland, the United Kingdom includes the island of Great Britain, the north-eastern part of the island of Ireland and many smaller islands. Northern Ireland is the only part of the United Kingdom that shares a land border with another sovereign state‍—‌the Republic of Ireland. Apart from this land border, the United Kingdom is surrounded by the Atlantic Ocean, with the North Sea to its east, the English Channel to its south and the Celtic Sea to its south-south-west, giving it the 12th-longest coastline in the world. The Irish Sea lies between Great Britain and Ireland. With an area of 242,500 square kilometres, the United Kingdom is the 78th-largest sovereign state in the world and the 11th-largest in Europe. It is also the 21st-most populous country, with an estimated 65.1 million inhabitants. Together, this makes it the fourth-most densely populated country in the European Union (EU).</t>
+  </si>
+  <si>
+    <t>The United States of America (USA), commonly known as the United States (U.S.) or America, is a federal republic composed of 50 states, a federal district, five major self-governing territories, and various possessions. At 3.8 million square miles and with over 325 million people, the United States is the world's third- or fourth-largest country by total area and the third-most populous. The capital is Washington, D.C., and the largest city by population is New York City. Forty-eight states and the capital's federal district are contiguous and located in North America between Canada and Mexico. The state of Alaska is in the northwest corner of North America, bordered by Canada to the east and across the Bering Strait from Russia to the west. The state of Hawaii is an archipelago in the mid-Pacific Ocean. The U.S. territories are scattered about the Pacific Ocean and the Caribbean Sea, stretching across nine official time zones. The extremely diverse geography, climate, and wildlife of the United States make it one of the world's 17 megadiverse countries.</t>
+  </si>
+  <si>
+    <t>Uruguay, officially the Oriental Republic of Uruguay, is a sovereign state in the southeastern region of South America. It borders Argentina to its west and Brazil to its north and east, with the Río de la Plata (River of Silver) to the south and the Atlantic Ocean to the southeast. Uruguay is home to an estimated 3.44 million people, of whom 1.8 million live in the metropolitan area of its capital and largest city, Montevideo. With an area of approximately 176,000 square kilometres (68,000 sq mi), Uruguay is geographically the second-smallest nation in South America, after Suriname.</t>
+  </si>
+  <si>
+    <t>Uzbekistan, officially also the Republic of Uzbekistan, is a doubly landlocked Central Asian state. It is a secular, unitary constitutional republic, comprising 12 provinces, one autonomous republic, and a capital city. Uzbekistan is bordered by five landlocked countries: Kazakhstan to the north; Kyrgyzstan to the northeast; Tajikistan to the southeast; Afghanistan to the south; and Turkmenistan to the southwest.</t>
+  </si>
+  <si>
+    <t>Vanuatu, officially the Republic of Vanuatu, is a Pacific island nation located in the South Pacific Ocean. The archipelago, which is of volcanic origin, is some 1,750 kilometres east of northern Australia, 540 kilometres northeast of New Caledonia, east of New Guinea, southeast of the Solomon Islands, and west of Fiji.</t>
+  </si>
+  <si>
+    <t>Vatican City, officially Vatican City State or the State of Vatican City, is a country located within the city of Rome. With an area of approximately 44 hectares, and a population of 1,000, it is the smallest state in the world by both area and population. However, formally it is not sovereign, with sovereignty being held by the Holy See.</t>
+  </si>
+  <si>
+    <t>Venezuela, officially the Bolivarian Republic of Venezuela, is a federal republic located on the northern coast of South America. It is bordered by Colombia on the west, Brazil on the south, Guyana on the east, the Dutch Caribbean ABC islands to the north and the islands of Trinidad and Tobago to the north-east. Venezuela covers 916,445 km2 and has over 31 million people. The country has extremely high biodiversity and is ranked 7th in the world's list of nations with the most number of species. There are habitats ranging from the Andes Mountains in the west to the Amazon Basin rain-forest in the south via extensive llanos plains. Additionally, there is the Caribbean coast in the center and the Orinoco River Delta in the east.</t>
+  </si>
+  <si>
+    <t>Vietnam, officially the Socialist Republic of Vietnam, is the easternmost country on the Indochina Peninsula in Southeast Asia. With an estimated 94.6 million inhabitants as of 2016, it is the world's 14th-most-populous country, and the ninth-most-populous Asian country. Vietnam is bordered by China to the north, Laos to the northwest, Cambodia to the southwest, Thailand across the Gulf of Thailand to the southwest, and the Philippines, Malaysia and Indonesia across the South China Sea to the east and southeast. Its capital city has been Hanoi since the reunification of North and South Vietnam in 1976, with Ho Chi Minh City as the most populous city.</t>
+  </si>
+  <si>
+    <t>Yemen, officially known as the Republic of Yemen, is an Arab country in Western Asia at the southern end of the Arabian Peninsula. Yemen is the second-largest country in the peninsula, occupying 527,970 km2. The coastline stretches for about 2,000 km. It is bordered by Saudi Arabia to the north, the Red Sea to the west, the Gulf of Aden and Arabian Sea to the south, and Oman to the east-northeast. Although Yemen's constitutionally stated capital is the city of Sana'a, the city has been under Houthi rebel control since February 2015. Because of this, Yemen's capital has been temporarily relocated to the port city of Aden, on the southern coast. Yemen's territory includes more than 200 islands; the largest of these is Socotra.</t>
+  </si>
+  <si>
+    <t>Zambia, officially the Republic of Zambia, is a landlocked country in Southern Africa, neighbouring the Democratic Republic of the Congo to the north, Tanzania to the north-east, Malawi to the east, Mozambique, Zimbabwe, Botswana and Namibia to the south, and Angola to the west. The capital city is Lusaka, in the south-central part of Zambia. The population is concentrated mainly around Lusaka in the south and the Copperbelt Province to the northwest, the core economic hubs of the country.</t>
+  </si>
+  <si>
+    <t>Zimbabwe, officially the Republic of Zimbabwe, is a landlocked country located in southern Africa, between the Zambezi and Limpopo Rivers, bordered by South Africa, Botswana, Zambia and Mozambique. The capital and largest city is Harare. A country of roughly 16 million people, Zimbabwe has 16 official languages, with English, Shona, and Ndebele the most commonly used.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micronesia is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subregion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oceania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, comprising thousands of small islands in the western </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pacific Ocean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It has a shared cultural history with two other island regions, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polynesia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to the east and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melanesia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to the south.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,6 +2030,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2371,8 +2390,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2694,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2721,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>622</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2732,2265 +2752,2146 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>259</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>280</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>286</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>325</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>334</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>340</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
-      </c>
-      <c r="C115" t="s">
-        <v>340</v>
+        <v>232</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>369</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>370</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s">
-        <v>372</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>374</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>388</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>395</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>404</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>407</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>408</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>419</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>423</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>425</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>434</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>435</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
-        <v>438</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>439</v>
+        <v>298</v>
       </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>299</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>300</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>303</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>304</v>
       </c>
       <c r="B151" t="s">
-        <v>449</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
       <c r="B152" t="s">
-        <v>452</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>455</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>456</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>457</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>458</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>461</v>
+        <v>312</v>
       </c>
       <c r="C155" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>466</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
-        <v>470</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>475</v>
+        <v>321</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>322</v>
       </c>
       <c r="C160" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>323</v>
       </c>
       <c r="B161" t="s">
-        <v>479</v>
+        <v>324</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>481</v>
+        <v>326</v>
       </c>
       <c r="B162" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="C162" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>484</v>
+        <v>328</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>329</v>
       </c>
       <c r="C163" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>330</v>
       </c>
       <c r="B164" t="s">
-        <v>488</v>
+        <v>331</v>
       </c>
       <c r="C164" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>490</v>
+        <v>332</v>
       </c>
       <c r="B165" t="s">
-        <v>491</v>
+        <v>333</v>
       </c>
       <c r="C165" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="B166" t="s">
-        <v>494</v>
+        <v>335</v>
       </c>
       <c r="C166" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>496</v>
+        <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>497</v>
+        <v>337</v>
       </c>
       <c r="C167" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>499</v>
+        <v>338</v>
       </c>
       <c r="B168" t="s">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="C168" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>502</v>
+        <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>503</v>
+        <v>341</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>342</v>
       </c>
       <c r="B170" t="s">
-        <v>506</v>
+        <v>343</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>508</v>
+        <v>344</v>
       </c>
       <c r="B171" t="s">
-        <v>509</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="B172" t="s">
-        <v>512</v>
+        <v>347</v>
       </c>
       <c r="C172" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>514</v>
+        <v>348</v>
       </c>
       <c r="B173" t="s">
-        <v>515</v>
+        <v>349</v>
       </c>
       <c r="C173" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>517</v>
+        <v>350</v>
       </c>
       <c r="B174" t="s">
-        <v>518</v>
+        <v>351</v>
       </c>
       <c r="C174" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>520</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
-        <v>521</v>
+        <v>353</v>
       </c>
       <c r="C175" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>523</v>
+        <v>354</v>
       </c>
       <c r="B176" t="s">
-        <v>524</v>
+        <v>355</v>
       </c>
       <c r="C176" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>526</v>
+        <v>356</v>
       </c>
       <c r="B177" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
       <c r="C177" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>529</v>
+        <v>358</v>
       </c>
       <c r="B178" t="s">
-        <v>530</v>
+        <v>359</v>
       </c>
       <c r="C178" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>532</v>
+        <v>360</v>
       </c>
       <c r="B179" t="s">
-        <v>533</v>
+        <v>361</v>
       </c>
       <c r="C179" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="B180" t="s">
-        <v>536</v>
+        <v>363</v>
       </c>
       <c r="C180" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>538</v>
+        <v>364</v>
       </c>
       <c r="B181" t="s">
-        <v>539</v>
+        <v>365</v>
       </c>
       <c r="C181" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>541</v>
+        <v>366</v>
       </c>
       <c r="B182" t="s">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="C182" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="B183" t="s">
-        <v>545</v>
+        <v>369</v>
       </c>
       <c r="C183" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>547</v>
+        <v>370</v>
       </c>
       <c r="B184" t="s">
-        <v>548</v>
+        <v>371</v>
       </c>
       <c r="C184" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>550</v>
+        <v>372</v>
       </c>
       <c r="B185" t="s">
-        <v>551</v>
+        <v>373</v>
       </c>
       <c r="C185" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>553</v>
+        <v>374</v>
       </c>
       <c r="B186" t="s">
-        <v>554</v>
+        <v>375</v>
       </c>
       <c r="C186" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>556</v>
+        <v>376</v>
       </c>
       <c r="B187" t="s">
-        <v>557</v>
+        <v>377</v>
       </c>
       <c r="C187" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>559</v>
+        <v>378</v>
       </c>
       <c r="B188" t="s">
-        <v>560</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="B189" t="s">
-        <v>563</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>565</v>
+        <v>382</v>
       </c>
       <c r="B190" t="s">
-        <v>566</v>
+        <v>383</v>
       </c>
       <c r="C190" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>568</v>
+        <v>384</v>
       </c>
       <c r="B191" t="s">
-        <v>569</v>
+        <v>385</v>
       </c>
       <c r="C191" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>571</v>
+        <v>386</v>
       </c>
       <c r="B192" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="C192" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>574</v>
+        <v>388</v>
       </c>
       <c r="B193" t="s">
-        <v>575</v>
+        <v>389</v>
       </c>
       <c r="C193" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>577</v>
+        <v>390</v>
       </c>
       <c r="B194" t="s">
-        <v>578</v>
+        <v>391</v>
       </c>
       <c r="C194" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>580</v>
+        <v>392</v>
       </c>
       <c r="B195" t="s">
-        <v>581</v>
+        <v>393</v>
       </c>
       <c r="C195" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>583</v>
+        <v>394</v>
       </c>
       <c r="B196" t="s">
-        <v>584</v>
+        <v>395</v>
       </c>
       <c r="C196" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" t="s">
         <v>586</v>
       </c>
-      <c r="B197" t="s">
-        <v>587</v>
-      </c>
-      <c r="C197" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" t="s">
-        <v>589</v>
-      </c>
-      <c r="B198" t="s">
-        <v>590</v>
-      </c>
-      <c r="C198" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" t="s">
-        <v>592</v>
-      </c>
-      <c r="B199" t="s">
-        <v>593</v>
-      </c>
-      <c r="C199" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" t="s">
-        <v>595</v>
-      </c>
-      <c r="B200" t="s">
-        <v>596</v>
-      </c>
-      <c r="C200" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" t="s">
-        <v>598</v>
-      </c>
-      <c r="B201" t="s">
-        <v>599</v>
-      </c>
-      <c r="C201" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" t="s">
-        <v>601</v>
-      </c>
-      <c r="B202" t="s">
-        <v>602</v>
-      </c>
-      <c r="C202" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" t="s">
-        <v>604</v>
-      </c>
-      <c r="B203" t="s">
-        <v>605</v>
-      </c>
-      <c r="C203" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" t="s">
-        <v>607</v>
-      </c>
-      <c r="B204" t="s">
-        <v>608</v>
-      </c>
-      <c r="C204" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" t="s">
-        <v>610</v>
-      </c>
-      <c r="B205" t="s">
-        <v>611</v>
-      </c>
-      <c r="C205" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" t="s">
-        <v>613</v>
-      </c>
-      <c r="B206" t="s">
-        <v>614</v>
-      </c>
-      <c r="C206" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" t="s">
-        <v>616</v>
-      </c>
-      <c r="B207" t="s">
-        <v>617</v>
-      </c>
-      <c r="C207" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" t="s">
-        <v>619</v>
-      </c>
-      <c r="B208" t="s">
-        <v>620</v>
-      </c>
-      <c r="C208" t="s">
-        <v>621</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>